--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -1208,7 +1208,7 @@
     <t xml:space="preserve">http://srvanderplas.github.io/2023-Presentations/12-ASC/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">graphics, visualization, </t>
+    <t xml:space="preserve">graphics, visualization</t>
   </si>
   <si>
     <t xml:space="preserve">https://srvanderplas.github.io/2023-Presentations/12-ASC/index.html#/perception-exp.-growth-log-scales</t>
@@ -1966,7 +1966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1988,19 +1988,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2040,6 +2032,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2330,7 +2326,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="8" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2354,7 +2350,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="8" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2378,7 +2374,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="8" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2402,7 +2398,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="8" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2594,7 +2590,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,10 +3211,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3232,10 +3228,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3249,10 +3245,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="16" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3266,7 +3262,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="15" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3291,7 +3287,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
@@ -3329,7 +3325,7 @@
       <c r="A2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3353,7 +3349,7 @@
       <c r="A3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3377,7 +3373,7 @@
       <c r="A4" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3404,7 +3400,7 @@
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3431,7 +3427,7 @@
       <c r="A6" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3452,7 +3448,7 @@
       <c r="A7" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3476,7 +3472,7 @@
       <c r="A8" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3497,7 +3493,7 @@
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3521,7 +3517,7 @@
       <c r="A10" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3545,7 +3541,7 @@
       <c r="A11" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3566,7 +3562,7 @@
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3593,7 +3589,7 @@
       <c r="A13" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3617,7 +3613,7 @@
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3638,7 +3634,7 @@
       <c r="A15" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="17" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3659,7 +3655,7 @@
       <c r="A16" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="17" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3683,7 +3679,7 @@
       <c r="A17" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3707,7 +3703,7 @@
       <c r="A18" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3731,7 +3727,7 @@
       <c r="A19" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3755,7 +3751,7 @@
       <c r="A20" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3779,7 +3775,7 @@
       <c r="A21" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="17" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4031,7 +4027,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4049,7 +4045,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4067,7 +4063,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4085,7 +4081,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4100,7 +4096,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4174,17 +4170,17 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4202,17 +4198,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4230,17 +4226,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4258,17 +4254,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4286,17 +4282,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4315,17 +4311,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4344,17 +4340,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4373,17 +4369,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4679,14 +4675,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4731,14 +4727,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4779,14 +4775,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4831,14 +4827,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4883,14 +4879,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4935,14 +4931,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4987,14 +4983,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5035,14 +5031,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5063,14 +5059,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5091,14 +5087,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5139,7 +5135,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,7 +5183,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5209,7 +5205,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5228,7 +5224,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5250,7 +5246,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5266,7 +5262,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5288,7 +5284,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5307,7 +5303,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5329,7 +5325,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5350,7 +5346,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5372,7 +5368,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5387,7 +5383,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5409,7 +5405,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5427,7 +5423,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5449,7 +5445,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5467,7 +5463,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5489,7 +5485,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5498,7 +5494,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5520,7 +5516,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5532,7 +5528,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5554,7 +5550,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5563,7 +5559,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5585,7 +5581,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5594,7 +5590,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5607,7 +5603,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5616,13 +5612,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5745,21 +5741,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5768,26 +5764,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5798,21 +5794,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5824,21 +5820,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5850,21 +5846,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5876,21 +5872,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5902,21 +5898,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5928,21 +5924,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5954,21 +5950,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5980,21 +5976,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6030,7 +6026,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6069,7 +6065,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6079,7 +6075,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6134,7 +6130,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6148,7 +6144,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6165,7 +6161,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6179,7 +6175,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6193,7 +6189,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6207,7 +6203,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6221,7 +6217,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6238,7 +6234,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6255,7 +6251,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6272,7 +6268,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6306,17 +6302,17 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="68.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="113.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="68.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="113.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6408,13 +6404,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6443,13 +6439,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6478,16 +6474,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6519,13 +6515,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6583,16 +6579,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6650,16 +6646,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6691,13 +6687,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6729,13 +6725,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6764,13 +6760,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6799,13 +6795,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6834,13 +6830,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6872,13 +6868,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6907,13 +6903,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6939,13 +6935,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6974,13 +6970,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7012,13 +7008,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7050,13 +7046,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7088,13 +7084,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7120,13 +7116,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7158,13 +7154,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7196,13 +7192,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7230,13 +7226,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7268,13 +7264,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7332,13 +7328,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7370,13 +7366,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="10" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7408,13 +7404,13 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7446,7 +7442,7 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -7478,13 +7474,13 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>356</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="10" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7513,13 +7509,13 @@
       <c r="H34" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>361</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="10" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7551,13 +7547,13 @@
       <c r="I35" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>367</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="10" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7586,13 +7582,13 @@
       <c r="I36" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>375</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="10" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7624,13 +7620,13 @@
       <c r="I37" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>384</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="10" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7656,13 +7652,13 @@
       <c r="H38" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>389</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="10" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7691,7 +7687,7 @@
       <c r="I39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>396</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7726,13 +7722,13 @@
       <c r="I40" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>400</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="10" t="s">
         <v>402</v>
       </c>
     </row>
@@ -7761,16 +7757,16 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>405</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="10" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7872,9 +7868,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,7 +7956,7 @@
       <c r="G3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>425</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8021,7 +8017,7 @@
       <c r="G5" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>425</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8082,7 +8078,7 @@
       <c r="G7" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>425</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8172,7 +8168,7 @@
       <c r="G10" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>435</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8233,7 +8229,7 @@
       <c r="G12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>437</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8265,7 +8261,7 @@
       <c r="G13" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>439</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8297,7 +8293,7 @@
       <c r="G14" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>425</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8329,7 +8325,7 @@
       <c r="G15" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>440</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8384,7 +8380,7 @@
       <c r="G17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8410,7 +8406,7 @@
       <c r="G18" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>439</v>
       </c>
     </row>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="601">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1098,6 +1098,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives/images/bullet_firing_short.gif</t>
   </si>
   <si>
     <t xml:space="preserve">What Makes a Good Graph? Graphical Testing and Principles for Graph Design</t>
@@ -1858,7 +1861,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1917,6 +1920,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1966,7 +1976,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1988,11 +1998,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2023,6 +2041,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2032,10 +2054,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2118,7 +2136,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2295,7 +2313,7 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2312,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>164</v>
@@ -2321,103 +2339,103 @@
         <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="10" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="10" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="10" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="10" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2426,22 +2444,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,22 +2467,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,22 +2490,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,22 +2513,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2549,7 @@
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2539,13 +2557,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2560,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2582,7 +2600,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -2590,7 +2608,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,25 +2616,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,18 +2654,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2659,15 +2677,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2682,13 +2700,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,13 +2726,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,21 +2752,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2760,15 +2778,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2783,18 +2801,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2806,10 +2824,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2832,10 +2850,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,10 +2873,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2878,13 +2896,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,13 +2922,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2930,18 +2948,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>250</v>
@@ -2953,13 +2971,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,10 +2997,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,10 +3020,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,10 +3043,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,13 +3066,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,10 +3161,10 @@
         <v>2025</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3185,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3175,16 +3193,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3192,10 +3210,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3206,15 +3224,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="18" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3223,15 +3241,15 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="18" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3240,15 +3258,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="19" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3257,12 +3275,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="18" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3287,7 +3305,7 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
@@ -3303,19 +3321,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>127</v>
@@ -3323,9 +3341,9 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B2" s="17" t="b">
+        <v>517</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3336,20 +3354,20 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B3" s="1" t="b">
+        <v>517</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3360,20 +3378,20 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" s="1" t="b">
+        <v>517</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3384,23 +3402,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3411,23 +3429,23 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B6" s="1" t="b">
+        <v>517</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3438,17 +3456,17 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>517</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3459,20 +3477,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B8" s="1" t="b">
+        <v>517</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3483,17 +3501,17 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3504,20 +3522,20 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B10" s="1" t="b">
+        <v>535</v>
+      </c>
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3528,20 +3546,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B11" s="17" t="b">
+        <v>517</v>
+      </c>
+      <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3552,17 +3570,17 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="17" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3573,23 +3591,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B13" s="17" t="b">
+        <v>535</v>
+      </c>
+      <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3600,20 +3618,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="17" t="b">
+      <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3624,17 +3642,17 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B15" s="17" t="b">
+        <v>535</v>
+      </c>
+      <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3645,17 +3663,17 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B16" s="17" t="b">
+        <v>535</v>
+      </c>
+      <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3666,20 +3684,20 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B17" s="17" t="b">
+        <v>517</v>
+      </c>
+      <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3690,20 +3708,20 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B18" s="17" t="b">
+        <v>535</v>
+      </c>
+      <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3714,20 +3732,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B19" s="17" t="b">
+        <v>517</v>
+      </c>
+      <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3738,20 +3756,20 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B20" s="17" t="b">
+        <v>517</v>
+      </c>
+      <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3762,20 +3780,20 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B21" s="17" t="b">
+        <v>535</v>
+      </c>
+      <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3786,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,7 +3839,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3829,10 +3847,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3858,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3866,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,7 +3874,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3882,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,7 +3890,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3898,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3906,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,7 +3914,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3922,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +3930,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3938,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3946,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3954,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,7 +3962,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +3970,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +3978,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +3986,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +3994,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +4015,7 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4008,26 +4026,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4038,14 +4056,14 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4056,14 +4074,14 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4074,14 +4092,14 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4092,11 +4110,11 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4107,10 +4125,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4149,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4145,10 +4163,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>127</v>
@@ -4157,40 +4175,40 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>581</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="10" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4198,27 +4216,27 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>581</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4226,27 +4244,27 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>581</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4254,27 +4272,27 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>581</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4282,27 +4300,27 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>581</v>
+      </c>
+      <c r="C6" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4311,27 +4329,27 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="8" t="n">
+        <v>593</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4340,27 +4358,27 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>593</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4369,30 +4387,30 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>593</v>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4529,7 +4547,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4618,7 +4636,7 @@
   </sheetPr>
   <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4675,14 +4693,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4727,14 +4745,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4775,14 +4793,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4827,14 +4845,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4879,14 +4897,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4931,14 +4949,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4983,14 +5001,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5031,14 +5049,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5059,14 +5077,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5087,14 +5105,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5129,13 +5147,13 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,7 +5201,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5205,7 +5223,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5224,7 +5242,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5246,7 +5264,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5262,7 +5280,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5284,7 +5302,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5303,7 +5321,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5325,7 +5343,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5346,7 +5364,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5368,7 +5386,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5383,7 +5401,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5405,7 +5423,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5423,7 +5441,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5445,7 +5463,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5463,7 +5481,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5485,7 +5503,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5494,7 +5512,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5516,7 +5534,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5528,7 +5546,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5550,7 +5568,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5559,7 +5577,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5581,7 +5599,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5590,7 +5608,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5603,7 +5621,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5612,13 +5630,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5638,7 +5656,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5708,7 +5726,7 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5741,21 +5759,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5764,26 +5782,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5794,21 +5812,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5820,21 +5838,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5846,21 +5864,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5872,21 +5890,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5898,21 +5916,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5924,21 +5942,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5950,21 +5968,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5976,21 +5994,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6026,7 +6044,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6083,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6075,7 +6093,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6097,7 +6115,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6130,7 +6148,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6144,7 +6162,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6161,7 +6179,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6175,7 +6193,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6189,7 +6207,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6203,7 +6221,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6217,7 +6235,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6234,7 +6252,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6251,7 +6269,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6268,7 +6286,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6302,17 +6320,17 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="68.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="113.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,13 +6422,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6439,13 +6457,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6474,16 +6492,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6515,13 +6533,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6579,16 +6597,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6646,16 +6664,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6687,13 +6705,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="12" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6725,13 +6743,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6760,13 +6778,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6795,13 +6813,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6830,13 +6848,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="12" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6868,13 +6886,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6903,13 +6921,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="15" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6935,13 +6953,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="15" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6970,13 +6988,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="15" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7008,13 +7026,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="15" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7046,13 +7064,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="15" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7084,13 +7102,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="15" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="12" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7116,13 +7134,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="15" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="12" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7154,13 +7172,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="15" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="12" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7192,13 +7210,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="12" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7226,13 +7244,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="12" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7264,13 +7282,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="12" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="12" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7328,13 +7346,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="12" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7366,13 +7384,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="12" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7404,17 +7422,17 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="12" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="12" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
         <v>44972</v>
       </c>
@@ -7442,11 +7460,14 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="12" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>285</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +7478,7 @@
         <v>247</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>186</v>
@@ -7466,7 +7487,7 @@
         <v>249</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>49</v>
@@ -7474,14 +7495,14 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>356</v>
+      <c r="J33" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="L33" s="10" t="s">
         <v>358</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7492,7 +7513,7 @@
         <v>191</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>186</v>
@@ -7507,16 +7528,16 @@
         <v>175</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J34" s="10" t="s">
         <v>361</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>362</v>
+      <c r="L34" s="12" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,7 +7548,7 @@
         <v>247</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>186</v>
@@ -7536,25 +7557,25 @@
         <v>281</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>258</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J35" s="10" t="s">
         <v>367</v>
       </c>
+      <c r="J35" s="12" t="s">
+        <v>368</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L35" s="10" t="s">
         <v>369</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,31 +7586,31 @@
         <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J36" s="10" t="s">
         <v>375</v>
       </c>
+      <c r="J36" s="12" t="s">
+        <v>376</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L36" s="10" t="s">
         <v>377</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,34 +7621,34 @@
         <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J37" s="10" t="s">
         <v>384</v>
       </c>
+      <c r="J37" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L37" s="10" t="s">
         <v>386</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7638,28 +7659,28 @@
         <v>191</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J38" s="10" t="s">
         <v>389</v>
       </c>
+      <c r="J38" s="12" t="s">
+        <v>390</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L38" s="10" t="s">
         <v>391</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7691,7 @@
         <v>191</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>186</v>
@@ -7679,19 +7700,19 @@
         <v>173</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="J39" s="10" t="s">
         <v>396</v>
       </c>
+      <c r="J39" s="12" t="s">
+        <v>397</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7702,7 +7723,7 @@
         <v>247</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>186</v>
@@ -7711,7 +7732,7 @@
         <v>281</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>49</v>
@@ -7720,16 +7741,16 @@
         <v>258</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J40" s="10" t="s">
         <v>400</v>
       </c>
+      <c r="J40" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L40" s="10" t="s">
         <v>402</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7740,7 +7761,7 @@
         <v>247</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>186</v>
@@ -7749,7 +7770,7 @@
         <v>281</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -7757,17 +7778,17 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="J41" s="10" t="s">
+      <c r="I41" s="17" t="s">
         <v>405</v>
       </c>
+      <c r="J41" s="12" t="s">
+        <v>406</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L41" s="10" t="s">
         <v>407</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -7825,23 +7846,24 @@
     <hyperlink ref="J31" r:id="rId51" location="/title-slide" display="https://srvanderplas.github.io/2022-Presentations/10-StatDeptSeminar/#/title-slide"/>
     <hyperlink ref="L31" r:id="rId52" location="/assessing-error-rates" display="https://srvanderplas.github.io/2022-Presentations/10-StatDeptSeminar/#/assessing-error-rates"/>
     <hyperlink ref="J32" r:id="rId53" display="http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives"/>
-    <hyperlink ref="J33" r:id="rId54" display="http://srvanderplas.github.io/2023-Presentations/03-C3B"/>
-    <hyperlink ref="L33" r:id="rId55" location="/the-good" display="https://srvanderplas.github.io/2023-Presentations/03-C3B/#/the-good"/>
-    <hyperlink ref="J34" r:id="rId56" display="http://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/"/>
-    <hyperlink ref="L34" r:id="rId57" location="/testing-graphics-to-understand-statistics" display="https://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/#/testing-graphics-to-understand-statistics"/>
-    <hyperlink ref="J35" r:id="rId58" display="http://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/"/>
-    <hyperlink ref="L35" r:id="rId59" location="/cognitive-psychology-primer" display="https://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/#/cognitive-psychology-primer"/>
-    <hyperlink ref="J36" r:id="rId60" location="/title-slide" display="http://srvanderplas.github.io/2023-Presentations/11-ICDS/#/title-slide"/>
-    <hyperlink ref="L36" r:id="rId61" location="/testing" display="https://srvanderplas.github.io/2023-Presentations/11-ICDS/#/testing"/>
-    <hyperlink ref="J37" r:id="rId62" display="http://srvanderplas.github.io/2023-Presentations/12-IASCARS/"/>
-    <hyperlink ref="L37" r:id="rId63" location="/complication-different-cv-models" display="https://srvanderplas.github.io/2023-Presentations/12-IASCARS/#/complication-different-cv-models"/>
-    <hyperlink ref="J38" r:id="rId64" display="http://srvanderplas.github.io/2023-Presentations/12-ASC/index.html"/>
-    <hyperlink ref="L38" r:id="rId65" location="/perception-exp.-growth-log-scales" display="https://srvanderplas.github.io/2023-Presentations/12-ASC/index.html#/perception-exp.-growth-log-scales"/>
-    <hyperlink ref="J39" r:id="rId66" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/01-ICOFPE/#/title-slide"/>
-    <hyperlink ref="J40" r:id="rId67" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/title-slide"/>
-    <hyperlink ref="L40" r:id="rId68" location="/what-does-it-look-like" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/what-does-it-look-like"/>
-    <hyperlink ref="J41" r:id="rId69" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/"/>
-    <hyperlink ref="L41" r:id="rId70" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/xlsx-tex-bib-pdf.svg"/>
+    <hyperlink ref="L32" r:id="rId54" display="http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives/images/bullet_firing_short.gif"/>
+    <hyperlink ref="J33" r:id="rId55" display="http://srvanderplas.github.io/2023-Presentations/03-C3B"/>
+    <hyperlink ref="L33" r:id="rId56" location="/the-good" display="https://srvanderplas.github.io/2023-Presentations/03-C3B/#/the-good"/>
+    <hyperlink ref="J34" r:id="rId57" display="http://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/"/>
+    <hyperlink ref="L34" r:id="rId58" location="/testing-graphics-to-understand-statistics" display="https://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/#/testing-graphics-to-understand-statistics"/>
+    <hyperlink ref="J35" r:id="rId59" display="http://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/"/>
+    <hyperlink ref="L35" r:id="rId60" location="/cognitive-psychology-primer" display="https://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/#/cognitive-psychology-primer"/>
+    <hyperlink ref="J36" r:id="rId61" location="/title-slide" display="http://srvanderplas.github.io/2023-Presentations/11-ICDS/#/title-slide"/>
+    <hyperlink ref="L36" r:id="rId62" location="/testing" display="https://srvanderplas.github.io/2023-Presentations/11-ICDS/#/testing"/>
+    <hyperlink ref="J37" r:id="rId63" display="http://srvanderplas.github.io/2023-Presentations/12-IASCARS/"/>
+    <hyperlink ref="L37" r:id="rId64" location="/complication-different-cv-models" display="https://srvanderplas.github.io/2023-Presentations/12-IASCARS/#/complication-different-cv-models"/>
+    <hyperlink ref="J38" r:id="rId65" display="http://srvanderplas.github.io/2023-Presentations/12-ASC/index.html"/>
+    <hyperlink ref="L38" r:id="rId66" location="/perception-exp.-growth-log-scales" display="https://srvanderplas.github.io/2023-Presentations/12-ASC/index.html#/perception-exp.-growth-log-scales"/>
+    <hyperlink ref="J39" r:id="rId67" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/01-ICOFPE/#/title-slide"/>
+    <hyperlink ref="J40" r:id="rId68" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/title-slide"/>
+    <hyperlink ref="L40" r:id="rId69" location="/what-does-it-look-like" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/what-does-it-look-like"/>
+    <hyperlink ref="J41" r:id="rId70" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/"/>
+    <hyperlink ref="L41" r:id="rId71" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/xlsx-tex-bib-pdf.svg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -7860,7 +7882,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -7868,41 +7890,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7910,22 +7932,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -7939,25 +7961,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H3" s="10" t="s">
         <v>425</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -7971,22 +7993,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8000,25 +8022,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>425</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8032,22 +8054,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8061,25 +8083,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>425</v>
+        <v>430</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8093,22 +8115,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8122,22 +8144,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8151,25 +8173,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>435</v>
+        <v>430</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>436</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8183,22 +8205,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8212,25 +8234,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>437</v>
+        <v>430</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8244,25 +8266,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8276,25 +8298,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>425</v>
+        <v>430</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>426</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8308,25 +8330,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>440</v>
+        <v>432</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8340,22 +8362,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8363,25 +8385,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>437</v>
+        <v>430</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,25 +8411,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>439</v>
+        <v>430</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1861,7 +1861,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1920,13 +1920,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1976,7 +1969,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1998,19 +1991,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2039,10 +2024,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2344,7 +2325,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="8" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2368,7 +2349,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="8" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2392,7 +2373,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="8" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2416,7 +2397,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="8" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2608,7 +2589,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,10 +3210,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3246,10 +3227,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3263,10 +3244,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="16" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3280,7 +3261,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="15" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3343,7 +3324,7 @@
       <c r="A2" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3367,7 +3348,7 @@
       <c r="A3" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3391,7 +3372,7 @@
       <c r="A4" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3418,7 +3399,7 @@
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3445,7 +3426,7 @@
       <c r="A6" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3466,7 +3447,7 @@
       <c r="A7" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3490,7 +3471,7 @@
       <c r="A8" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3511,7 +3492,7 @@
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3535,7 +3516,7 @@
       <c r="A10" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3559,7 +3540,7 @@
       <c r="A11" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3580,7 +3561,7 @@
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3607,7 +3588,7 @@
       <c r="A13" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3631,7 +3612,7 @@
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3652,7 +3633,7 @@
       <c r="A15" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3673,7 +3654,7 @@
       <c r="A16" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3697,7 +3678,7 @@
       <c r="A17" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3721,7 +3702,7 @@
       <c r="A18" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3745,7 +3726,7 @@
       <c r="A19" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3769,7 +3750,7 @@
       <c r="A20" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3793,7 +3774,7 @@
       <c r="A21" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4045,7 +4026,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4063,7 +4044,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4081,7 +4062,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4099,7 +4080,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4114,7 +4095,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4188,17 +4169,17 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4216,17 +4197,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4244,17 +4225,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4272,17 +4253,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4300,17 +4281,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4329,17 +4310,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4358,17 +4339,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4387,17 +4368,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4693,14 +4674,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4745,14 +4726,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4793,14 +4774,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4845,14 +4826,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4897,14 +4878,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4949,14 +4930,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5001,14 +4982,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5049,14 +5030,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5077,14 +5058,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5105,14 +5086,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5153,7 +5134,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5201,7 +5182,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5223,7 +5204,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5242,7 +5223,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5264,7 +5245,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5280,7 +5261,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5302,7 +5283,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5321,7 +5302,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5343,7 +5324,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5364,7 +5345,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5386,7 +5367,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5401,7 +5382,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5423,7 +5404,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5441,7 +5422,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5463,7 +5444,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5481,7 +5462,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5503,7 +5484,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5512,7 +5493,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5534,7 +5515,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5546,7 +5527,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5568,7 +5549,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5577,7 +5558,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5599,7 +5580,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5608,7 +5589,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5621,7 +5602,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5630,13 +5611,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5759,21 +5740,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5782,26 +5763,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5812,21 +5793,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5838,21 +5819,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5864,21 +5845,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5890,21 +5871,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5916,21 +5897,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5942,21 +5923,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5968,21 +5949,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5994,21 +5975,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6044,7 +6025,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,7 +6064,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6093,7 +6074,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6148,7 +6129,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6162,7 +6143,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6179,7 +6160,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6193,7 +6174,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6207,7 +6188,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6221,7 +6202,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6235,7 +6216,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6252,7 +6233,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6269,7 +6250,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6286,7 +6267,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6323,14 +6304,14 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="bottomLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,13 +6403,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6457,13 +6438,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6492,16 +6473,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6533,13 +6514,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6597,16 +6578,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6664,16 +6645,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6705,13 +6686,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6743,13 +6724,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6778,13 +6759,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6813,13 +6794,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6848,13 +6829,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6886,13 +6867,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6921,13 +6902,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6953,13 +6934,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6988,13 +6969,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7026,13 +7007,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7064,13 +7045,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7102,13 +7083,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7134,13 +7115,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7172,13 +7153,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7210,13 +7191,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7244,13 +7225,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7282,13 +7263,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7346,13 +7327,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7384,13 +7365,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="10" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7422,13 +7403,13 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7460,13 +7441,13 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="10" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7495,13 +7476,13 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>357</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="10" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7530,13 +7511,13 @@
       <c r="H34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>362</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7568,13 +7549,13 @@
       <c r="I35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>368</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="10" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7603,13 +7584,13 @@
       <c r="I36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>376</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="10" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7641,13 +7622,13 @@
       <c r="I37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>385</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="10" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7673,13 +7654,13 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>390</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="10" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7708,7 +7689,7 @@
       <c r="I39" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7743,13 +7724,13 @@
       <c r="I40" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>401</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7778,16 +7759,16 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>406</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="10" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7890,9 +7871,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7978,7 +7959,7 @@
       <c r="G3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>426</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8039,7 +8020,7 @@
       <c r="G5" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>426</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8100,7 +8081,7 @@
       <c r="G7" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>426</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8190,7 +8171,7 @@
       <c r="G10" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>436</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8251,7 +8232,7 @@
       <c r="G12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>438</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8283,7 +8264,7 @@
       <c r="G13" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>440</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8315,7 +8296,7 @@
       <c r="G14" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>426</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8347,7 +8328,7 @@
       <c r="G15" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>441</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8402,7 +8383,7 @@
       <c r="G17" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8428,7 +8409,7 @@
       <c r="G18" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>440</v>
       </c>
     </row>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="609">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1273,6 +1273,18 @@
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/xlsx-tex-bib-pdf.svg</t>
   </si>
   <si>
+    <t xml:space="preserve">Building a CV/Blog Automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This week will be the second of a 2-part workshop.    On Feb 15, we talked about how to make a CV with R and a google spreadsheet (and why you might want to do so).    This week, we'll talk about how to use this same setup to build a blog-type website with posts for each paper and presentation, using quarto.    Setup steps:        1. Clone or fork the github repository I've made: https://github.com/srvanderplas/cv-site-template.     2. Modify the data/CV.bib file in the repository to contain your publications, if you want to include them on the CV.      3. Modify the data/CV.xlsx file in the repository to contain your talks    During the presentation, I'll walk you through the workflow I use and show you how to use the code I've written to create your own CV-style blog from a spreadsheet and a bib file.   We'll also talk about how to use this workflow, git submodules, and github actions to automatically keep things updated. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/03-graphics-blog/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/03-graphics-blog/talk-post-layout.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
@@ -1562,6 +1574,18 @@
   </si>
   <si>
     <t xml:space="preserve">A Statistical Approach to Learning Computer Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Nebraska – Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maksuda Atka Toma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Historical Analysis of Pie and Bar Chart Experiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinuwanthi Lianage</t>
   </si>
   <si>
     <t xml:space="preserve">Student Name</t>
@@ -1969,7 +1993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1991,11 +2015,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2028,6 +2060,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2311,7 +2347,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>164</v>
@@ -2320,103 +2356,103 @@
         <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="10" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>20140501</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <v>20140501</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="n">
+        <v>20130801</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
-        <v>20130801</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="n">
+        <v>20130501</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
-        <v>20130501</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>445</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2425,22 +2461,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,22 +2484,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,22 +2507,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,22 +2530,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -2538,13 +2574,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2559,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2579,17 +2615,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2597,25 +2633,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,18 +2671,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2658,15 +2694,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2681,13 +2717,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,13 +2743,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2733,21 +2769,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2759,15 +2795,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2782,18 +2818,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2805,10 +2841,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,10 +2867,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +2890,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,13 +2913,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,13 +2939,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,18 +2965,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>250</v>
@@ -2952,13 +2988,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2978,10 +3014,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3037,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,10 +3060,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3047,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3139,13 +3175,56 @@
         <v>2023</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>2025</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3174,16 +3253,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3191,10 +3270,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3205,15 +3284,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="18" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3222,15 +3301,15 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="18" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3239,15 +3318,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="19" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="18" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3256,12 +3335,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="18" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3302,19 +3381,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>127</v>
@@ -3322,9 +3401,9 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3335,20 +3414,20 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B3" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3359,20 +3438,20 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B4" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3383,23 +3462,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3410,23 +3489,23 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B6" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3437,17 +3516,17 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3458,20 +3537,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B8" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3482,17 +3561,17 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3503,20 +3582,20 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B10" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3527,20 +3606,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B11" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3551,17 +3630,17 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3572,23 +3651,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B13" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3599,20 +3678,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3623,17 +3702,17 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B15" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3644,17 +3723,17 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B16" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3665,20 +3744,20 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B17" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3689,20 +3768,20 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B18" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3713,20 +3792,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B19" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3737,20 +3816,20 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B20" s="1" t="b">
+        <v>525</v>
+      </c>
+      <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3761,20 +3840,20 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B21" s="1" t="b">
+        <v>543</v>
+      </c>
+      <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3785,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,10 +3907,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,7 +3918,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,7 +3926,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,7 +3934,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3942,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,7 +3950,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,7 +3958,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,7 +3966,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3895,7 +3974,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,7 +3982,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,7 +3990,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,7 +3998,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3927,7 +4006,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,7 +4014,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3943,7 +4022,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,7 +4030,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,7 +4038,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3967,7 +4046,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,7 +4054,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4007,26 +4086,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4037,14 +4116,14 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4055,14 +4134,14 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4073,14 +4152,14 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4091,11 +4170,11 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4106,10 +4185,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4144,10 +4223,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>127</v>
@@ -4156,40 +4235,40 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C2" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="10" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4197,27 +4276,27 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C3" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4225,27 +4304,27 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C4" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4253,27 +4332,27 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C5" s="10" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4281,27 +4360,27 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C6" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4310,27 +4389,27 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="8" t="n">
+        <v>601</v>
+      </c>
+      <c r="C7" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4339,27 +4418,27 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>601</v>
+      </c>
+      <c r="C8" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4368,30 +4447,30 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>601</v>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4674,14 +4753,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4726,14 +4805,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4774,14 +4853,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4826,14 +4905,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4878,14 +4957,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4930,14 +5009,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4982,14 +5061,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5030,14 +5109,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5058,14 +5137,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5086,14 +5165,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5134,7 +5213,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5182,7 +5261,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5204,7 +5283,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5223,7 +5302,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5245,7 +5324,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5261,7 +5340,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5283,7 +5362,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5302,7 +5381,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5324,7 +5403,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5345,7 +5424,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5367,7 +5446,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5382,7 +5461,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5404,7 +5483,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5422,7 +5501,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5444,7 +5523,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5462,7 +5541,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5484,7 +5563,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5493,7 +5572,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5515,7 +5594,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5527,7 +5606,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5549,7 +5628,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5558,7 +5637,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5580,7 +5659,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5589,7 +5668,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5602,7 +5681,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5611,13 +5690,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="7"/>
+      <c r="F14" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5740,21 +5819,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="10" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="10" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5763,26 +5842,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="10" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="10" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5793,21 +5872,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5819,21 +5898,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5845,21 +5924,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5871,21 +5950,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="10" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5897,21 +5976,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="10" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5923,21 +6002,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="10" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5949,21 +6028,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5975,21 +6054,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="10" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="10" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6025,7 +6104,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6064,7 +6143,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6074,7 +6153,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6129,7 +6208,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6143,7 +6222,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6160,7 +6239,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6174,7 +6253,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6188,7 +6267,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6202,7 +6281,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6216,7 +6295,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6233,7 +6312,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6250,7 +6329,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6267,7 +6346,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6299,19 +6378,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K38" activeCellId="0" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,13 +6482,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6438,13 +6517,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="12" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6473,16 +6552,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="12" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6514,13 +6593,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6578,16 +6657,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="12" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6645,16 +6724,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="12" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="12" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6686,13 +6765,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="12" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="12" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6724,13 +6803,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6759,13 +6838,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="12" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="12" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6794,13 +6873,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="12" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6829,13 +6908,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="12" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="12" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6867,13 +6946,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="12" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6902,13 +6981,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="15" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="12" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6934,13 +7013,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="15" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="12" t="s">
         <v>274</v>
       </c>
     </row>
@@ -6969,13 +7048,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="15" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7007,13 +7086,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="15" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="12" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7045,13 +7124,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="15" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7083,13 +7162,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="15" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="12" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7115,13 +7194,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="15" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="12" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7153,13 +7232,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="15" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="12" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7191,13 +7270,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="12" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="12" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7225,13 +7304,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="12" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="12" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7263,13 +7342,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="12" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="12" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7327,13 +7406,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="12" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7365,13 +7444,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="12" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7403,13 +7482,13 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="12" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7441,13 +7520,13 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="12" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="12" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7476,13 +7555,13 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="12" t="s">
         <v>357</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="12" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7511,13 +7590,13 @@
       <c r="H34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="12" t="s">
         <v>362</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="12" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7549,13 +7628,13 @@
       <c r="I35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="12" t="s">
         <v>368</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="12" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7584,13 +7663,13 @@
       <c r="I36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="12" t="s">
         <v>376</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="12" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7622,13 +7701,13 @@
       <c r="I37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="12" t="s">
         <v>385</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="12" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7654,13 +7733,13 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="12" t="s">
         <v>390</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="12" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7689,7 +7768,7 @@
       <c r="I39" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="12" t="s">
         <v>397</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7724,13 +7803,13 @@
       <c r="I40" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="12" t="s">
         <v>401</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="12" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7759,17 +7838,55 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="12" t="s">
         <v>406</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="12" t="s">
         <v>408</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -7871,41 +7988,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,22 +8030,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -7942,25 +8059,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -7974,22 +8091,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8003,25 +8120,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>426</v>
+        <v>429</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>430</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8035,22 +8152,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8064,25 +8181,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8096,22 +8213,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8125,22 +8242,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8154,25 +8271,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>440</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8186,22 +8303,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8215,25 +8332,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8247,25 +8364,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8279,25 +8396,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>426</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8311,25 +8428,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8343,22 +8460,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8366,25 +8483,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>438</v>
+        <v>434</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,25 +8509,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1579,7 +1579,7 @@
     <t xml:space="preserve">University of Nebraska – Lincoln</t>
   </si>
   <si>
-    <t xml:space="preserve">Maksuda Atka Toma</t>
+    <t xml:space="preserve">Maksuda Aktar Toma</t>
   </si>
   <si>
     <t xml:space="preserve">An Historical Analysis of Pie and Bar Chart Experiments</t>
@@ -1993,7 +1993,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2015,19 +2015,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2062,7 +2054,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2361,7 +2353,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="8" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2385,7 +2377,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="8" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2409,7 +2401,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="8" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2433,7 +2425,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="8" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2620,12 +2612,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,45 +3177,45 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="6" t="n">
         <v>2023</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="6" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="6" t="n">
         <v>2023</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="6" t="s">
         <v>513</v>
       </c>
     </row>
@@ -3289,10 +3281,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3306,10 +3298,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3323,10 +3315,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="17" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3340,7 +3332,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="16" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3403,7 +3395,7 @@
       <c r="A2" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3427,7 +3419,7 @@
       <c r="A3" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3451,7 +3443,7 @@
       <c r="A4" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3478,7 +3470,7 @@
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3505,7 +3497,7 @@
       <c r="A6" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3526,7 +3518,7 @@
       <c r="A7" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3550,7 +3542,7 @@
       <c r="A8" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3571,7 +3563,7 @@
       <c r="A9" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3595,7 +3587,7 @@
       <c r="A10" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3619,7 +3611,7 @@
       <c r="A11" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3640,7 +3632,7 @@
       <c r="A12" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3667,7 +3659,7 @@
       <c r="A13" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3691,7 +3683,7 @@
       <c r="A14" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3712,7 +3704,7 @@
       <c r="A15" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3733,7 +3725,7 @@
       <c r="A16" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3757,7 +3749,7 @@
       <c r="A17" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3781,7 +3773,7 @@
       <c r="A18" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3805,7 +3797,7 @@
       <c r="A19" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3829,7 +3821,7 @@
       <c r="A20" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3853,7 +3845,7 @@
       <c r="A21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4105,7 +4097,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4123,7 +4115,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4141,7 +4133,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4159,7 +4151,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4174,7 +4166,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4248,17 +4240,17 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4276,17 +4268,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4304,17 +4296,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4332,17 +4324,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="8" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4360,17 +4352,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4389,17 +4381,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4418,17 +4410,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4447,17 +4439,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4753,14 +4745,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4805,14 +4797,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4853,14 +4845,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4905,14 +4897,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4957,14 +4949,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5009,14 +5001,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5061,14 +5053,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5109,14 +5101,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5137,14 +5129,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5165,14 +5157,14 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5213,7 +5205,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5261,7 +5253,7 @@
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5283,7 +5275,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5302,7 +5294,7 @@
       <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5324,7 +5316,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5340,7 +5332,7 @@
       <c r="A4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5362,7 +5354,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5381,7 +5373,7 @@
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5403,7 +5395,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5424,7 +5416,7 @@
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5446,7 +5438,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5461,7 +5453,7 @@
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5483,7 +5475,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5501,7 +5493,7 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5523,7 +5515,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5541,7 +5533,7 @@
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5563,7 +5555,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5572,7 +5564,7 @@
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5594,7 +5586,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5606,7 +5598,7 @@
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5628,7 +5620,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5637,7 +5629,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5659,7 +5651,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5668,7 +5660,7 @@
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5681,7 +5673,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5690,13 +5682,13 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="9"/>
+      <c r="F14" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5819,21 +5811,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="8" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5842,26 +5834,26 @@
       <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -5872,21 +5864,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -5898,21 +5890,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -5924,21 +5916,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -5950,21 +5942,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -5976,21 +5968,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6002,21 +5994,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6028,21 +6020,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6054,21 +6046,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="8" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6104,7 +6096,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,7 +6135,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6153,7 +6145,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6208,7 +6200,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6222,7 +6214,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6239,7 +6231,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6253,7 +6245,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6267,7 +6259,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6281,7 +6273,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6295,7 +6287,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6312,7 +6304,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="10" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6329,7 +6321,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -6346,7 +6338,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -6388,9 +6380,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6482,13 +6474,13 @@
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6517,13 +6509,13 @@
       <c r="H4" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="10" t="s">
         <v>188</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6552,16 +6544,16 @@
       <c r="H5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -6593,13 +6585,13 @@
       <c r="I6" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="10" t="s">
         <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6657,16 +6649,16 @@
       <c r="H8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="10" t="s">
         <v>210</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="10" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6724,16 +6716,16 @@
       <c r="H10" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>219</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6765,13 +6757,13 @@
       <c r="I11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="10" t="s">
         <v>224</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6803,13 +6795,13 @@
       <c r="I12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
         <v>230</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6838,13 +6830,13 @@
       <c r="I13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="10" t="s">
         <v>237</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6873,13 +6865,13 @@
       <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="10" t="s">
         <v>244</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6908,13 +6900,13 @@
       <c r="H15" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6946,13 +6938,13 @@
       <c r="I16" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="10" t="s">
         <v>260</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6981,13 +6973,13 @@
       <c r="H17" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="13" t="s">
         <v>266</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7013,13 +7005,13 @@
       <c r="H18" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="13" t="s">
         <v>272</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7048,13 +7040,13 @@
       <c r="H19" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="13" t="s">
         <v>277</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="10" t="s">
         <v>279</v>
       </c>
     </row>
@@ -7086,13 +7078,13 @@
       <c r="I20" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="13" t="s">
         <v>284</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7124,13 +7116,13 @@
       <c r="I21" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>292</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7162,13 +7154,13 @@
       <c r="I22" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="13" t="s">
         <v>301</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="10" t="s">
         <v>303</v>
       </c>
     </row>
@@ -7194,13 +7186,13 @@
       <c r="H23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="13" t="s">
         <v>306</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>307</v>
       </c>
     </row>
@@ -7232,13 +7224,13 @@
       <c r="I24" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>311</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="10" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7270,13 +7262,13 @@
       <c r="I25" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>315</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7304,13 +7296,13 @@
         <v>258</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="10" t="s">
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="10" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7342,13 +7334,13 @@
       <c r="I27" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="10" t="s">
         <v>328</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="10" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7406,13 +7398,13 @@
       <c r="I29" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="10" t="s">
         <v>337</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="L29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7444,13 +7436,13 @@
       <c r="I30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="10" t="s">
         <v>342</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="L30" s="10" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7482,13 +7474,13 @@
       <c r="I31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>347</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>349</v>
       </c>
     </row>
@@ -7520,13 +7512,13 @@
       <c r="I32" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="10" t="s">
         <v>353</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="10" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7555,13 +7547,13 @@
       <c r="H33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="10" t="s">
         <v>357</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="10" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7590,13 +7582,13 @@
       <c r="H34" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="10" t="s">
         <v>362</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L34" s="12" t="s">
+      <c r="L34" s="10" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7628,13 +7620,13 @@
       <c r="I35" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="10" t="s">
         <v>368</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="10" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7663,13 +7655,13 @@
       <c r="I36" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="10" t="s">
         <v>376</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="10" t="s">
         <v>378</v>
       </c>
     </row>
@@ -7701,13 +7693,13 @@
       <c r="I37" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="10" t="s">
         <v>385</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="10" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7733,13 +7725,13 @@
       <c r="H38" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="10" t="s">
         <v>390</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="10" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7768,7 +7760,7 @@
       <c r="I39" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="10" t="s">
         <v>397</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7803,13 +7795,13 @@
       <c r="I40" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="10" t="s">
         <v>401</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="10" t="s">
         <v>403</v>
       </c>
     </row>
@@ -7838,27 +7830,27 @@
       <c r="H41" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="16" t="s">
+      <c r="I41" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="10" t="s">
         <v>406</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L41" s="12" t="s">
+      <c r="L41" s="10" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="n">
+      <c r="A42" s="15" t="n">
         <v>45358</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>409</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -7876,16 +7868,16 @@
       <c r="H42" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="6" t="s">
         <v>411</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="6" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7988,9 +7980,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,7 +8068,7 @@
       <c r="G3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>430</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8137,7 +8129,7 @@
       <c r="G5" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>430</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8198,7 +8190,7 @@
       <c r="G7" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>430</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8288,7 +8280,7 @@
       <c r="G10" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="10" t="s">
         <v>440</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8349,7 +8341,7 @@
       <c r="G12" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>442</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8381,7 +8373,7 @@
       <c r="G13" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>444</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8413,7 +8405,7 @@
       <c r="G14" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="10" t="s">
         <v>430</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8445,7 +8437,7 @@
       <c r="G15" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>445</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8500,7 +8492,7 @@
       <c r="G17" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8526,7 +8518,7 @@
       <c r="G18" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>444</v>
       </c>
     </row>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="614">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1283,6 +1283,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/03-graphics-blog/talk-post-layout.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphical Perception in a Pandemic: Log Scales, Exponential Growth, and the Importance of User Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Illinois Chicago School of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epidemiology and Biostatistics Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago, IL (Online)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During COVID, people all over the world were consulting time-series charts on a daily basis and using these charts to make decisions. Discussions broke out among data visualization and scientific communication experts, debating the relative merits of log and linear scales, but there was relativley little research about how people perceive and use visualizations of exponential data, with linear or transformed scales. In this talk, I’ll discuss the study we undertook to address the lack of research in this area, and how the results speak not only to the importance of additional graphical testing, but also to the tradeoffs between different levels of user engagement with visualizations.</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -1993,7 +2008,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2055,6 +2070,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2339,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>164</v>
@@ -2348,7 +2367,7 @@
         <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2357,22 +2376,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2381,22 +2400,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2405,22 +2424,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2429,22 +2448,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2453,22 +2472,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2476,22 +2495,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2499,22 +2518,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,22 +2541,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2566,13 +2585,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2587,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2609,7 +2628,7 @@
   </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
@@ -2625,25 +2644,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,18 +2682,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2686,15 +2705,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2709,13 +2728,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,13 +2754,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,21 +2780,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2787,15 +2806,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2810,18 +2829,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2833,10 +2852,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,10 +2878,10 @@
         <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +2901,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,13 +2924,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,13 +2950,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,18 +2976,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>250</v>
@@ -2980,13 +2999,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,10 +3025,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,10 +3048,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,10 +3071,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,13 +3094,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3184,7 +3203,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>2023</v>
@@ -3193,10 +3212,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>2023</v>
@@ -3216,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3245,16 +3264,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3262,10 +3281,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3276,15 +3295,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3293,15 +3312,15 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3310,15 +3329,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3327,12 +3346,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3373,19 +3392,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>127</v>
@@ -3393,7 +3412,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B2" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3406,18 +3425,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3430,18 +3449,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3454,16 +3473,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,21 +3500,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3508,15 +3527,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3529,18 +3548,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3553,10 +3572,10 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,18 +3593,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3598,18 +3617,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B11" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3622,10 +3641,10 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3643,21 +3662,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B13" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3670,13 +3689,13 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3694,15 +3713,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B15" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3715,15 +3734,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B16" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -3736,18 +3755,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B17" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3760,18 +3779,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B18" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3784,18 +3803,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B19" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3808,18 +3827,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B20" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3832,18 +3851,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>175</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -3856,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3899,10 +3918,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,7 +3929,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,7 +3937,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,7 +3945,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3934,7 +3953,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,7 +3961,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3950,7 +3969,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3958,7 +3977,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,7 +3985,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +3993,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +4001,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3990,7 +4009,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,7 +4017,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4025,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +4033,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4041,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +4049,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +4057,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +4065,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4078,22 +4097,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4108,10 +4127,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,10 +4145,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,10 +4163,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,7 +4181,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4177,10 +4196,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -4215,10 +4234,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>127</v>
@@ -4227,13 +4246,13 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4245,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>2023</v>
@@ -4254,13 +4273,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4273,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>2022</v>
@@ -4282,13 +4301,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4301,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>2022</v>
@@ -4310,13 +4329,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4329,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>2022</v>
@@ -4338,13 +4357,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4357,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>2021</v>
@@ -4366,13 +4385,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4386,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C7" s="8" t="n">
         <v>2021</v>
@@ -4395,13 +4414,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4415,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C8" s="8" t="n">
         <v>2021</v>
@@ -4427,10 +4446,10 @@
         <v>319</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4444,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C9" s="8" t="n">
         <v>2020</v>
@@ -4453,16 +4472,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6370,12 +6389,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7879,6 +7898,35 @@
       </c>
       <c r="L42" s="6" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7987,34 +8035,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8022,22 +8070,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8051,25 +8099,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8083,22 +8131,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8112,25 +8160,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8144,22 +8192,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8173,25 +8221,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8205,22 +8253,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8234,22 +8282,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8263,25 +8311,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8295,22 +8343,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8324,25 +8372,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8356,25 +8404,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8388,25 +8436,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8420,25 +8468,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8452,22 +8500,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8475,25 +8523,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,25 +8549,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>250</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Thesis" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Education" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="Thesis" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Experience" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Grants" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="PRS" sheetId="5" state="visible" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="620">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t xml:space="preserve">University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Professor</t>
   </si>
   <si>
     <t xml:space="preserve">status</t>
@@ -1435,6 +1438,18 @@
     <t xml:space="preserve">Organizer</t>
   </si>
   <si>
+    <t xml:space="preserve">Effective Graphics for Visual Communication with Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symposium on Data Science and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond, VA</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -1601,6 +1616,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dinuwanthi Lianage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explainable Machine Learning and Open Source Software for Forensics in Courtrooms</t>
   </si>
   <si>
     <t xml:space="preserve">Student Name</t>
@@ -2008,7 +2026,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2030,11 +2048,27 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2073,7 +2107,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2158,17 +2192,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2335,21 +2369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2358,112 +2392,112 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="12" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="12" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="12" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="12" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2472,22 +2506,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,22 +2529,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,22 +2552,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,22 +2575,45 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20240603</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>459</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -2571,27 +2628,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2606,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2622,21 +2679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,25 +2701,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,18 +2739,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2705,15 +2762,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2728,13 +2785,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,13 +2811,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,21 +2837,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2806,15 +2863,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2829,18 +2886,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2852,10 +2909,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -2875,13 +2932,13 @@
         <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2949,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -2901,10 +2958,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,7 +2972,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -2924,13 +2981,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,13 +3007,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -2976,21 +3033,21 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -2999,13 +3056,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -3025,10 +3082,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,7 +3096,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3048,10 +3105,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3071,10 +3128,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3142,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
@@ -3094,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3120,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3191,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3143,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3214,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3166,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3237,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3189,53 +3246,76 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D24" s="6" t="n">
+      <c r="C24" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>517</v>
+      <c r="F24" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D25" s="6" t="n">
+      <c r="C25" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D25" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>518</v>
+      <c r="F25" s="9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -3250,30 +3330,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3281,10 +3361,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3295,15 +3375,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="21" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="21" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3312,15 +3392,15 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="21" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="21" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3329,15 +3409,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="22" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="21" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3346,12 +3426,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="21" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3370,19 +3450,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3392,29 +3472,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3425,20 +3505,20 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3449,20 +3529,20 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B4" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3473,23 +3553,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="1" t="b">
+        <v>290</v>
+      </c>
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3500,23 +3580,23 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3527,17 +3607,17 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3548,20 +3628,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B8" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3572,17 +3652,17 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="1" t="b">
+        <v>290</v>
+      </c>
+      <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3593,20 +3673,20 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B10" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3617,20 +3697,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3641,17 +3721,17 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="1" t="b">
+        <v>290</v>
+      </c>
+      <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3662,23 +3742,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B13" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3689,20 +3769,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="1" t="b">
+        <v>290</v>
+      </c>
+      <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3713,17 +3793,17 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B15" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3734,17 +3814,17 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3755,20 +3835,20 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3779,20 +3859,20 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B18" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3803,20 +3883,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B19" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3827,20 +3907,20 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B20" s="1" t="b">
+        <v>536</v>
+      </c>
+      <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3851,20 +3931,20 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="1" t="b">
+        <v>554</v>
+      </c>
+      <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3875,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,24 +3984,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,7 +4009,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,7 +4017,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +4025,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,7 +4033,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +4041,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,7 +4049,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +4057,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +4065,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,7 +4073,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,7 +4081,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,7 +4089,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4097,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,7 +4105,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4113,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,7 +4121,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4129,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,7 +4137,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4145,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4080,43 +4160,43 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4127,14 +4207,14 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4145,14 +4225,14 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4163,14 +4243,14 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4181,11 +4261,11 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4196,10 +4276,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -4214,17 +4294,17 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4234,52 +4314,52 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="12" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4287,27 +4367,27 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4315,27 +4395,27 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4343,27 +4423,27 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4371,27 +4451,27 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>600</v>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4400,27 +4480,27 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C7" s="8" t="n">
+        <v>612</v>
+      </c>
+      <c r="C7" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4429,27 +4509,27 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>612</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4458,30 +4538,30 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>612</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="12" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4612,17 +4692,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4701,17 +4781,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4764,14 +4844,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4816,14 +4896,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4864,14 +4944,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4916,14 +4996,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4968,14 +5048,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5020,14 +5100,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5072,14 +5152,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5120,14 +5200,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5148,14 +5228,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5176,20 +5256,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>43831</v>
       </c>
+      <c r="E11" s="7" t="n">
+        <v>45504</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
@@ -5197,6 +5280,29 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>45505</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5212,54 +5318,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5270,9 +5376,9 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="b">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5280,21 +5386,21 @@
         <v>2022</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5311,9 +5417,9 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5321,21 +5427,21 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5349,9 +5455,9 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5359,21 +5465,21 @@
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5390,9 +5496,9 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5400,21 +5506,21 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5422,7 +5528,7 @@
         <v>400000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>2021</v>
@@ -5433,9 +5539,9 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5443,21 +5549,21 @@
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5470,9 +5576,9 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5480,21 +5586,21 @@
         <v>2019</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5510,9 +5616,9 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1" t="b">
+        <v>75</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5520,21 +5626,21 @@
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5550,9 +5656,9 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="b">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5560,30 +5666,30 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="b">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5591,21 +5697,21 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5615,9 +5721,9 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="b">
+        <v>70</v>
+      </c>
+      <c r="B11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5625,30 +5731,30 @@
         <v>2019</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1" t="b">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5656,30 +5762,30 @@
         <v>2018</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="1" t="b">
+        <v>99</v>
+      </c>
+      <c r="B13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5687,27 +5793,27 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="5" t="s">
         <v>100</v>
       </c>
+      <c r="F13" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="7"/>
+      <c r="F14" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5721,39 +5827,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,17 +5897,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5820,114 +5926,114 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="5" t="b">
+        <v>115</v>
+      </c>
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="5" t="b">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -5935,25 +6041,25 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -5961,51 +6067,51 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -6013,25 +6119,25 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -6039,25 +6145,25 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -6065,25 +6171,25 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6115,7 +6221,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,7 +6260,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6164,7 +6270,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6180,69 +6286,69 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
+      <c r="E2" s="14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>136</v>
+      <c r="E3" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2019</v>
@@ -6250,72 +6356,72 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>139</v>
+      <c r="E4" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>142</v>
+      <c r="E5" s="14" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>145</v>
+      <c r="E6" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>148</v>
+      <c r="E7" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>151</v>
+      <c r="E8" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2018</v>
@@ -6323,16 +6429,16 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>154</v>
+      <c r="E9" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2018</v>
@@ -6340,16 +6446,16 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>157</v>
+      <c r="E10" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2013</v>
@@ -6357,8 +6463,8 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>160</v>
+      <c r="E11" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6385,28 +6491,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="15.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -6415,31 +6521,31 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,28 +6553,28 @@
         <v>41493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,31 +6582,31 @@
         <v>41789</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="J3" s="14" t="s">
+        <v>183</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="10" t="s">
         <v>184</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6508,34 +6614,34 @@
         <v>41855</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="10" t="s">
         <v>188</v>
       </c>
+      <c r="J4" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="10" t="s">
         <v>190</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,37 +6649,37 @@
         <v>41855</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>194</v>
       </c>
+      <c r="J5" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="10" t="s">
         <v>196</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6581,37 +6687,37 @@
         <v>42226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="J6" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>202</v>
+        <v>184</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,28 +6725,28 @@
         <v>42226</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6648,37 +6754,37 @@
         <v>42583</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>210</v>
       </c>
+      <c r="J8" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="K8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="10" t="s">
         <v>212</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,31 +6792,31 @@
         <v>42949</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,34 +6824,34 @@
         <v>43237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>220</v>
+      <c r="L10" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,37 +6859,37 @@
         <v>43313</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="10" t="s">
         <v>224</v>
       </c>
+      <c r="J11" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11" s="10" t="s">
         <v>226</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,37 +6897,37 @@
         <v>43677</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="10" t="s">
         <v>230</v>
       </c>
+      <c r="J12" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="K12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="10" t="s">
         <v>232</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,34 +6935,34 @@
         <v>43842</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J13" s="10" t="s">
         <v>237</v>
       </c>
+      <c r="J13" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13" s="10" t="s">
         <v>239</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6864,34 +6970,34 @@
         <v>43872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="10" t="s">
         <v>244</v>
       </c>
+      <c r="J14" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="10" t="s">
         <v>246</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,34 +7005,34 @@
         <v>43901</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" s="10" t="s">
         <v>252</v>
       </c>
+      <c r="J15" s="14" t="s">
+        <v>253</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L15" s="10" t="s">
         <v>254</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,37 +7040,37 @@
         <v>44041</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" s="10" t="s">
         <v>260</v>
       </c>
+      <c r="J16" s="14" t="s">
+        <v>261</v>
+      </c>
       <c r="K16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="10" t="s">
         <v>262</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,34 +7078,34 @@
         <v>44223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>266</v>
+        <v>252</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="10" t="s">
         <v>268</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,31 +7113,31 @@
         <v>44232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>272</v>
+        <v>259</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L18" s="10" t="s">
         <v>274</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,34 +7145,34 @@
         <v>44271</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>277</v>
+        <v>252</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>278</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" s="10" t="s">
         <v>279</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7074,37 +7180,37 @@
         <v>44285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J20" s="13" t="s">
         <v>284</v>
       </c>
+      <c r="J20" s="17" t="s">
+        <v>285</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" s="10" t="s">
         <v>286</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7112,37 +7218,37 @@
         <v>44295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J21" s="13" t="s">
         <v>292</v>
       </c>
+      <c r="J21" s="17" t="s">
+        <v>293</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L21" s="10" t="s">
         <v>294</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7150,37 +7256,37 @@
         <v>44363</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J22" s="13" t="s">
         <v>301</v>
       </c>
+      <c r="J22" s="17" t="s">
+        <v>302</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L22" s="10" t="s">
         <v>303</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,31 +7294,31 @@
         <v>44399</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J23" s="13" t="s">
         <v>306</v>
       </c>
+      <c r="J23" s="17" t="s">
+        <v>307</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,37 +7326,37 @@
         <v>44417</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24" s="13" t="s">
         <v>311</v>
       </c>
+      <c r="J24" s="17" t="s">
+        <v>312</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="10" t="s">
         <v>313</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7258,37 +7364,37 @@
         <v>44600</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>316</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7296,33 +7402,33 @@
         <v>44644</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="10" t="s">
-        <v>321</v>
+      <c r="J26" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L26" s="10" t="s">
         <v>323</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7330,37 +7436,37 @@
         <v>44659</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J27" s="10" t="s">
         <v>328</v>
       </c>
+      <c r="J27" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="K27" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>329</v>
+        <v>303</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,28 +7474,28 @@
         <v>44775</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,34 +7503,34 @@
         <v>44776</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J29" s="10" t="s">
         <v>337</v>
       </c>
+      <c r="J29" s="14" t="s">
+        <v>338</v>
+      </c>
       <c r="K29" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>338</v>
+        <v>313</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7432,37 +7538,37 @@
         <v>44826</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J30" s="10" t="s">
         <v>342</v>
       </c>
+      <c r="J30" s="14" t="s">
+        <v>343</v>
+      </c>
       <c r="K30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L30" s="10" t="s">
         <v>344</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7470,37 +7576,37 @@
         <v>44839</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J31" s="10" t="s">
         <v>347</v>
       </c>
+      <c r="J31" s="14" t="s">
+        <v>348</v>
+      </c>
       <c r="K31" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L31" s="10" t="s">
         <v>349</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7508,37 +7614,37 @@
         <v>44972</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J32" s="10" t="s">
         <v>353</v>
       </c>
+      <c r="J32" s="14" t="s">
+        <v>354</v>
+      </c>
       <c r="K32" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>354</v>
+        <v>286</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7546,34 +7652,34 @@
         <v>45012</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>357</v>
+        <v>252</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>358</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L33" s="10" t="s">
         <v>359</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7581,34 +7687,34 @@
         <v>45146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J34" s="10" t="s">
         <v>362</v>
       </c>
+      <c r="J34" s="14" t="s">
+        <v>363</v>
+      </c>
       <c r="K34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>363</v>
+        <v>279</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7616,37 +7722,37 @@
         <v>45211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J35" s="10" t="s">
         <v>368</v>
       </c>
+      <c r="J35" s="14" t="s">
+        <v>369</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L35" s="10" t="s">
         <v>370</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7654,34 +7760,34 @@
         <v>45239</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" s="10" t="s">
         <v>376</v>
       </c>
+      <c r="J36" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="K36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L36" s="10" t="s">
         <v>378</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7689,37 +7795,37 @@
         <v>45266</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J37" s="10" t="s">
         <v>385</v>
       </c>
+      <c r="J37" s="14" t="s">
+        <v>386</v>
+      </c>
       <c r="K37" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L37" s="10" t="s">
         <v>387</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,31 +7833,31 @@
         <v>45274</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J38" s="10" t="s">
         <v>390</v>
       </c>
+      <c r="J38" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="K38" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L38" s="10" t="s">
         <v>392</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,31 +7865,31 @@
         <v>45300</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J39" s="10" t="s">
         <v>397</v>
       </c>
+      <c r="J39" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="K39" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,37 +7897,37 @@
         <v>45330</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J40" s="10" t="s">
         <v>401</v>
       </c>
+      <c r="J40" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="K40" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L40" s="10" t="s">
         <v>403</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7829,104 +7935,104 @@
         <v>45337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="J41" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>406</v>
       </c>
+      <c r="J41" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="K41" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L41" s="10" t="s">
         <v>408</v>
       </c>
+      <c r="L41" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="n">
+      <c r="A42" s="19" t="n">
         <v>45358</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>409</v>
+      <c r="B42" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="J42" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>411</v>
       </c>
+      <c r="J42" s="9" t="s">
+        <v>412</v>
+      </c>
       <c r="K42" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="n">
+      <c r="A43" s="7" t="n">
         <v>45380</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>247</v>
+      <c r="B43" s="20" t="s">
+        <v>248</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="G43" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="G43" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="H43" s="20" t="s">
         <v>417</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -8014,55 +8120,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,22 +8176,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8099,25 +8205,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="10" t="s">
         <v>435</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8131,22 +8237,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8160,25 +8266,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H5" s="10" t="s">
         <v>435</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8192,22 +8298,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8221,25 +8327,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>435</v>
+        <v>440</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8253,22 +8359,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8282,22 +8388,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8311,25 +8417,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8343,22 +8449,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8372,25 +8478,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>448</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8404,25 +8510,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8436,25 +8542,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>435</v>
+        <v>440</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>436</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8468,25 +8574,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8500,22 +8606,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8523,25 +8629,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>447</v>
+        <v>440</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,25 +8655,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>449</v>
+        <v>440</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="620">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -335,13 +335,13 @@
     <t xml:space="preserve">Evaluating Photogrammetry for 3D Footwear Impression Recovery</t>
   </si>
   <si>
+    <t xml:space="preserve">CAREER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Do You See? Perception, Decisions, and Statistical Graphics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Under Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAREER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Do You See? Perception, Decisions, and Statistical Graphics</t>
   </si>
   <si>
     <t xml:space="preserve">Start</t>
@@ -1918,7 +1918,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1945,13 +1945,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Serif"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -2026,7 +2019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2071,10 +2064,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2083,19 +2072,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2406,7 +2395,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="11" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2430,7 +2419,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="11" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2454,7 +2443,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2478,7 +2467,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="11" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3380,10 +3369,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="21" t="n">
+      <c r="C3" s="20" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="21" t="n">
+      <c r="D3" s="20" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3397,10 +3386,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="20" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="21" t="n">
+      <c r="D4" s="20" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3414,10 +3403,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="21" t="n">
+      <c r="D5" s="20" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3431,7 +3420,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21" t="n">
+      <c r="C6" s="20" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4346,10 +4335,10 @@
       <c r="B2" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="11" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4374,10 +4363,10 @@
       <c r="B3" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4402,10 +4391,10 @@
       <c r="B4" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4430,10 +4419,10 @@
       <c r="B5" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4458,10 +4447,10 @@
       <c r="B6" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4487,10 +4476,10 @@
       <c r="B7" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4516,10 +4505,10 @@
       <c r="B8" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4545,10 +4534,10 @@
       <c r="B9" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C9" s="12" t="n">
+      <c r="C9" s="11" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -5324,8 +5313,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5781,9 +5770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="b">
         <f aca="false">FALSE()</f>
@@ -5796,10 +5785,10 @@
         <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>77</v>
@@ -5812,8 +5801,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="11"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>666485</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5947,10 +5964,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -5975,10 +5992,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="11" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6000,10 +6017,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="11" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6026,10 +6043,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6052,10 +6069,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6078,10 +6095,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -6104,10 +6121,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6130,10 +6147,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6156,10 +6173,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6182,10 +6199,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6221,7 +6238,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,7 +6277,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6270,7 +6287,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6325,7 +6342,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6339,7 +6356,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6356,7 +6373,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6370,7 +6387,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6384,7 +6401,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6398,7 +6415,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6412,7 +6429,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6429,7 +6446,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6446,7 +6463,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6463,7 +6480,7 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6599,13 +6616,13 @@
       <c r="H3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>183</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6634,13 +6651,13 @@
       <c r="H4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>189</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6669,16 +6686,16 @@
       <c r="H5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>195</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6710,13 +6727,13 @@
       <c r="I6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>202</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6774,16 +6791,16 @@
       <c r="H8" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>211</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6841,16 +6858,16 @@
       <c r="H10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>220</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6882,13 +6899,13 @@
       <c r="I11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>225</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6920,13 +6937,13 @@
       <c r="I12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>231</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6955,13 +6972,13 @@
       <c r="I13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>238</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6990,13 +7007,13 @@
       <c r="H14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>245</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7025,13 +7042,13 @@
       <c r="H15" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>253</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7063,13 +7080,13 @@
       <c r="I16" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>261</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="13" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7098,13 +7115,13 @@
       <c r="H17" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>267</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7130,13 +7147,13 @@
       <c r="H18" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="16" t="s">
         <v>273</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="L18" s="14" t="s">
+      <c r="L18" s="13" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7165,13 +7182,13 @@
       <c r="H19" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>278</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L19" s="14" t="s">
+      <c r="L19" s="13" t="s">
         <v>280</v>
       </c>
     </row>
@@ -7203,13 +7220,13 @@
       <c r="I20" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>285</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="13" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7241,13 +7258,13 @@
       <c r="I21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>293</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="13" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7279,13 +7296,13 @@
       <c r="I22" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="16" t="s">
         <v>302</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -7311,13 +7328,13 @@
       <c r="H23" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>307</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="13" t="s">
         <v>308</v>
       </c>
     </row>
@@ -7349,13 +7366,13 @@
       <c r="I24" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>312</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="13" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7387,13 +7404,13 @@
       <c r="I25" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>316</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="13" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7421,13 +7438,13 @@
         <v>259</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="13" t="s">
         <v>322</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="13" t="s">
         <v>324</v>
       </c>
     </row>
@@ -7459,13 +7476,13 @@
       <c r="I27" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>329</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="13" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7523,13 +7540,13 @@
       <c r="I29" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>338</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="L29" s="14" t="s">
+      <c r="L29" s="13" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7561,13 +7578,13 @@
       <c r="I30" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>343</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="13" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7599,13 +7616,13 @@
       <c r="I31" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>348</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="L31" s="14" t="s">
+      <c r="L31" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7637,13 +7654,13 @@
       <c r="I32" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>354</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="13" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7672,13 +7689,13 @@
       <c r="H33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="13" t="s">
         <v>358</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="13" t="s">
         <v>360</v>
       </c>
     </row>
@@ -7707,13 +7724,13 @@
       <c r="H34" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>363</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="13" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7745,13 +7762,13 @@
       <c r="I35" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>369</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L35" s="13" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7780,13 +7797,13 @@
       <c r="I36" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J36" s="14" t="s">
+      <c r="J36" s="13" t="s">
         <v>377</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="L36" s="14" t="s">
+      <c r="L36" s="13" t="s">
         <v>379</v>
       </c>
     </row>
@@ -7818,13 +7835,13 @@
       <c r="I37" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="J37" s="14" t="s">
+      <c r="J37" s="13" t="s">
         <v>386</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="L37" s="14" t="s">
+      <c r="L37" s="13" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7850,13 +7867,13 @@
       <c r="H38" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="13" t="s">
         <v>391</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="13" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7885,7 +7902,7 @@
       <c r="I39" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="13" t="s">
         <v>398</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -7920,13 +7937,13 @@
       <c r="I40" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="13" t="s">
         <v>402</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="L40" s="14" t="s">
+      <c r="L40" s="13" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7955,21 +7972,21 @@
       <c r="H41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I41" s="18" t="s">
+      <c r="I41" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="13" t="s">
         <v>407</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="13" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="n">
+      <c r="A42" s="18" t="n">
         <v>45358</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -8010,7 +8027,7 @@
       <c r="A43" s="7" t="n">
         <v>45380</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="19" t="s">
         <v>248</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -8022,16 +8039,16 @@
       <c r="E43" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8222,7 +8239,7 @@
       <c r="G3" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8283,7 +8300,7 @@
       <c r="G5" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8344,7 +8361,7 @@
       <c r="G7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8434,7 +8451,7 @@
       <c r="G10" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>446</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8495,7 +8512,7 @@
       <c r="G12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>448</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8527,7 +8544,7 @@
       <c r="G13" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>450</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8559,7 +8576,7 @@
       <c r="G14" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>436</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8591,7 +8608,7 @@
       <c r="G15" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>451</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8646,7 +8663,7 @@
       <c r="G17" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8672,7 +8689,7 @@
       <c r="G18" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>450</v>
       </c>
     </row>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="hidden" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="649">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -524,6 +524,15 @@
     <t xml:space="preserve">https://github.com/tdhock/animint</t>
   </si>
   <si>
+    <t xml:space="preserve">Quarto-audiobook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate audiobooks from quarto markdown books using text-to-speech AI functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/qngyn/quarto.audiobook</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date</t>
   </si>
   <si>
@@ -849,9 +858,6 @@
   </si>
   <si>
     <t xml:space="preserve">Welcome to Forensic Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meetup</t>
   </si>
   <si>
     <t xml:space="preserve">Data Mishaps Night</t>
@@ -1303,6 +1309,72 @@
     <t xml:space="preserve">During COVID, people all over the world were consulting time-series charts on a daily basis and using these charts to make decisions. Discussions broke out among data visualization and scientific communication experts, debating the relative merits of log and linear scales, but there was relativley little research about how people perceive and use visualizations of exponential data, with linear or transformed scales. In this talk, I’ll discuss the study we undertook to address the lack of research in this area, and how the results speak not only to the importance of additional graphical testing, but also to the tradeoffs between different levels of user engagement with visualizations.</t>
   </si>
   <si>
+    <t xml:space="preserve">A Plot is Worth a Thousand Tests: Assessing Residual Diagnostics with the Lineup Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weihao (Patrick) Li, Di Cook, Emi Tanaka, Klaus Ackermann, Susan Vanderplas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland, OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression experts consistently recommend plotting residuals for model diagnosis, despite the availability of many numerical hypothesis test procedures designed to use residuals to assess problems with a model fit. Here we provide evidence for why this is good advice using data from a visual inference experiment. We show how conventional tests are too sensitive, which means that too often the conclusion would be that the model fit is inadequate. The experiment uses the lineup protocol which puts a residual plot in the context of null plots. This helps generate reliable and consistent reading of residual plots for better model diagnosis. It can also help in an obverse situation where a conventional test would fail to detect a problem with a model due to contaminated data. The lineup protocol also detects a range of departures from good residuals simultaneously. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user testing, perception, visual inference, computer vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/patrick_files/paper_1/figures/website.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escaping Flatland: Graphics, Dimensionality, and Human Perception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Wiederich, Erin Blankenship &amp; Susan Vanderplas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Computer Interaction International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Online session)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost 40 years ago, Cleveland &amp; McGill published the first of 3 papers detailing experiments assessing the accuracy of numerical perception using different types of charts. This study is often cited as a reason to avoid the use of extraneous dimensions in data visualization: 2D bar charts produced more accurate estimates than 3D bar charts; in addition, lines (length) produced more accurate estimates than circles (area). Graphics have changed fairly significantly in the last 40 years: where we once had fixed 3D perspective charts, we now can rotate 3D renderings in digital space and even 3D print our charts to examine physically. Many optical illusions result from perceptual mismatches of 3D visual heuristics and 2D, planar, data representations; more realistic renderings available with modern tools might change the outcome of the Cleveland &amp; McGill comparison of 2D vs. 3D accuracy. In this paper, we present several experiments which replicate the bar chart portion of Cleveland &amp; McGill's original study, comparing 2D, 3D fixed perspective, 3D rendered, and 3D printed charts. We discuss the findings and the importance of replicating classic experiments using modern technology, as well as the benefits of incorporating hands-on research in introductory classes as experiential learning activities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/07-HCII/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualization, graphics, user testing, perception, 3D graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/07-HCII/Kit_of_charts.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating Good Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undergraduate Creative Activities and Research Experiences (UCARE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Enrichment Session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's talk about how to create good charts and graphics!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualization, graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/3d-stacked-pie-chart.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
@@ -1405,6 +1477,9 @@
     <t xml:space="preserve">Co-taught with ISU Stat 585, Hybrid synchronous</t>
   </si>
   <si>
+    <t xml:space="preserve">Special Topics in Data Visualization</t>
+  </si>
+  <si>
     <t xml:space="preserve">length</t>
   </si>
   <si>
@@ -1648,6 +1723,15 @@
     <t xml:space="preserve">Anita Sharma</t>
   </si>
   <si>
+    <t xml:space="preserve">Jenn Derkits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agronomy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08</t>
+  </si>
+  <si>
     <t xml:space="preserve">organization1</t>
   </si>
   <si>
@@ -1772,6 +1856,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ad-Hoc Committee on EM 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology Committee</t>
   </si>
   <si>
     <t xml:space="preserve">journal</t>
@@ -1918,7 +2005,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1969,6 +2056,12 @@
       <name val="&quot;Helvetica Neue&quot;"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2048,20 +2141,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2092,11 +2185,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2181,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2358,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2372,7 +2465,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2381,16 +2474,16 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2399,22 +2492,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2423,22 +2516,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2447,22 +2540,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2471,22 +2564,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2495,22 +2588,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,22 +2611,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,22 +2634,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,45 +2657,45 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="9" t="n">
         <v>20240603</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>459</v>
+      <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -2617,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2631,13 +2724,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2652,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2668,7 +2761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2690,25 +2783,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,18 +2821,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2751,15 +2844,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2774,13 +2867,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,13 +2893,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,21 +2919,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2852,15 +2945,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2875,18 +2968,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2898,10 +2991,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -2924,10 +3017,10 @@
         <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -2947,10 +3040,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -2970,13 +3063,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,13 +3089,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -3022,21 +3115,21 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -3045,13 +3138,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3155,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -3071,10 +3164,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3094,10 +3187,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3117,10 +3210,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,7 +3224,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
@@ -3140,13 +3233,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3250,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3166,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3273,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3189,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3212,10 +3305,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3235,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3342,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>2023</v>
@@ -3258,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>2023</v>
@@ -3281,30 +3374,30 @@
         <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="0" t="n">
+        <v>487</v>
+      </c>
+      <c r="D26" s="9" t="n">
         <v>2024</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="9" t="n">
         <v>2024</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>508</v>
+      <c r="F26" s="9" t="s">
+        <v>533</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -3319,30 +3412,30 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3350,10 +3443,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3364,7 +3457,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -3381,7 +3474,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -3398,7 +3491,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -3415,7 +3508,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -3424,6 +3517,20 @@
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3439,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3448,7 +3555,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3461,19 +3568,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>128</v>
@@ -3481,7 +3588,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3494,18 +3601,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3518,18 +3625,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
@@ -3542,21 +3649,21 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3569,21 +3676,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3596,15 +3703,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3617,18 +3724,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3641,15 +3748,15 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3662,18 +3769,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
@@ -3686,18 +3793,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3710,15 +3817,15 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3731,21 +3838,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3758,18 +3865,18 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3782,15 +3889,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
@@ -3803,15 +3910,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
@@ -3824,18 +3931,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3848,18 +3955,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3872,18 +3979,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3896,18 +4003,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3920,18 +4027,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
@@ -3944,22 +4051,37 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>574</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3973,24 +4095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,7 +4120,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4006,7 +4128,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +4136,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,7 +4144,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +4152,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4038,7 +4160,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,7 +4168,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4054,7 +4176,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,7 +4184,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4192,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4078,7 +4200,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,7 +4208,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4094,7 +4216,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +4224,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4232,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +4240,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,7 +4248,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +4256,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4149,7 +4271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4166,22 +4288,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4196,10 +4318,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,10 +4336,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,10 +4354,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4372,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4265,10 +4387,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -4283,14 +4405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4303,10 +4425,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>128</v>
@@ -4315,13 +4437,13 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4333,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C2" s="11" t="n">
         <v>2023</v>
@@ -4342,13 +4464,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4361,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C3" s="11" t="n">
         <v>2022</v>
@@ -4370,13 +4492,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4389,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>2022</v>
@@ -4398,13 +4520,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4417,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>2022</v>
@@ -4426,13 +4548,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4445,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="C6" s="11" t="n">
         <v>2021</v>
@@ -4454,13 +4576,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4474,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="C7" s="11" t="n">
         <v>2021</v>
@@ -4483,13 +4605,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4503,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="C8" s="11" t="n">
         <v>2021</v>
@@ -4512,13 +4634,13 @@
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4532,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="C9" s="11" t="n">
         <v>2020</v>
@@ -4541,16 +4663,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>619</v>
+        <v>648</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4681,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4770,14 +4892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5273,25 +5395,27 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="b">
+      <c r="A12" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="b">
+      <c r="C12" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>45505</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5307,22 +5431,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="122.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
@@ -5338,7 +5463,7 @@
       <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5363,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
@@ -5380,7 +5505,7 @@
       <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5404,7 +5529,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -5421,7 +5546,7 @@
       <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -5442,7 +5567,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
@@ -5459,7 +5584,7 @@
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -5483,7 +5608,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -5500,7 +5625,7 @@
       <c r="E5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -5526,7 +5651,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -5543,7 +5668,7 @@
       <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -5563,7 +5688,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
@@ -5580,7 +5705,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="10" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -5603,7 +5728,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -5620,7 +5745,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5643,7 +5768,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -5660,7 +5785,7 @@
       <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -5674,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -5691,7 +5816,7 @@
       <c r="E10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5708,7 +5833,7 @@
         <v>3555327</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -5725,7 +5850,7 @@
       <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5739,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
@@ -5756,7 +5881,7 @@
       <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -5844,7 +5969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5914,14 +6039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6303,14 +6428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6482,6 +6607,20 @@
       </c>
       <c r="E11" s="13" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -6508,16 +6647,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6529,7 +6668,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -6538,31 +6677,31 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6570,28 +6709,28 @@
         <v>41493</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,31 +6738,31 @@
         <v>41789</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,34 +6770,34 @@
         <v>41855</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6666,37 +6805,37 @@
         <v>41855</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6704,37 +6843,37 @@
         <v>42226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,28 +6881,28 @@
         <v>42226</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,37 +6910,37 @@
         <v>42583</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6809,31 +6948,31 @@
         <v>42949</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,34 +6980,34 @@
         <v>43237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6876,37 +7015,37 @@
         <v>43313</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,37 +7053,37 @@
         <v>43677</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,34 +7091,34 @@
         <v>43842</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6987,34 +7126,34 @@
         <v>43872</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7022,34 +7161,34 @@
         <v>43901</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,37 +7196,37 @@
         <v>44041</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,34 +7234,34 @@
         <v>44223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7130,31 +7269,31 @@
         <v>44232</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7162,34 +7301,34 @@
         <v>44271</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7197,37 +7336,37 @@
         <v>44285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,37 +7374,37 @@
         <v>44295</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7273,37 +7412,37 @@
         <v>44363</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,31 +7450,31 @@
         <v>44399</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="L23" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,37 +7482,37 @@
         <v>44417</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7381,37 +7520,37 @@
         <v>44600</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="L25" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,33 +7558,33 @@
         <v>44644</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,37 +7592,37 @@
         <v>44659</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,28 +7630,28 @@
         <v>44775</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7520,34 +7659,34 @@
         <v>44776</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7555,37 +7694,37 @@
         <v>44826</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7593,37 +7732,37 @@
         <v>44839</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,37 +7770,37 @@
         <v>44972</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7669,34 +7808,34 @@
         <v>45012</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7704,34 +7843,34 @@
         <v>45146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7739,37 +7878,37 @@
         <v>45211</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7777,34 +7916,34 @@
         <v>45239</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7812,37 +7951,37 @@
         <v>45266</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,31 +7989,31 @@
         <v>45274</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,31 +8021,31 @@
         <v>45300</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,37 +8053,37 @@
         <v>45330</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7952,104 +8091,218 @@
         <v>45337</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="n">
+      <c r="A42" s="7" t="n">
         <v>45358</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>45380</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>248</v>
+      <c r="B43" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="H43" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="G43" s="9" t="s">
         <v>418</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="18" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="18" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -8125,6 +8378,11 @@
     <hyperlink ref="L40" r:id="rId69" location="/what-does-it-look-like" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/what-does-it-look-like"/>
     <hyperlink ref="J41" r:id="rId70" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/"/>
     <hyperlink ref="L41" r:id="rId71" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/xlsx-tex-bib-pdf.svg"/>
+    <hyperlink ref="L44" r:id="rId72" display="https://srvanderplas.github.io/2024-Presentations/08-JSM/patrick_files/paper_1/figures/website.png"/>
+    <hyperlink ref="J45" r:id="rId73" display="https://srvanderplas.github.io/2024-Presentations/07-HCII/"/>
+    <hyperlink ref="L45" r:id="rId74" display="https://srvanderplas.github.io/2024-Presentations/07-HCII/Kit_of_charts.png"/>
+    <hyperlink ref="J46" r:id="rId75" display="https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/"/>
+    <hyperlink ref="L46" r:id="rId76" display="https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/3d-stacked-pie-chart.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8137,16 +8395,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8158,34 +8416,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,22 +8451,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8222,25 +8480,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8254,22 +8512,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8283,25 +8541,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8315,22 +8573,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>439</v>
+        <v>463</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8344,25 +8602,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8376,22 +8634,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8405,22 +8663,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8434,25 +8692,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8466,22 +8724,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8495,25 +8753,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8527,25 +8785,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8559,25 +8817,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8591,25 +8849,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8623,22 +8881,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,25 +8904,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>448</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,25 +8930,80 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>450</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8705,6 +9018,7 @@
     <hyperlink ref="H15" r:id="rId8" display="https://srvanderplas.github.io/unl-stat892/"/>
     <hyperlink ref="H17" r:id="rId9" display="https://srvanderplas.github.io/unl-stat151/"/>
     <hyperlink ref="H18" r:id="rId10" display="https://srvanderplas.github.io/unl-stat251/"/>
+    <hyperlink ref="H19" r:id="rId11" display="https://srvanderplas.github.io/unl-stat892/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="hidden" r:id="rId2"/>
@@ -2005,7 +2005,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2057,12 +2057,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2112,7 +2106,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2153,6 +2147,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2183,14 +2181,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2488,7 +2478,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="12" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2512,7 +2502,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="12" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2536,7 +2526,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2560,7 +2550,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3462,10 +3452,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="19" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="19" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3479,10 +3469,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="19" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>45047</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3496,10 +3486,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="20" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="19" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3513,7 +3503,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="19" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3521,16 +3511,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3590,7 +3580,7 @@
       <c r="A2" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3614,7 +3604,7 @@
       <c r="A3" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3638,7 +3628,7 @@
       <c r="A4" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3665,7 +3655,7 @@
       <c r="A5" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3692,7 +3682,7 @@
       <c r="A6" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3713,7 +3703,7 @@
       <c r="A7" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3737,7 +3727,7 @@
       <c r="A8" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3758,7 +3748,7 @@
       <c r="A9" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3782,7 +3772,7 @@
       <c r="A10" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3806,7 +3796,7 @@
       <c r="A11" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3827,7 +3817,7 @@
       <c r="A12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3854,7 +3844,7 @@
       <c r="A13" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3878,7 +3868,7 @@
       <c r="A14" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3899,7 +3889,7 @@
       <c r="A15" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3920,7 +3910,7 @@
       <c r="A16" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3944,7 +3934,7 @@
       <c r="A17" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3968,7 +3958,7 @@
       <c r="A18" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3992,7 +3982,7 @@
       <c r="A19" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4016,7 +4006,7 @@
       <c r="A20" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4040,7 +4030,7 @@
       <c r="A21" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4064,7 +4054,8 @@
       <c r="A22" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="5" t="b">
+      <c r="B22" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -4079,7 +4070,7 @@
       <c r="F22" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="10" t="s">
         <v>574</v>
       </c>
     </row>
@@ -4307,7 +4298,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4325,7 +4316,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4343,7 +4334,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4361,7 +4352,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4376,7 +4367,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4411,7 +4402,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -4457,10 +4448,10 @@
       <c r="B2" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="12" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4485,10 +4476,10 @@
       <c r="B3" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4513,10 +4504,10 @@
       <c r="B4" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4541,10 +4532,10 @@
       <c r="B5" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4569,10 +4560,10 @@
       <c r="B6" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4598,10 +4589,10 @@
       <c r="B7" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4627,10 +4618,10 @@
       <c r="B8" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4656,10 +4647,10 @@
       <c r="B9" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4898,8 +4889,8 @@
   </sheetPr>
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5408,6 +5399,9 @@
       </c>
       <c r="D12" s="7" t="n">
         <v>45505</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>59</v>
@@ -5444,7 +5438,7 @@
   <sheetFormatPr defaultColWidth="12.65234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="122.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="122.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5463,7 +5457,7 @@
       <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5492,7 +5486,7 @@
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5505,7 +5499,7 @@
       <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -5514,7 +5508,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5533,7 +5527,7 @@
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5546,7 +5540,7 @@
       <c r="E3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -5555,7 +5549,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5571,7 +5565,7 @@
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5584,7 +5578,7 @@
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -5593,7 +5587,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5612,7 +5606,7 @@
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5625,7 +5619,7 @@
       <c r="E5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -5634,7 +5628,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5655,7 +5649,7 @@
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5668,7 +5662,7 @@
       <c r="E6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -5677,7 +5671,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5692,7 +5686,7 @@
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5705,7 +5699,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -5714,7 +5708,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5732,7 +5726,7 @@
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5745,7 +5739,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5754,7 +5748,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5772,7 +5766,7 @@
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5785,7 +5779,7 @@
       <c r="E9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -5794,7 +5788,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5803,7 +5797,7 @@
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5816,7 +5810,7 @@
       <c r="E10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>94</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5825,7 +5819,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5837,7 +5831,7 @@
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5850,7 +5844,7 @@
       <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5859,7 +5853,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5868,7 +5862,7 @@
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5881,7 +5875,7 @@
       <c r="E12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -5890,7 +5884,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5899,7 +5893,7 @@
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5912,7 +5906,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5921,7 +5915,7 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5930,7 +5924,7 @@
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5943,7 +5937,7 @@
       <c r="E14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -5952,7 +5946,7 @@
       <c r="H14" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6078,7 +6072,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6089,10 +6083,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6106,7 +6100,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6117,10 +6111,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6131,7 +6125,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6142,10 +6136,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6157,7 +6151,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6168,10 +6162,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6183,7 +6177,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6194,10 +6188,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6209,7 +6203,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6220,10 +6214,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -6235,7 +6229,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6246,10 +6240,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6261,7 +6255,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6272,10 +6266,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6287,7 +6281,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6298,10 +6292,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6313,7 +6307,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6324,10 +6318,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6363,7 +6357,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6402,7 +6396,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6412,7 +6406,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6467,7 +6461,7 @@
       <c r="C2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6481,7 +6475,7 @@
       <c r="C3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6498,7 +6492,7 @@
       <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6512,7 +6506,7 @@
       <c r="C5" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6526,7 +6520,7 @@
       <c r="C6" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6540,7 +6534,7 @@
       <c r="C7" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6554,7 +6548,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6571,7 +6565,7 @@
       <c r="D9" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6588,7 +6582,7 @@
       <c r="D10" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6605,21 +6599,21 @@
       <c r="D11" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="10" t="n">
         <v>2024</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6755,13 +6749,13 @@
       <c r="H3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>186</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="14" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6790,13 +6784,13 @@
       <c r="H4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="14" t="s">
         <v>192</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="14" t="s">
         <v>194</v>
       </c>
     </row>
@@ -6825,16 +6819,16 @@
       <c r="H5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>198</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>200</v>
       </c>
     </row>
@@ -6866,13 +6860,13 @@
       <c r="I6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>205</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6930,16 +6924,16 @@
       <c r="H8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="14" t="s">
         <v>214</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6997,16 +6991,16 @@
       <c r="H10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>223</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -7038,13 +7032,13 @@
       <c r="I11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>228</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7076,13 +7070,13 @@
       <c r="I12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>234</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7111,13 +7105,13 @@
       <c r="I13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>241</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7146,13 +7140,13 @@
       <c r="H14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>248</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7181,13 +7175,13 @@
       <c r="H15" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>256</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7219,13 +7213,13 @@
       <c r="I16" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>264</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7254,13 +7248,13 @@
       <c r="H17" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="17" t="s">
         <v>270</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7286,13 +7280,13 @@
       <c r="H18" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="17" t="s">
         <v>275</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7321,13 +7315,13 @@
       <c r="H19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>280</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="14" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7359,13 +7353,13 @@
       <c r="I20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="17" t="s">
         <v>287</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7397,13 +7391,13 @@
       <c r="I21" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="17" t="s">
         <v>295</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="14" t="s">
         <v>297</v>
       </c>
     </row>
@@ -7435,13 +7429,13 @@
       <c r="I22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="17" t="s">
         <v>304</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7467,13 +7461,13 @@
       <c r="H23" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="17" t="s">
         <v>309</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7505,13 +7499,13 @@
       <c r="I24" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="17" t="s">
         <v>314</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="14" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7543,13 +7537,13 @@
       <c r="I25" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="14" t="s">
         <v>318</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="14" t="s">
         <v>319</v>
       </c>
     </row>
@@ -7577,13 +7571,13 @@
         <v>262</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="14" t="s">
         <v>324</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="14" t="s">
         <v>326</v>
       </c>
     </row>
@@ -7615,13 +7609,13 @@
       <c r="I27" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="14" t="s">
         <v>331</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="14" t="s">
         <v>332</v>
       </c>
     </row>
@@ -7679,13 +7673,13 @@
       <c r="I29" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="14" t="s">
         <v>340</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="14" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7717,13 +7711,13 @@
       <c r="I30" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="14" t="s">
         <v>345</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="14" t="s">
         <v>347</v>
       </c>
     </row>
@@ -7755,13 +7749,13 @@
       <c r="I31" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="14" t="s">
         <v>350</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="14" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7793,13 +7787,13 @@
       <c r="I32" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="14" t="s">
         <v>356</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="14" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7828,13 +7822,13 @@
       <c r="H33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="14" t="s">
         <v>360</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="14" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7863,13 +7857,13 @@
       <c r="H34" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="14" t="s">
         <v>365</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="14" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7901,13 +7895,13 @@
       <c r="I35" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="14" t="s">
         <v>371</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="14" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7936,13 +7930,13 @@
       <c r="I36" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="14" t="s">
         <v>379</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="14" t="s">
         <v>381</v>
       </c>
     </row>
@@ -7974,13 +7968,13 @@
       <c r="I37" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="14" t="s">
         <v>388</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="14" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8006,13 +8000,13 @@
       <c r="H38" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="14" t="s">
         <v>393</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="14" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8041,7 +8035,7 @@
       <c r="I39" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="14" t="s">
         <v>400</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -8076,13 +8070,13 @@
       <c r="I40" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="14" t="s">
         <v>404</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="14" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8111,16 +8105,16 @@
       <c r="H41" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I41" s="17" t="s">
+      <c r="I41" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="14" t="s">
         <v>409</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="14" t="s">
         <v>411</v>
       </c>
     </row>
@@ -8192,10 +8186,10 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="n">
+      <c r="A44" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C44" s="9" t="s">
@@ -8204,36 +8198,36 @@
       <c r="D44" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="10" t="s">
         <v>424</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="10" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="n">
+      <c r="A45" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="10" t="s">
         <v>195</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -8242,36 +8236,36 @@
       <c r="D45" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="10" t="s">
         <v>432</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="L45" s="19" t="s">
+      <c r="L45" s="9" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="n">
+      <c r="A46" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="10" t="s">
         <v>251</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -8280,25 +8274,25 @@
       <c r="D46" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="10" t="s">
         <v>439</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="10" t="s">
         <v>441</v>
       </c>
       <c r="L46" s="9" t="s">
@@ -8497,7 +8491,7 @@
       <c r="G3" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>460</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8558,7 +8552,7 @@
       <c r="G5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>460</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8619,7 +8613,7 @@
       <c r="G7" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>460</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8709,7 +8703,7 @@
       <c r="G10" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>470</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8770,7 +8764,7 @@
       <c r="G12" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>472</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8802,7 +8796,7 @@
       <c r="G13" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>474</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8834,7 +8828,7 @@
       <c r="G14" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>460</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8866,7 +8860,7 @@
       <c r="G15" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8921,7 +8915,7 @@
       <c r="G17" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8947,12 +8941,12 @@
       <c r="G18" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="10" t="n">
         <v>2024</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -8973,7 +8967,7 @@
       <c r="G19" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -8984,19 +8978,19 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="10" t="n">
         <v>2024</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="10" t="s">
         <v>477</v>
       </c>
       <c r="F20" s="1" t="s">

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="665">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -215,6 +215,9 @@
     <t xml:space="preserve">University of Nebraska-Lincoln</t>
   </si>
   <si>
+    <t xml:space="preserve">Associate Professor</t>
+  </si>
+  <si>
     <t xml:space="preserve">status</t>
   </si>
   <si>
@@ -332,15 +335,15 @@
     <t xml:space="preserve">Evaluating Photogrammetry for 3D Footwear Impression Recovery</t>
   </si>
   <si>
+    <t xml:space="preserve">CAREER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Do You See? Perception, Decisions, and Statistical Graphics</t>
+  </si>
+  <si>
     <t xml:space="preserve">Under Review</t>
   </si>
   <si>
-    <t xml:space="preserve">CAREER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Do You See? Perception, Decisions, and Statistical Graphics</t>
-  </si>
-  <si>
     <t xml:space="preserve">Start</t>
   </si>
   <si>
@@ -431,6 +434,24 @@
     <t xml:space="preserve">link</t>
   </si>
   <si>
+    <t xml:space="preserve">courtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools to create visually appealing courtroom studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rachelesrogers/courtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">highlightr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of edited text data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rachelesrogers/highlightr</t>
+  </si>
+  <si>
     <t xml:space="preserve">ggpcp</t>
   </si>
   <si>
@@ -1238,7 +1259,7 @@
     <t xml:space="preserve">Using Git Submodules</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sometimes, we want to have git repositories that are nested within each other, but git doesn't allow us to do that. Instead, there are git submodules! I'll talk about how submodules work conceptually and introduce two examples of places I'm using submodules in my own work. I'll cover how to create, modify, update, and use projects with submodules.</t>
+    <t xml:space="preserve">Sometimes, we want to have git repositories that are nested within each other, but git doesn't allow us to do that. Instead, there are git submodules! I'll talk about how submodules work conceptually and introduce two examples of places I'm using submodules in my own work. I'll cover how to create, modify, update, and use projects with submodules.</t>
   </si>
   <si>
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/title-slide</t>
@@ -1253,10 +1274,7 @@
     <t xml:space="preserve">Building a CV with R and Google Sheets</t>
   </si>
   <si>
-    <t xml:space="preserve">This week will be the first of a 2-part workshop. 
-  First, we'll talk about how to make a CV with R and a google spreadsheet (and why you might want to do so). 
-  On March 7, we'll talk about how to use this same setup to build a blog-type website with posts for each paper and presentation, using quarto. 
-  Setup steps:
+    <t xml:space="preserve">This week will be the first of a 2-part workshop. First, we'll talk about how to make a CV with R and a google spreadsheet (and why you might want to do so). On March 7, we'll talk about how to use this same setup to build a blog-type website with posts for each paper and presentation, using quarto. Setup steps:
     1. Create your own CV spreadsheet using this template: https://docs.google.com/spreadsheets/d/11S8-U4vasXgPbW-IKQPCy1nO-1UsmvzNLz7GvdONN_w/edit?usp=sharing . Copy the sheet over to your own google account (File -&gt; make a copy) and fill it in. You don't need to use every tab - I've included many different options that won't apply to everyone (but this setup works for me, so it is a viable long-term solution for an academic).
     2. Clone or fork the github repository I've made: https://github.com/srvanderplas/cv-template.
     3. You can see the sample CV that I use, but there are other compatible templates if you don't like the timeline look.
@@ -1300,6 +1318,105 @@
     <t xml:space="preserve">During COVID, people all over the world were consulting time-series charts on a daily basis and using these charts to make decisions. Discussions broke out among data visualization and scientific communication experts, debating the relative merits of log and linear scales, but there was relativley little research about how people perceive and use visualizations of exponential data, with linear or transformed scales. In this talk, I’ll discuss the study we undertook to address the lack of research in this area, and how the results speak not only to the importance of additional graphical testing, but also to the tradeoffs between different levels of user engagement with visualizations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Creating Good Graphics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNL REU seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Nebraska – Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's talk about how to create good charts and graphics!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graphics, visualization, design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/06-REU-graphics/3d-stacked-pie-chart.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escaping Flatland: Graphics, Dimensionality, and Human Perception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human Computer Interaction International</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Washington DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almost 40 years ago, Cleveland &amp; McGill published the first of 3 papers detailing experiments assessing the accuracy of numerical perception using different types of charts. This study is often cited as a reason to avoid the use of extraneous dimensions in data visualization: 2D bar charts produced more accurate estimates than 3D bar charts; in addition, lines (length) produced more accurate estimates than circles (area). Graphics have changed fairly significantly in the last 40 years: where we once had fixed 3D perspective charts, we now can rotate 3D renderings in digital space and even 3D print our charts to examine physically. Many optical illusions result from perceptual mismatches of 3D visual heuristics and 2D, planar, data representations; more realistic renderings available with modern tools might change the outcome of the Cleveland &amp; McGill comparison of 2D vs. 3D accuracy. In this paper, we present several experiments which replicate the bar chart portion of Cleveland &amp; McGill's original study, comparing 2D, 3D fixed perspective, 3D rendered, and 3D printed charts. We discuss the findings and the importance of replicating classic experiments using modern technology, as well as the benefits of incorporating hands-on research in introductory classes as experiential learning activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/07-HCII/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teaching, graphics, user-study, 3d, visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/07-HCII/cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Plot is Worth a Thousand Tests: Assessing Residual Diagnostics with the Lineup Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weihao (Patrick) Li, Di Cook, Emi Tanaka, Klaus Ackermann, Susan Vanderplas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portland, Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression experts consistently recommend plotting residuals for model diagnosis, despite the availability of many numerical hypothesis test procedures designed to use residuals to assess problems with a model fit. Here we provide evidence for why this is good advice using data from a visual inference experiment. We show how conventional tests are too sensitive, which means that too often the conclusion would be that the model fit is inadequate. The experiment uses the lineup protocol which puts a residual plot in the context of null plots. This helps generate reliable and consistent reading of residual plots for better  model diagnosis. It can also help in an obverse situation where a conventional  test would fail to detect a problem with a model due to contaminated data. The lineup protocol also detects a range of departures from good residuals  simultaneously. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">visualization, graphics, visuual inference, user study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/index_files/figure-revealjs/unnamed-chunk-15-1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Scraping Olympics: Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical Computing Section Mini-Symposium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comparison of Python, Julia, and R for web-scraping olympic athlete names, events, and birthdays. I represented python. See the full narrative here: https://srvanderplas.github.io/2024-data-jamboree-python/python-narrative.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computing, programming, web scraping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepartmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t Seminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undergraduate Creative Activities and Research Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do we create effective charts and graphs for scientific presentations? What are the elements of effective charts and graphics? Which charts should be used for different types of data? How do we make charts that are "presentation ready"? In this workshop, we'll do a quick run-through of guidelines for good charts and graphics, and then discuss how to use different scientific tools to create charts and graphics effectively. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-fyre-graphics/#/title-slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-fyre-graphics/data-to-vis-flowchart.png</t>
+  </si>
+  <si>
     <t xml:space="preserve">year</t>
   </si>
   <si>
@@ -1402,6 +1519,15 @@
     <t xml:space="preserve">Co-taught with ISU Stat 585, Hybrid synchronous</t>
   </si>
   <si>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat892-TA-prep/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Topics in Data Visualization</t>
+  </si>
+  <si>
     <t xml:space="preserve">length</t>
   </si>
   <si>
@@ -1435,6 +1561,21 @@
     <t xml:space="preserve">Organizer</t>
   </si>
   <si>
+    <t xml:space="preserve">Effective Graphics for Visual Communication with Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symposium on Data Science and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond, VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instructor, Organizer, Designer</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
@@ -1591,9 +1732,6 @@
     <t xml:space="preserve">A Statistical Approach to Learning Computer Vision</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Nebraska – Lincoln</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maksuda Aktar Toma</t>
   </si>
   <si>
@@ -1624,12 +1762,21 @@
     <t xml:space="preserve">James Clothier</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zeinab Mohammed</t>
   </si>
   <si>
     <t xml:space="preserve">Anita Sharma</t>
   </si>
   <si>
+    <t xml:space="preserve">Yifan Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">organization1</t>
   </si>
   <si>
@@ -1754,6 +1901,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ad-Hoc Committee on EM 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Committee</t>
   </si>
   <si>
     <t xml:space="preserve">journal</t>
@@ -1900,7 +2050,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1931,31 +2081,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Serif"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="&quot;Open Sans&quot;"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -2008,7 +2137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2030,14 +2159,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2049,32 +2190,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2094,66 +2215,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF555555"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2339,17 +2400,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2358,112 +2419,112 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="11" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="11" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="11" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="11" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2472,22 +2533,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,22 +2556,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,22 +2579,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,22 +2602,45 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>20240604</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -2585,13 +2669,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>34</v>
@@ -2606,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2631,12 +2715,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,25 +2728,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,18 +2766,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2705,15 +2789,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2728,13 +2812,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,13 +2838,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,21 +2864,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2806,15 +2890,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2829,18 +2913,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2852,10 +2936,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -2875,13 +2959,13 @@
         <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,7 +2976,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -2901,10 +2985,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>492</v>
+        <v>540</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>493</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,7 +2999,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -2924,13 +3008,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>494</v>
+        <v>542</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,13 +3034,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,7 +3051,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -2976,21 +3060,21 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -2999,13 +3083,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>500</v>
+        <v>548</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>501</v>
+        <v>549</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>502</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -3025,10 +3109,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3039,7 +3123,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3048,10 +3132,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3146,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3071,10 +3155,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,22 +3169,22 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>509</v>
+        <v>557</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>510</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3120,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>511</v>
+        <v>559</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>512</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3218,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3143,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3241,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3166,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3264,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3189,53 +3273,53 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>513</v>
+        <v>561</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>514</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D24" s="6" t="n">
+      <c r="C24" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>517</v>
+      <c r="F24" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D25" s="6" t="n">
+      <c r="C25" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="9" t="n">
         <v>2023</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>518</v>
+      <c r="F25" s="9" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -3254,26 +3338,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>521</v>
+        <v>568</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3281,10 +3365,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>569</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>523</v>
+        <v>570</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3295,15 +3379,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>524</v>
+        <v>571</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3312,16 +3396,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>525</v>
+        <v>572</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="15" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="17" t="n">
-        <v>45047</v>
+      <c r="D4" s="15" t="s">
+        <v>573</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3329,15 +3413,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>526</v>
+        <v>574</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="16" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="15" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3346,15 +3430,29 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="15" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3379,7 +3477,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3392,29 +3490,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>528</v>
+        <v>578</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>529</v>
+        <v>579</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3425,20 +3523,20 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>531</v>
+        <v>581</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3449,20 +3547,20 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>534</v>
+        <v>584</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B4" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3473,23 +3571,23 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>535</v>
+        <v>585</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>536</v>
+        <v>586</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>538</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="1" t="b">
+        <v>296</v>
+      </c>
+      <c r="B5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3500,23 +3598,23 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>539</v>
+        <v>589</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>541</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B6" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3527,17 +3625,17 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B7" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3548,20 +3646,20 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>544</v>
+        <v>594</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B8" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3572,17 +3670,17 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>545</v>
+        <v>595</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>546</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="1" t="b">
+        <v>296</v>
+      </c>
+      <c r="B9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3593,20 +3691,20 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B10" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3617,20 +3715,20 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>551</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B11" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3641,17 +3739,17 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>542</v>
+        <v>592</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="1" t="b">
+        <v>296</v>
+      </c>
+      <c r="B12" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3662,23 +3760,23 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>554</v>
+        <v>604</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>555</v>
+        <v>605</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>556</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B13" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B13" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3689,20 +3787,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>557</v>
+        <v>607</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>558</v>
+        <v>608</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>559</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="1" t="b">
+        <v>296</v>
+      </c>
+      <c r="B14" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3713,17 +3811,17 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>560</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B15" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B15" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3734,17 +3832,17 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>561</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B16" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B16" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3755,20 +3853,20 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>562</v>
+        <v>612</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>563</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B17" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3779,20 +3877,20 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>564</v>
+        <v>614</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B18" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B18" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3803,20 +3901,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>565</v>
+        <v>615</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>540</v>
+        <v>590</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B19" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B19" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3827,20 +3925,20 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B20" s="1" t="b">
+        <v>580</v>
+      </c>
+      <c r="B20" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3851,20 +3949,20 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>532</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="B21" s="1" t="b">
+        <v>598</v>
+      </c>
+      <c r="B21" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3875,22 +3973,37 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>569</v>
+        <v>619</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>620</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3918,10 +4031,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3929,7 +4042,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,7 +4050,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +4058,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3953,7 +4066,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +4074,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,7 +4082,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +4090,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,7 +4098,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,7 +4106,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4001,7 +4114,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,7 +4122,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4130,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,7 +4138,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4146,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,7 +4154,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4162,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4057,7 +4170,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>543</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4178,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -4097,26 +4210,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4127,14 +4240,14 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4145,14 +4258,14 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4163,14 +4276,14 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4181,11 +4294,11 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4196,10 +4309,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -4220,7 +4333,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4234,52 +4347,52 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>645</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="11" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4287,27 +4400,27 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C3" s="8" t="n">
+        <v>645</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4315,27 +4428,27 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="8" t="n">
+        <v>645</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4343,27 +4456,27 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" s="8" t="n">
+        <v>645</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4371,27 +4484,27 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C6" s="8" t="n">
+        <v>645</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4400,27 +4513,27 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C7" s="8" t="n">
+        <v>657</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4429,27 +4542,27 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C8" s="8" t="n">
+        <v>657</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4458,30 +4571,30 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C9" s="8" t="n">
+        <v>657</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="11" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4705,10 +4818,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4764,14 +4877,14 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4816,14 +4929,14 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4864,14 +4977,14 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4916,14 +5029,14 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="b">
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4968,14 +5081,14 @@
       <c r="AD5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="5" t="b">
+      <c r="C6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5020,14 +5133,14 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="5" t="b">
+      <c r="C7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5072,14 +5185,14 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5120,14 +5233,14 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="b">
+      <c r="C9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5148,14 +5261,14 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="b">
+      <c r="C10" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5176,20 +5289,23 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="b">
+      <c r="C11" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>43831</v>
       </c>
+      <c r="E11" s="7" t="n">
+        <v>45519</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
@@ -5197,6 +5313,29 @@
         <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>45519</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="0" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5218,48 +5357,48 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5270,7 +5409,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5280,21 +5419,21 @@
         <v>2022</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5311,7 +5450,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5321,21 +5460,21 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5349,7 +5488,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5359,21 +5498,21 @@
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5390,7 +5529,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5400,21 +5539,21 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5422,7 +5561,7 @@
         <v>400000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>2021</v>
@@ -5433,7 +5572,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5443,21 +5582,21 @@
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5470,7 +5609,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5480,21 +5619,21 @@
         <v>2019</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5510,7 +5649,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
@@ -5520,21 +5659,21 @@
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5550,7 +5689,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5560,28 +5699,28 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5591,21 +5730,21 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5615,7 +5754,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5625,28 +5764,28 @@
         <v>2019</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5656,28 +5795,28 @@
         <v>2018</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="b">
         <f aca="false">FALSE()</f>
@@ -5687,27 +5826,55 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="7"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>666485</v>
+      </c>
+      <c r="I14" s="5" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5735,25 +5902,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5820,114 +5987,114 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H2" s="6" t="s">
         <v>113</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="5" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="11" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="5" t="b">
+        <v>115</v>
+      </c>
+      <c r="C4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="11" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="5" t="b">
+        <v>115</v>
+      </c>
+      <c r="C5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -5935,25 +6102,25 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -5961,51 +6128,51 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="11" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -6013,25 +6180,25 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -6039,25 +6206,25 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="5" t="b">
+        <v>119</v>
+      </c>
+      <c r="C10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -6065,25 +6232,25 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="5" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="5" t="b">
+        <v>111</v>
+      </c>
+      <c r="C11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6115,7 +6282,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6154,7 +6321,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6164,7 +6331,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6184,195 +6351,225 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>136</v>
+        <v>2023</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>139</v>
+      <c r="E4" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>142</v>
+        <v>2020</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>145</v>
+        <v>2019</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>148</v>
+        <v>2019</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>151</v>
+      <c r="E8" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>154</v>
+      <c r="E9" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>157</v>
+      <c r="E10" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>160</v>
+      <c r="E13" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://github.com/heike/ggpcp"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://github.com/heike/vinference"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://github.com/heike/groovefinder"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://github.com/CSAFE-ISU/cmcR"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://github.com/heike/bulletxtrctr"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://github.com/heike/x3ptools"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://github.com/srvanderplas/bulletsamplr"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://github.com/srvanderplas/shoescraper"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://github.com/srvanderplas/imagealignr"/>
-    <hyperlink ref="E11" r:id="rId10" display="https://github.com/tdhock/animint"/>
+    <hyperlink ref="E4" r:id="rId1" display="https://github.com/heike/ggpcp"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://github.com/heike/vinference"/>
+    <hyperlink ref="E6" r:id="rId3" display="https://github.com/heike/groovefinder"/>
+    <hyperlink ref="E7" r:id="rId4" display="https://github.com/CSAFE-ISU/cmcR"/>
+    <hyperlink ref="E8" r:id="rId5" display="https://github.com/heike/bulletxtrctr"/>
+    <hyperlink ref="E9" r:id="rId6" display="https://github.com/heike/x3ptools"/>
+    <hyperlink ref="E10" r:id="rId7" display="https://github.com/srvanderplas/bulletsamplr"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://github.com/srvanderplas/shoescraper"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://github.com/srvanderplas/imagealignr"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://github.com/tdhock/animint"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6389,1619 +6586,1731 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C43" activeCellId="0" sqref="C43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L62" activeCellId="0" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="J1" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>41493</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="C2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>41789</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <v>41855</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="G4" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="H4" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
         <v>41855</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="B5" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <v>42226</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>41855</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="L6" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>42226</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>42949</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>43237</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>43842</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>42226</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E13" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
+        <v>43872</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <v>42226</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="C14" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>43901</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
+        <v>44223</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>44232</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
+        <v>44271</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="n">
+        <v>44399</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>44417</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <v>42583</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>42949</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <v>43237</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>43313</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="I24" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="7" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="7" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="H32" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <v>43677</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <v>43842</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <v>43872</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>43901</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L15" s="10" t="s">
+      <c r="I32" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="7" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>44041</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="C33" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F33" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <v>44223</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="J33" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="H35" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <v>44232</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="I35" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="7" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="7" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="7" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <v>44271</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <v>44285</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <v>44295</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <v>44363</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <v>44399</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <v>44417</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <v>44600</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>44644</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="I44" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="n">
+        <v>45598</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="H48" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <v>44775</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <v>44776</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <v>44826</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <v>44839</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <v>45012</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <v>45146</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L34" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <v>45211</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <v>45239</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <v>45266</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <v>45274</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <v>45300</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>417</v>
+      <c r="I48" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://srvanderplas.github.io/Presentation-Archive/RUserGroups%20-%20Animint/animint.html"/>
-    <hyperlink ref="L3" r:id="rId2" display="https://srvanderplas.github.io/Presentation-Archive/RUserGroups%20-%20Animint/tornado-anim/index.html"/>
-    <hyperlink ref="J4" r:id="rId3" display="https://srvanderplas.github.io/Presentation-Archive/JSM2014/UserTesting/UserTesting.html"/>
-    <hyperlink ref="L4" r:id="rId4" location="/using-shiny-to-get-data" display="https://srvanderplas.github.io/Presentation-Archive/JSM2014/UserTesting/UserTesting.html#/using-shiny-to-get-data"/>
-    <hyperlink ref="J5" r:id="rId5" location="/" display="https://srvanderplas.github.io/Presentation-Archive/JSM2014/WhyYourBrainIsLyingToYou/JSM2014.html#/"/>
-    <hyperlink ref="L5" r:id="rId6" location="/perception-is-three-dimensional-2" display="https://srvanderplas.github.io/Presentation-Archive/JSM2014/WhyYourBrainIsLyingToYou/JSM2014.html#/perception-is-three-dimensional-2"/>
-    <hyperlink ref="J6" r:id="rId7" location="/" display="https://srvanderplas.github.io/Presentation-Archive/JSM2015/Animint.html#/"/>
-    <hyperlink ref="L6" r:id="rId8" location="/2/6" display="https://srvanderplas.github.io/Presentation-Archive/JSM2015/Animint.html#/2/6"/>
-    <hyperlink ref="J8" r:id="rId9" display="https://srvanderplas.github.io/Presentation-Archive/JSM2016/HierarchyOfVisualFeatures.html"/>
-    <hyperlink ref="L8" r:id="rId10" location="/4/5" display="https://srvanderplas.github.io/Presentation-Archive/JSM2016/HierarchyOfVisualFeatures.html#/4/5"/>
-    <hyperlink ref="J10" r:id="rId11" location="clusters-beat-trend-testing-feature-hierarchy-in-statistical-graphics" display="https://srvanderplas.github.io/Presentation-Archive/SDSS2018/FeatureHierarchy.html#clusters-beat-trend-testing-feature-hierarchy-in-statistical-graphics"/>
-    <hyperlink ref="L10" r:id="rId12" location="participant-reasoning-color-ellipse-plots" display="https://srvanderplas.github.io/Presentation-Archive/SDSS2018/FeatureHierarchy.html#participant-reasoning-color-ellipse-plots"/>
-    <hyperlink ref="J11" r:id="rId13" location="1" display="https://srvanderplas.github.io/Presentation-Archive/JSM2018/Framed.html#1"/>
-    <hyperlink ref="L11" r:id="rId14" location="9" display="https://srvanderplas.github.io/Presentation-Archive/JSM2018/Framed.html#9"/>
-    <hyperlink ref="J12" r:id="rId15" location="1" display="https://srvanderplas.github.io/Presentation-Archive/JSM2019/#1"/>
-    <hyperlink ref="L12" r:id="rId16" location="30" display="https://srvanderplas.github.io/Presentation-Archive/JSM2019/#30"/>
-    <hyperlink ref="J13" r:id="rId17" location="1" display="https://srvanderplas.github.io/Presentation-Archive/PAG2020/#1"/>
-    <hyperlink ref="L13" r:id="rId18" location="3" display="https://srvanderplas.github.io/Presentation-Archive/PAG2020/#3"/>
-    <hyperlink ref="J14" r:id="rId19" display="https://srvanderplas.github.io/2020-Presentations/02-SDSU/"/>
-    <hyperlink ref="L14" r:id="rId20" location="11" display="https://srvanderplas.github.io/2020-Presentations/02-SDSU/#11"/>
-    <hyperlink ref="J15" r:id="rId21" display="https://srvanderplas.github.io/2020-Presentations/03-UNL-Forensics/"/>
-    <hyperlink ref="L15" r:id="rId22" location="44" display="https://srvanderplas.github.io/2020-Presentations/03-UNL-Forensics/#44"/>
-    <hyperlink ref="J16" r:id="rId23" display="https://srvanderplas.github.io/2020-Presentations/07-DSSV/"/>
-    <hyperlink ref="L16" r:id="rId24" location="15" display="https://srvanderplas.github.io/2020-Presentations/07-DSSV/#15"/>
-    <hyperlink ref="J17" r:id="rId25" location="1" display="https://srvanderplas.github.io/2021-Presentations/01-BSE-GSA-Graphics/#1"/>
-    <hyperlink ref="L17" r:id="rId26" location="21" display="https://srvanderplas.github.io/2021-Presentations/01-BSE-GSA-Graphics/#21"/>
-    <hyperlink ref="J18" r:id="rId27" display="https://srvanderplas.github.io/2021-Presentations/02-Data-Mishaps/index.html"/>
-    <hyperlink ref="L18" r:id="rId28" location="7" display="https://srvanderplas.github.io/2021-Presentations/02-Data-Mishaps/index.html#7"/>
-    <hyperlink ref="J19" r:id="rId29" location="1" display="https://srvanderplas.github.io/2021-Presentations/03-ANSC-Graphics/#1"/>
-    <hyperlink ref="L19" r:id="rId30" location="11" display="https://srvanderplas.github.io/2021-Presentations/03-ANSC-Graphics/#11"/>
-    <hyperlink ref="J20" r:id="rId31" location="1" display="https://srvanderplas.github.io/2021-Presentations/03-LawPsych-Inconclusives/#1"/>
-    <hyperlink ref="L20" r:id="rId32" location="36" display="https://srvanderplas.github.io/2021-Presentations/03-LawPsych-Inconclusives/#36"/>
-    <hyperlink ref="J21" r:id="rId33" location="1" display="https://srvanderplas.github.io/2021-Presentations/04-QQPM-Rural-Smart-Shrinkage/#1"/>
-    <hyperlink ref="L21" r:id="rId34" location="19" display="https://srvanderplas.github.io/2021-Presentations/04-QQPM-Rural-Smart-Shrinkage/#19"/>
-    <hyperlink ref="J22" r:id="rId35" location="1" display="https://srvanderplas.github.io/2021-Presentations/06-NUMBATS/#1"/>
-    <hyperlink ref="L22" r:id="rId36" location="15" display="https://srvanderplas.github.io/2021-Presentations/06-NUMBATS/#15"/>
-    <hyperlink ref="J23" r:id="rId37" location="1" display="https://srvanderplas.github.io/2021-Presentations/07-RLadiesDC/#1"/>
-    <hyperlink ref="L23" r:id="rId38" location="14" display="https://srvanderplas.github.io/2021-Presentations/07-RLadiesDC/#14"/>
-    <hyperlink ref="J24" r:id="rId39" location="1" display="https://srvanderplas.github.io/2021-Presentations/08-JSM-DetectingCircles/#1"/>
-    <hyperlink ref="L24" r:id="rId40" location="17" display="https://srvanderplas.github.io/2021-Presentations/08-JSM-DetectingCircles/#17"/>
-    <hyperlink ref="J25" r:id="rId41" display="https://srvanderplas.github.io/2022-Presentations/02-SDSU-DetectingCircles/"/>
-    <hyperlink ref="L25" r:id="rId42" location="18" display="https://srvanderplas.github.io/2022-Presentations/02-SDSU-DetectingCircles/#18"/>
-    <hyperlink ref="J26" r:id="rId43" location="1" display="https://srvanderplas.github.io/2022-Presentations/03-CSAFE-Webinar/#1"/>
-    <hyperlink ref="L26" r:id="rId44" location="9" display="https://srvanderplas.github.io/2022-Presentations/03-CSAFE-Webinar/#9"/>
-    <hyperlink ref="J27" r:id="rId45" location="1" display="https://srvanderplas.github.io/2022-Presentations/04-UNO/#1"/>
-    <hyperlink ref="L27" r:id="rId46" location="20" display="https://srvanderplas.github.io/2022-Presentations/04-UNO/#20"/>
-    <hyperlink ref="J29" r:id="rId47" display="https://srvanderplas.github.io/2022-Presentations/08-IAI/"/>
-    <hyperlink ref="L29" r:id="rId48" location="/what-does-the-model-see" display="https://srvanderplas.github.io/2022-Presentations/08-IAI/#/what-does-the-model-see"/>
-    <hyperlink ref="J30" r:id="rId49" location="/title-slide" display="https://srvanderplas.github.io/2022-Presentations/09-CBIO/"/>
-    <hyperlink ref="L30" r:id="rId50" location="/gestalt-laws-in-data-visualization" display="https://srvanderplas.github.io/2022-Presentations/09-CBIO/#/gestalt-laws-in-data-visualization"/>
-    <hyperlink ref="J31" r:id="rId51" location="/title-slide" display="https://srvanderplas.github.io/2022-Presentations/10-StatDeptSeminar/#/title-slide"/>
-    <hyperlink ref="L31" r:id="rId52" location="/assessing-error-rates" display="https://srvanderplas.github.io/2022-Presentations/10-StatDeptSeminar/#/assessing-error-rates"/>
-    <hyperlink ref="J32" r:id="rId53" display="http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives"/>
-    <hyperlink ref="L32" r:id="rId54" display="http://srvanderplas.github.io/2023-Presentations/02-Hopkins-Inconclusives/images/bullet_firing_short.gif"/>
-    <hyperlink ref="J33" r:id="rId55" display="http://srvanderplas.github.io/2023-Presentations/03-C3B"/>
-    <hyperlink ref="L33" r:id="rId56" location="/the-good" display="https://srvanderplas.github.io/2023-Presentations/03-C3B/#/the-good"/>
-    <hyperlink ref="J34" r:id="rId57" display="http://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/"/>
-    <hyperlink ref="L34" r:id="rId58" location="/testing-graphics-to-understand-statistics" display="https://srvanderplas.github.io/2023-Presentations/08-JSM-Testing-Graphics/#/testing-graphics-to-understand-statistics"/>
-    <hyperlink ref="J35" r:id="rId59" display="http://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/"/>
-    <hyperlink ref="L35" r:id="rId60" location="/cognitive-psychology-primer" display="https://srvanderplas.github.io/2023-Presentations/10-Graphics-Cognition/#/cognitive-psychology-primer"/>
-    <hyperlink ref="J36" r:id="rId61" location="/title-slide" display="http://srvanderplas.github.io/2023-Presentations/11-ICDS/#/title-slide"/>
-    <hyperlink ref="L36" r:id="rId62" location="/testing" display="https://srvanderplas.github.io/2023-Presentations/11-ICDS/#/testing"/>
-    <hyperlink ref="J37" r:id="rId63" display="http://srvanderplas.github.io/2023-Presentations/12-IASCARS/"/>
-    <hyperlink ref="L37" r:id="rId64" location="/complication-different-cv-models" display="https://srvanderplas.github.io/2023-Presentations/12-IASCARS/#/complication-different-cv-models"/>
-    <hyperlink ref="J38" r:id="rId65" display="http://srvanderplas.github.io/2023-Presentations/12-ASC/index.html"/>
-    <hyperlink ref="L38" r:id="rId66" location="/perception-exp.-growth-log-scales" display="https://srvanderplas.github.io/2023-Presentations/12-ASC/index.html#/perception-exp.-growth-log-scales"/>
-    <hyperlink ref="J39" r:id="rId67" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/01-ICOFPE/#/title-slide"/>
-    <hyperlink ref="J40" r:id="rId68" location="/title-slide" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/title-slide"/>
-    <hyperlink ref="L40" r:id="rId69" location="/what-does-it-look-like" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-git-submodules/#/what-does-it-look-like"/>
-    <hyperlink ref="J41" r:id="rId70" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/"/>
-    <hyperlink ref="L41" r:id="rId71" display="https://srvanderplas.github.io/2024-Presentations/02-graphics-cv/xlsx-tex-bib-pdf.svg"/>
+    <hyperlink ref="L46" r:id="rId1" display="https://srvanderplas.github.io/2024-Presentations/08-JSM/index_files/figure-revealjs/unnamed-chunk-15-1.png"/>
+    <hyperlink ref="L47" r:id="rId2" location="/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png" display="https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8018,51 +8327,51 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,22 +8379,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8099,25 +8408,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>435</v>
+        <v>474</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8131,22 +8440,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8160,25 +8469,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>435</v>
+        <v>474</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8192,22 +8501,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8221,25 +8530,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>435</v>
+        <v>479</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8253,22 +8562,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8282,22 +8591,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8311,25 +8620,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>445</v>
+        <v>479</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>485</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8343,22 +8652,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8372,25 +8681,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>447</v>
+        <v>479</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>487</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8404,25 +8713,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>449</v>
+        <v>479</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>489</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8436,25 +8745,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>435</v>
+        <v>479</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>475</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8468,25 +8777,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>450</v>
+        <v>481</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>490</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8500,22 +8809,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8523,25 +8832,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>447</v>
+        <v>479</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8549,25 +8858,76 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>449</v>
+        <v>479</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>892</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -2166,15 +2166,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2194,7 +2194,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2621,25 +2621,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="9" t="n">
         <v>20240604</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="9" t="s">
         <v>510</v>
       </c>
     </row>
@@ -3443,16 +3443,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       <c r="A2" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B2" s="5" t="b">
+      <c r="B2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3536,7 +3536,7 @@
       <c r="A3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B3" s="5" t="b">
+      <c r="B3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="A4" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B4" s="5" t="b">
+      <c r="B4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3587,7 +3587,7 @@
       <c r="A5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="5" t="b">
+      <c r="B5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="A6" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B6" s="5" t="b">
+      <c r="B6" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="A7" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="5" t="b">
+      <c r="B7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="A8" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="5" t="b">
+      <c r="B8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3680,7 +3680,7 @@
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="5" t="b">
+      <c r="B9" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3704,7 +3704,7 @@
       <c r="A10" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B10" s="5" t="b">
+      <c r="B10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="A11" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="5" t="b">
+      <c r="B11" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="5" t="b">
+      <c r="B12" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="A13" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B13" s="5" t="b">
+      <c r="B13" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="A14" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="5" t="b">
+      <c r="B14" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="A15" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B15" s="5" t="b">
+      <c r="B15" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3842,7 +3842,7 @@
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="5" t="b">
+      <c r="B16" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="A17" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B17" s="5" t="b">
+      <c r="B17" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="A18" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B18" s="5" t="b">
+      <c r="B18" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3914,7 +3914,7 @@
       <c r="A19" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="5" t="b">
+      <c r="B19" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3938,7 +3938,7 @@
       <c r="A20" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B20" s="5" t="b">
+      <c r="B20" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3962,7 +3962,7 @@
       <c r="A21" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B21" s="5" t="b">
+      <c r="B21" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3986,7 +3986,8 @@
       <c r="A22" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B22" s="5" t="b">
+      <c r="B22" s="1" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C22" s="1" t="n">
@@ -3995,7 +3996,7 @@
       <c r="D22" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="9" t="s">
         <v>583</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -4229,7 +4230,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4247,7 +4248,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4265,7 +4266,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4283,7 +4284,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4298,7 +4299,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4333,7 +4334,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4820,8 +4821,8 @@
   </sheetPr>
   <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5317,25 +5318,27 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="b">
+      <c r="A12" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="b">
+      <c r="C12" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5433,7 +5436,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="I2" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5474,7 +5477,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="5" t="b">
+      <c r="I3" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5512,7 +5515,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="I4" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5553,7 +5556,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="I5" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5596,7 +5599,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="I6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5633,7 +5636,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="I7" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5673,7 +5676,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="I8" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5713,7 +5716,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="5" t="b">
+      <c r="I9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5744,7 +5747,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="5" t="b">
+      <c r="I10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5778,7 +5781,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="5" t="b">
+      <c r="I11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5809,7 +5812,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="5" t="b">
+      <c r="I12" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5840,7 +5843,7 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="5" t="b">
+      <c r="I13" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5871,7 +5874,7 @@
       <c r="H14" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I14" s="5" t="b">
+      <c r="I14" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5997,14 +6000,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+      <c r="A2" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6025,14 +6028,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+      <c r="A3" s="1" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6050,14 +6053,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+      <c r="A4" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6076,14 +6079,14 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+      <c r="A5" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6102,14 +6105,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+      <c r="A6" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6128,14 +6131,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+      <c r="A7" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6154,14 +6157,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+      <c r="A8" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="6" t="b">
+      <c r="C8" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6180,14 +6183,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+      <c r="A9" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="6" t="b">
+      <c r="C9" s="10" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6206,14 +6209,14 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+      <c r="A10" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6232,14 +6235,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+      <c r="A11" s="1" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="6" t="b">
+      <c r="C11" s="10" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6597,47 +6600,47 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="9" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6645,28 +6648,28 @@
       <c r="A2" s="7" t="n">
         <v>41493</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6674,31 +6677,31 @@
       <c r="A3" s="7" t="n">
         <v>41789</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6706,34 +6709,34 @@
       <c r="A4" s="7" t="n">
         <v>41855</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="9" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6741,37 +6744,37 @@
       <c r="A5" s="7" t="n">
         <v>41855</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="9" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6779,37 +6782,37 @@
       <c r="A6" s="7" t="n">
         <v>42226</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6817,28 +6820,28 @@
       <c r="A7" s="7" t="n">
         <v>42226</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6846,37 +6849,37 @@
       <c r="A8" s="7" t="n">
         <v>42583</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="9" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6884,31 +6887,31 @@
       <c r="A9" s="7" t="n">
         <v>42949</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="9" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6916,34 +6919,34 @@
       <c r="A10" s="7" t="n">
         <v>43237</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6951,37 +6954,37 @@
       <c r="A11" s="7" t="n">
         <v>43313</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6989,37 +6992,37 @@
       <c r="A12" s="7" t="n">
         <v>43677</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="9" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7027,34 +7030,34 @@
       <c r="A13" s="7" t="n">
         <v>43842</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7062,34 +7065,34 @@
       <c r="A14" s="7" t="n">
         <v>43872</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="9" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7097,34 +7100,34 @@
       <c r="A15" s="7" t="n">
         <v>43901</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="9" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7132,37 +7135,37 @@
       <c r="A16" s="7" t="n">
         <v>44041</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="9" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7170,34 +7173,34 @@
       <c r="A17" s="7" t="n">
         <v>44223</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="9" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7205,31 +7208,31 @@
       <c r="A18" s="7" t="n">
         <v>44232</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="9" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7237,34 +7240,34 @@
       <c r="A19" s="7" t="n">
         <v>44271</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="9" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7272,37 +7275,37 @@
       <c r="A20" s="7" t="n">
         <v>44285</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7310,37 +7313,37 @@
       <c r="A21" s="7" t="n">
         <v>44295</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7348,37 +7351,37 @@
       <c r="A22" s="7" t="n">
         <v>44363</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="9" t="s">
         <v>310</v>
       </c>
     </row>
@@ -7386,31 +7389,31 @@
       <c r="A23" s="7" t="n">
         <v>44399</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="9" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7418,37 +7421,37 @@
       <c r="A24" s="7" t="n">
         <v>44417</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="9" t="s">
         <v>320</v>
       </c>
     </row>
@@ -7456,37 +7459,37 @@
       <c r="A25" s="7" t="n">
         <v>44600</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="9" t="s">
         <v>323</v>
       </c>
     </row>
@@ -7494,31 +7497,31 @@
       <c r="A26" s="7" t="n">
         <v>44644</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="9" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7526,37 +7529,37 @@
       <c r="A27" s="7" t="n">
         <v>44659</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="9" t="s">
         <v>336</v>
       </c>
     </row>
@@ -7564,28 +7567,28 @@
       <c r="A28" s="7" t="n">
         <v>44775</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="9" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7593,34 +7596,34 @@
       <c r="A29" s="7" t="n">
         <v>44776</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="9" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7628,37 +7631,37 @@
       <c r="A30" s="7" t="n">
         <v>44826</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="9" t="s">
         <v>351</v>
       </c>
     </row>
@@ -7666,37 +7669,37 @@
       <c r="A31" s="7" t="n">
         <v>44839</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="9" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7704,37 +7707,37 @@
       <c r="A32" s="7" t="n">
         <v>44972</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="9" t="s">
         <v>361</v>
       </c>
     </row>
@@ -7742,34 +7745,34 @@
       <c r="A33" s="7" t="n">
         <v>45012</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="J33" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="9" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7777,34 +7780,34 @@
       <c r="A34" s="7" t="n">
         <v>45146</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="J34" s="0" t="s">
+      <c r="J34" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K34" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="L34" s="0" t="s">
+      <c r="L34" s="9" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7812,37 +7815,37 @@
       <c r="A35" s="7" t="n">
         <v>45211</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="J35" s="0" t="s">
+      <c r="J35" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="K35" s="0" t="s">
+      <c r="K35" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="L35" s="0" t="s">
+      <c r="L35" s="9" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7850,34 +7853,34 @@
       <c r="A36" s="7" t="n">
         <v>45239</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="J36" s="0" t="s">
+      <c r="J36" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="K36" s="0" t="s">
+      <c r="K36" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="L36" s="0" t="s">
+      <c r="L36" s="9" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7885,37 +7888,37 @@
       <c r="A37" s="7" t="n">
         <v>45266</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="J37" s="0" t="s">
+      <c r="J37" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="K37" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7923,31 +7926,31 @@
       <c r="A38" s="7" t="n">
         <v>45274</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="K38" s="0" t="s">
+      <c r="K38" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="L38" s="0" t="s">
+      <c r="L38" s="9" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7955,31 +7958,31 @@
       <c r="A39" s="7" t="n">
         <v>45300</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="K39" s="0" t="s">
+      <c r="K39" s="9" t="s">
         <v>405</v>
       </c>
     </row>
@@ -7987,37 +7990,37 @@
       <c r="A40" s="7" t="n">
         <v>45330</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="J40" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="K40" s="0" t="s">
+      <c r="K40" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="L40" s="0" t="s">
+      <c r="L40" s="9" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8025,37 +8028,37 @@
       <c r="A41" s="7" t="n">
         <v>45337</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" s="9" t="s">
         <v>265</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="J41" s="0" t="s">
+      <c r="J41" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="K41" s="0" t="s">
+      <c r="K41" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="L41" s="0" t="s">
+      <c r="L41" s="9" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8063,37 +8066,37 @@
       <c r="A42" s="7" t="n">
         <v>45358</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="J42" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="K42" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="L42" s="9" t="s">
         <v>419</v>
       </c>
     </row>
@@ -8101,28 +8104,28 @@
       <c r="A43" s="7" t="n">
         <v>45380</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="9" t="s">
         <v>424</v>
       </c>
     </row>
@@ -8130,37 +8133,37 @@
       <c r="A44" s="7" t="n">
         <v>45469</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="J44" s="0" t="s">
+      <c r="J44" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="K44" s="0" t="s">
+      <c r="K44" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="L44" s="0" t="s">
+      <c r="L44" s="9" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8168,34 +8171,34 @@
       <c r="A45" s="7" t="n">
         <v>45474</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="J45" s="0" t="s">
+      <c r="J45" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="K45" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="L45" s="9" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8203,37 +8206,37 @@
       <c r="A46" s="7" t="n">
         <v>45511</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="0" t="s">
+      <c r="F46" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="J46" s="0" t="s">
+      <c r="J46" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" s="9" t="s">
         <v>445</v>
       </c>
     </row>
@@ -8241,34 +8244,34 @@
       <c r="A47" s="7" t="n">
         <v>45598</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="J47" s="0" t="s">
+      <c r="J47" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" s="9" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8276,34 +8279,34 @@
       <c r="A48" s="7" t="n">
         <v>45609</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" s="9" t="s">
         <v>453</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="J48" s="0" t="s">
+      <c r="J48" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" s="9" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8880,16 +8883,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="9" t="n">
         <v>2024</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="9" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -8908,19 +8911,19 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="9" t="n">
         <v>2024</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="9" t="s">
         <v>472</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="9" t="n">
         <v>992</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="9" t="s">
         <v>494</v>
       </c>
       <c r="F20" s="9" t="s">

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -2137,7 +2137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2155,6 +2155,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2433,7 +2437,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="12" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2457,7 +2461,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="12" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2481,7 +2485,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2505,7 +2509,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2621,25 +2625,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>20240604</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>510</v>
       </c>
     </row>
@@ -2720,7 +2724,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,45 +3284,45 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="10" t="n">
         <v>2023</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>565</v>
       </c>
     </row>
@@ -3384,10 +3388,10 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3401,10 +3405,10 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>573</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3418,10 +3422,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="17" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3435,7 +3439,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="16" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3443,16 +3447,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3512,7 +3516,7 @@
       <c r="A2" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3536,7 +3540,7 @@
       <c r="A3" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3560,7 +3564,7 @@
       <c r="A4" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3587,7 +3591,7 @@
       <c r="A5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3614,7 +3618,7 @@
       <c r="A6" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3635,7 +3639,7 @@
       <c r="A7" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3659,7 +3663,7 @@
       <c r="A8" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3680,7 +3684,7 @@
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3704,7 +3708,7 @@
       <c r="A10" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3728,7 +3732,7 @@
       <c r="A11" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3749,7 +3753,7 @@
       <c r="A12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3776,7 +3780,7 @@
       <c r="A13" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3800,7 +3804,7 @@
       <c r="A14" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3821,7 +3825,7 @@
       <c r="A15" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B15" s="1" t="b">
+      <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3842,7 +3846,7 @@
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="1" t="b">
+      <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3866,7 +3870,7 @@
       <c r="A17" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B17" s="1" t="b">
+      <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="A18" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B18" s="1" t="b">
+      <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="A19" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B19" s="1" t="b">
+      <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3938,7 +3942,7 @@
       <c r="A20" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B20" s="1" t="b">
+      <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3962,7 +3966,7 @@
       <c r="A21" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B21" s="1" t="b">
+      <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3986,7 +3990,7 @@
       <c r="A22" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B22" s="1" t="b">
+      <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -3996,7 +4000,7 @@
       <c r="D22" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>583</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -4230,7 +4234,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4248,7 +4252,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4266,7 +4270,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4284,7 +4288,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4299,7 +4303,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -4373,17 +4377,17 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="b">
+      <c r="A2" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="12" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4401,17 +4405,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="b">
+      <c r="A3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -4429,17 +4433,17 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="b">
+      <c r="A4" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -4457,17 +4461,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="b">
+      <c r="A5" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -4485,17 +4489,17 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="b">
+      <c r="A6" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -4514,17 +4518,17 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="b">
+      <c r="A7" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -4543,17 +4547,17 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="b">
+      <c r="A8" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -4572,17 +4576,17 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="b">
+      <c r="A9" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -4822,12 +4826,15 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="5" width="12.63"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4837,10 +4844,10 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4877,15 +4884,15 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="b">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="b">
+      <c r="C2" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4929,15 +4936,15 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="b">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="b">
+      <c r="C3" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -4977,15 +4984,15 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="b">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="b">
+      <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5029,15 +5036,15 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="b">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="b">
+      <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5081,15 +5088,15 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="b">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5133,15 +5140,15 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="b">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="6" t="b">
+      <c r="C7" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5185,15 +5192,15 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="b">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="b">
+      <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5233,15 +5240,15 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="b">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="b">
+      <c r="C9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5261,15 +5268,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="b">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="b">
+      <c r="C10" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5289,22 +5296,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="b">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="5" t="b">
+      <c r="C11" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>45519</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -5317,28 +5324,28 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>45519</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5366,7 +5373,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,7 +5421,7 @@
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5436,7 +5443,7 @@
       <c r="H2" s="1" t="n">
         <v>299859</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5455,7 +5462,7 @@
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5477,7 +5484,7 @@
       <c r="H3" s="1" t="n">
         <v>380650</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5493,7 +5500,7 @@
       <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5515,7 +5522,7 @@
       <c r="H4" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I4" s="1" t="b">
+      <c r="I4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5534,7 +5541,7 @@
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5556,7 +5563,7 @@
       <c r="H5" s="1" t="n">
         <v>4000000</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5577,7 +5584,7 @@
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5599,7 +5606,7 @@
       <c r="H6" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5614,7 +5621,7 @@
       <c r="A7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5636,7 +5643,7 @@
       <c r="H7" s="1" t="n">
         <v>1500000</v>
       </c>
-      <c r="I7" s="1" t="b">
+      <c r="I7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5654,7 +5661,7 @@
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5676,7 +5683,7 @@
       <c r="H8" s="1" t="n">
         <v>197699</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -5694,7 +5701,7 @@
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5716,7 +5723,7 @@
       <c r="H9" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5725,7 +5732,7 @@
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5747,7 +5754,7 @@
       <c r="H10" s="1" t="n">
         <v>20000000</v>
       </c>
-      <c r="I10" s="1" t="b">
+      <c r="I10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5759,7 +5766,7 @@
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5781,7 +5788,7 @@
       <c r="H11" s="1" t="n">
         <v>3000000</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5790,7 +5797,7 @@
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5812,7 +5819,7 @@
       <c r="H12" s="1" t="n">
         <v>281755</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5821,7 +5828,7 @@
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5834,7 +5841,7 @@
       <c r="E13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5843,7 +5850,7 @@
       <c r="H13" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I13" s="1" t="b">
+      <c r="I13" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5852,7 +5859,7 @@
       <c r="A14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5865,7 +5872,7 @@
       <c r="E14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -5874,7 +5881,7 @@
       <c r="H14" s="1" t="n">
         <v>666485</v>
       </c>
-      <c r="I14" s="1" t="b">
+      <c r="I14" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -6000,21 +6007,21 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="b">
+      <c r="A2" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="10" t="b">
+      <c r="C2" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="12" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6023,26 +6030,26 @@
       <c r="G2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="b">
+      <c r="A3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="10" t="b">
+      <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="n">
+      <c r="D3" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="11" t="n">
+      <c r="E3" s="12" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6053,21 +6060,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="b">
+      <c r="A4" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="10" t="b">
+      <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="12" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6079,21 +6086,21 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="b">
+      <c r="A5" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="10" t="b">
+      <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6105,21 +6112,21 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="b">
+      <c r="A6" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="10" t="b">
+      <c r="C6" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6131,21 +6138,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="b">
+      <c r="A7" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="10" t="b">
+      <c r="C7" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -6157,21 +6164,21 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="b">
+      <c r="A8" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="10" t="b">
+      <c r="C8" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6183,21 +6190,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="b">
+      <c r="A9" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="10" t="b">
+      <c r="C9" s="7" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="12" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6209,21 +6216,21 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="b">
+      <c r="A10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="10" t="b">
+      <c r="C10" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6235,21 +6242,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="b">
+      <c r="A11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="10" t="b">
+      <c r="C11" s="7" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="11" t="n">
+      <c r="E11" s="12" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6285,7 +6292,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,7 +6331,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6334,7 +6341,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6419,7 +6426,7 @@
       <c r="C4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6433,7 +6440,7 @@
       <c r="C5" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6450,7 +6457,7 @@
       <c r="D6" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6464,7 +6471,7 @@
       <c r="C7" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="14" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6478,7 +6485,7 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6492,7 +6499,7 @@
       <c r="C9" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="14" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6506,7 +6513,7 @@
       <c r="C10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6523,7 +6530,7 @@
       <c r="D11" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6540,7 +6547,7 @@
       <c r="D12" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6557,7 +6564,7 @@
       <c r="D13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6599,1714 +6606,1714 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="15.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>41493</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>41789</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>41855</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>41855</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>42226</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>42226</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>42583</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>42949</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>43237</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>43313</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>43677</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>43842</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>43872</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>43901</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>44041</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="10" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>44223</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>44232</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>44271</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="10" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>44285</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="10" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="8" t="n">
         <v>44295</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="10" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="8" t="n">
         <v>44363</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="8" t="n">
         <v>44399</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="10" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="8" t="n">
         <v>44417</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="10" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="8" t="n">
         <v>44600</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="8" t="n">
         <v>44644</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="8" t="n">
         <v>44659</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="8" t="n">
         <v>44775</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="10" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="8" t="n">
         <v>44776</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="10" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="8" t="n">
         <v>44826</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="8" t="n">
         <v>44839</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="10" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="8" t="n">
         <v>44972</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="10" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="8" t="n">
         <v>45012</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="10" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="8" t="n">
         <v>45146</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="10" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="8" t="n">
         <v>45211</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="10" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="8" t="n">
         <v>45239</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="10" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="8" t="n">
         <v>45266</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="10" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="8" t="n">
         <v>45274</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="10" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="8" t="n">
         <v>45300</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="10" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="8" t="n">
         <v>45330</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="10" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="8" t="n">
         <v>45337</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="10" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="8" t="n">
         <v>45358</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="10" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="8" t="n">
         <v>45380</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="10" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="8" t="n">
         <v>45469</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="8" t="n">
         <v>45474</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="I45" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="8" t="n">
         <v>45511</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="8" t="n">
         <v>45598</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I47" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="8" t="n">
         <v>45609</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="F48" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="K48" s="9" t="s">
+      <c r="K48" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="10" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8340,9 +8347,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="48.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8428,7 +8435,7 @@
       <c r="G3" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -8489,7 +8496,7 @@
       <c r="G5" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -8550,7 +8557,7 @@
       <c r="G7" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -8640,7 +8647,7 @@
       <c r="G10" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>485</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -8701,7 +8708,7 @@
       <c r="G12" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>487</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -8733,7 +8740,7 @@
       <c r="G13" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>489</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -8765,7 +8772,7 @@
       <c r="G14" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>475</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -8797,7 +8804,7 @@
       <c r="G15" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>490</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -8852,7 +8859,7 @@
       <c r="G17" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>487</v>
       </c>
     </row>
@@ -8878,21 +8885,21 @@
       <c r="G18" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>2024</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -8904,32 +8911,32 @@
       <c r="G19" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>492</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>2024</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="D20" s="9" t="n">
+      <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="10" t="s">
         <v>481</v>
       </c>
     </row>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -2230,7 +2230,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2719,7 +2719,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3345,7 +3345,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="D:E A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3481,7 +3481,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4029,7 +4029,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4205,7 +4205,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4339,7 +4339,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4737,7 +4737,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4826,7 +4826,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5368,7 +5368,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="D:E J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5905,7 +5905,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5975,7 +5975,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D:E F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6364,7 +6364,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="D:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6601,7 +6601,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L62" activeCellId="0" sqref="L62"/>
+      <selection pane="bottomLeft" activeCell="L62" activeCellId="1" sqref="D:E L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8342,7 +8342,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="1" sqref="D:E G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="680">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -134,6 +134,9 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">datelabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">position</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t xml:space="preserve">Academic</t>
   </si>
   <si>
+    <t xml:space="preserve">2012-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research Assistant</t>
   </si>
   <si>
@@ -155,24 +161,36 @@
     <t xml:space="preserve">Industry</t>
   </si>
   <si>
+    <t xml:space="preserve">2013-15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistical Consultant</t>
   </si>
   <si>
     <t xml:space="preserve">Designed Shiny applications for agricultural data for the Iowa Soybean Association and other groups.</t>
   </si>
   <si>
+    <t xml:space="preserve">2013-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistical Programmer</t>
   </si>
   <si>
     <t xml:space="preserve">Created and redesigned web-based applets to teach statistical techniques interactively.</t>
   </si>
   <si>
+    <t xml:space="preserve">Jan-Aug 2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iowa Department of Transportation</t>
   </si>
   <si>
     <t xml:space="preserve">Developed a hierarchical bayesian model to determine the effectiveness of road interventions on traffic accidents and fatalities.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sum. 09</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research Experience for Undergraduates</t>
   </si>
   <si>
@@ -182,6 +200,9 @@
     <t xml:space="preserve">Worked with biologists and bioinformaticians to compare homologous gene expression in humans, pigs, and mice.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sum. 08</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mathematics</t>
   </si>
   <si>
@@ -191,28 +212,43 @@
     <t xml:space="preserve">Created a mathematical model describing electrical impulse transmission and decay along neurons with varying states of myelination.</t>
   </si>
   <si>
+    <t xml:space="preserve">2015-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistical Analyst</t>
   </si>
   <si>
     <t xml:space="preserve">Nebraska Public Power District</t>
   </si>
   <si>
+    <t xml:space="preserve">Apr – Oct 2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postdoc</t>
   </si>
   <si>
     <t xml:space="preserve">Office of the Vice President for Research</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Research Assistant Professor</t>
   </si>
   <si>
     <t xml:space="preserve">Center for Statistics and Applications in Forensic Evidence</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">Assistant Professor</t>
   </si>
   <si>
     <t xml:space="preserve">University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Associate Professor</t>
@@ -1904,6 +1940,15 @@
   </si>
   <si>
     <t xml:space="preserve">Executive Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska R User Group (NEBRUG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co-chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group for R users across Nebraska to connect and learn new skills. </t>
   </si>
   <si>
     <t xml:space="preserve">journal</t>
@@ -2137,7 +2182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2210,6 +2255,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,7 +2279,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D:E"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2407,14 +2456,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D:E"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -2423,16 +2472,16 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2441,22 +2490,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2465,22 +2514,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2489,22 +2538,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2513,22 +2562,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2537,22 +2586,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,22 +2609,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2583,22 +2632,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,22 +2655,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,22 +2678,22 @@
         <v>20240604</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -2666,23 +2715,23 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2694,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2719,7 +2768,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="D:E"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2732,25 +2781,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,18 +2819,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2793,15 +2842,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2816,13 +2865,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,13 +2891,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,21 +2917,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2894,15 +2943,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2917,18 +2966,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2940,10 +2989,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,7 +3003,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -2963,13 +3012,13 @@
         <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -2989,10 +3038,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -3012,13 +3061,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,13 +3087,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -3064,21 +3113,21 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -3087,13 +3136,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,7 +3153,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -3113,10 +3162,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3136,10 +3185,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3159,10 +3208,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3222,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
@@ -3182,13 +3231,13 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3208,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3231,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3294,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3254,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3277,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,7 +3340,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2023</v>
@@ -3300,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3314,7 +3363,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2023</v>
@@ -3323,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -3345,23 +3394,23 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="D:E A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3369,10 +3418,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3383,7 +3432,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -3400,7 +3449,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -3409,7 +3458,7 @@
         <v>44774</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3417,7 +3466,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -3434,7 +3483,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -3448,13 +3497,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
@@ -3476,12 +3525,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E23" activeCellId="0" sqref="D:E"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3494,27 +3543,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3527,18 +3576,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3551,18 +3600,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3575,21 +3624,21 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3602,21 +3651,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3629,15 +3678,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3650,18 +3699,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3674,15 +3723,15 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B9" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3695,18 +3744,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3719,18 +3768,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3743,15 +3792,15 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B12" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3764,21 +3813,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3791,18 +3840,18 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B14" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3815,15 +3864,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3836,15 +3885,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3857,18 +3906,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3881,18 +3930,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3905,18 +3954,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3929,18 +3978,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3953,18 +4002,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3977,18 +4026,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4001,13 +4050,39 @@
         <v>2027</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B23" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4029,17 +4104,17 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,7 +4122,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,7 +4130,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4063,7 +4138,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4071,7 +4146,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,7 +4154,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,7 +4162,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,7 +4170,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,7 +4178,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,7 +4186,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,7 +4194,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4202,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4210,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,7 +4218,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,7 +4226,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4234,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,7 +4242,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,7 +4250,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4258,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4205,7 +4280,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4215,22 +4290,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,10 +4320,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4263,10 +4338,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,10 +4356,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,7 +4374,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,10 +4389,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -4339,7 +4414,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4352,25 +4427,25 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4382,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2023</v>
@@ -4391,13 +4466,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4410,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2022</v>
@@ -4419,13 +4494,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4438,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2022</v>
@@ -4447,13 +4522,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4466,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2022</v>
@@ -4475,13 +4550,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4494,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2021</v>
@@ -4503,13 +4578,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4523,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2021</v>
@@ -4532,13 +4607,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4552,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2021</v>
@@ -4561,13 +4636,13 @@
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4581,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2020</v>
@@ -4590,16 +4665,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4737,7 +4812,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4823,15 +4898,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="D:E"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="5" width="12.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="5" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +4925,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4860,9 +4935,11 @@
         <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4883,6 +4960,7 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="b">
@@ -4890,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -4902,19 +4980,21 @@
       <c r="E2" s="3" t="n">
         <v>41789</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -4935,6 +5015,7 @@
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="b">
@@ -4942,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -4954,15 +5035,17 @@
       <c r="E3" s="3" t="n">
         <v>42369</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -4983,6 +5066,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="b">
@@ -4990,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5002,19 +5086,21 @@
       <c r="E4" s="3" t="n">
         <v>41973</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -5035,6 +5121,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="b">
@@ -5042,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5054,19 +5141,21 @@
       <c r="E5" s="3" t="n">
         <v>41136</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -5087,6 +5176,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="b">
@@ -5094,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5106,19 +5196,21 @@
       <c r="E6" s="3" t="n">
         <v>40040</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -5139,6 +5231,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="b">
@@ -5146,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5158,19 +5251,21 @@
       <c r="E7" s="3" t="n">
         <v>39675</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -5191,6 +5286,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="b">
@@ -5198,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5210,14 +5306,16 @@
       <c r="E8" s="4" t="n">
         <v>43159</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -5239,6 +5337,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="b">
@@ -5246,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5258,13 +5357,16 @@
       <c r="E9" s="4" t="n">
         <v>42278</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5274,7 +5376,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5286,13 +5388,16 @@
       <c r="E10" s="4" t="n">
         <v>43830</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
+      <c r="F10" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5302,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5314,14 +5419,17 @@
       <c r="E11" s="8" t="n">
         <v>45519</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>57</v>
+      <c r="F11" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,7 +5438,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5339,14 +5447,17 @@
       <c r="D12" s="8" t="n">
         <v>45519</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>59</v>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>58</v>
+      <c r="I12" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5368,7 +5479,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="D:E J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5378,37 +5489,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5419,7 +5530,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5429,16 +5540,16 @@
         <v>2022</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>299859</v>
@@ -5460,7 +5571,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5470,16 +5581,16 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>380650</v>
@@ -5498,7 +5609,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5508,16 +5619,16 @@
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>20000000</v>
@@ -5539,7 +5650,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5549,16 +5660,16 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4000000</v>
@@ -5571,7 +5682,7 @@
         <v>400000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>2021</v>
@@ -5582,7 +5693,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5592,16 +5703,16 @@
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>300000</v>
@@ -5619,7 +5730,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5629,16 +5740,16 @@
         <v>2019</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1500000</v>
@@ -5659,7 +5770,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5669,16 +5780,16 @@
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>197699</v>
@@ -5699,7 +5810,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5709,16 +5820,16 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>300000</v>
@@ -5730,7 +5841,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5740,16 +5851,16 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>20000000</v>
@@ -5764,7 +5875,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5774,16 +5885,16 @@
         <v>2019</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>3000000</v>
@@ -5795,7 +5906,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B12" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5805,16 +5916,16 @@
         <v>2018</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>281755</v>
@@ -5826,7 +5937,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5836,16 +5947,16 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>666485</v>
@@ -5857,7 +5968,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B14" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5867,16 +5978,16 @@
         <v>2024</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>666485</v>
@@ -5905,32 +6016,32 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D:E A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5975,7 +6086,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D:E F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5997,10 +6108,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6012,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C2" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6025,13 +6136,13 @@
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6040,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6053,10 +6164,10 @@
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6078,10 +6189,10 @@
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -6091,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6104,7 +6215,7 @@
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
@@ -6117,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C6" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6130,7 +6241,7 @@
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -6143,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C7" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6156,10 +6267,10 @@
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -6169,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C8" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6182,7 +6293,7 @@
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -6195,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C9" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6208,7 +6319,7 @@
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -6221,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C10" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6234,7 +6345,7 @@
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
@@ -6247,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C11" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6260,7 +6371,7 @@
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6364,92 +6475,92 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="D:E"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2021</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2019</v>
@@ -6458,71 +6569,71 @@
         <v>2021</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2018</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2018</v>
@@ -6531,15 +6642,15 @@
         <v>2020</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2018</v>
@@ -6548,15 +6659,15 @@
         <v>2021</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>2013</v>
@@ -6565,7 +6676,7 @@
         <v>2015</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6712,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L62" activeCellId="1" sqref="D:E L62"/>
+      <selection pane="bottomLeft" activeCell="L62" activeCellId="0" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6615,7 +6726,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>15</v>
@@ -6624,31 +6735,31 @@
         <v>16</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,28 +6767,28 @@
         <v>41493</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6685,31 +6796,31 @@
         <v>41789</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,34 +6828,34 @@
         <v>41855</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,37 +6863,37 @@
         <v>41855</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6790,37 +6901,37 @@
         <v>42226</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6828,28 +6939,28 @@
         <v>42226</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6857,37 +6968,37 @@
         <v>42583</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,31 +7006,31 @@
         <v>42949</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,34 +7038,34 @@
         <v>43237</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="J10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>214</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,37 +7073,37 @@
         <v>43313</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7000,37 +7111,37 @@
         <v>43677</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7038,34 +7149,34 @@
         <v>43842</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7073,34 +7184,34 @@
         <v>43872</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,34 +7219,34 @@
         <v>43901</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,37 +7254,37 @@
         <v>44041</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,34 +7292,34 @@
         <v>44223</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="J17" s="10" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,31 +7327,31 @@
         <v>44232</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,34 +7359,34 @@
         <v>44271</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7283,37 +7394,37 @@
         <v>44285</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7321,37 +7432,37 @@
         <v>44295</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7359,37 +7470,37 @@
         <v>44363</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7397,31 +7508,31 @@
         <v>44399</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,37 +7540,37 @@
         <v>44417</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,37 +7578,37 @@
         <v>44600</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,31 +7616,31 @@
         <v>44644</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,37 +7648,37 @@
         <v>44659</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,28 +7686,28 @@
         <v>44775</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7604,34 +7715,34 @@
         <v>44776</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7639,37 +7750,37 @@
         <v>44826</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,37 +7788,37 @@
         <v>44839</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7715,37 +7826,37 @@
         <v>44972</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7753,34 +7864,34 @@
         <v>45012</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7788,34 +7899,34 @@
         <v>45146</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="G34" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,37 +7934,37 @@
         <v>45211</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,34 +7972,34 @@
         <v>45239</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,37 +8007,37 @@
         <v>45266</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7934,31 +8045,31 @@
         <v>45274</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,31 +8077,31 @@
         <v>45300</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7998,37 +8109,37 @@
         <v>45330</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8036,37 +8147,37 @@
         <v>45337</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,37 +8185,37 @@
         <v>45358</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8112,28 +8223,28 @@
         <v>45380</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8141,37 +8252,37 @@
         <v>45469</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8179,34 +8290,34 @@
         <v>45474</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8214,37 +8325,37 @@
         <v>45511</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8252,34 +8363,34 @@
         <v>45598</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,34 +8398,34 @@
         <v>45609</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -8342,7 +8453,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G29" activeCellId="1" sqref="D:E G29"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8354,34 +8465,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8389,22 +8500,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8418,25 +8529,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8450,22 +8561,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8479,25 +8590,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8511,22 +8622,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8540,25 +8651,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8572,22 +8683,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8601,22 +8712,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8630,25 +8741,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8662,22 +8773,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8691,25 +8802,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8723,25 +8834,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8755,25 +8866,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8787,25 +8898,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8819,22 +8930,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,25 +8953,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8868,25 +8979,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,25 +9005,25 @@
         <v>2024</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -8922,22 +9033,22 @@
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="679">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">Baltimore, MD</t>
   </si>
   <si>
-    <t xml:space="preserve">Graphics play a crucial role in statistical analysis and data mining. The lineup protocol for experimentally testing graphics has traditionally used p-values to identify plots which are significantly visually distinct from distractor plots, but this approach does not easily translate to examining randomly generated plots to determine the strength of the distractor effect. This study presents a Bayesian approach to visual inference, using bayes factors to examine the difference in signal strength in two-target statistical lineups.</t>
+    <t xml:space="preserve">Graphics play a crucial role in statistical analysis and data mining. The lineup protocol for experimentally testing graphics has traditionally used p-values to identify plots which are significantly visually distinct from distractor plots, but this approach does not easily translate to examining randomly generated plots to determine the strength of the distractor effect. This study presents a Bayesian approach to visual inference, using Bayes factors to examine the difference in signal strength in two-target statistical lineups.</t>
   </si>
   <si>
     <t xml:space="preserve">user testing, visual inference, perception</t>
@@ -1351,7 +1351,7 @@
     <t xml:space="preserve">Chicago, IL (Online)</t>
   </si>
   <si>
-    <t xml:space="preserve">During COVID, people all over the world were consulting time-series charts on a daily basis and using these charts to make decisions. Discussions broke out among data visualization and scientific communication experts, debating the relative merits of log and linear scales, but there was relativley little research about how people perceive and use visualizations of exponential data, with linear or transformed scales. In this talk, I’ll discuss the study we undertook to address the lack of research in this area, and how the results speak not only to the importance of additional graphical testing, but also to the tradeoffs between different levels of user engagement with visualizations.</t>
+    <t xml:space="preserve">During COVID, people all over the world were consulting time-series charts on a daily basis and using these charts to make decisions. Discussions broke out among data visualization and scientific communication experts, debating the relative merits of log and linear scales, but there was relatively little research about how people perceive and use visualizations of exponential data, with linear or transformed scales. In this talk, I’ll discuss the study we undertook to address the lack of research in this area, and how the results speak not only to the importance of additional graphical testing, but also to the trade offs between different levels of user engagement with visualizations.</t>
   </si>
   <si>
     <t xml:space="preserve">Creating Good Graphics</t>
@@ -1411,7 +1411,7 @@
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/</t>
   </si>
   <si>
-    <t xml:space="preserve">visualization, graphics, visuual inference, user study</t>
+    <t xml:space="preserve">visualization, graphics, visual inference, user study</t>
   </si>
   <si>
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/08-JSM/index_files/figure-revealjs/unnamed-chunk-15-1.png</t>
@@ -1423,7 +1423,7 @@
     <t xml:space="preserve">Statistical Computing Section Mini-Symposium</t>
   </si>
   <si>
-    <t xml:space="preserve">A comparison of Python, Julia, and R for web-scraping olympic athlete names, events, and birthdays. I represented python. See the full narrative here: https://srvanderplas.github.io/2024-data-jamboree-python/python-narrative.html </t>
+    <t xml:space="preserve">A comparison of Python, Julia, and R for web-scraping Olympic athlete names, events, and birthdays. I represented python. See the full narrative here: https://srvanderplas.github.io/2024-data-jamboree-python/python-narrative.html </t>
   </si>
   <si>
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slide</t>
@@ -1435,9 +1435,6 @@
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Deepartmen</t>
-  </si>
-  <si>
     <t xml:space="preserve">t Seminar</t>
   </si>
   <si>
@@ -2017,7 +2014,7 @@
     <t xml:space="preserve">New Faculty Development Program</t>
   </si>
   <si>
-    <t xml:space="preserve">Summer Institute forr Online Teaching</t>
+    <t xml:space="preserve">Summer Institute for Online Teaching</t>
   </si>
   <si>
     <t xml:space="preserve">Online course structure and backwards design principles</t>
@@ -2472,7 +2469,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>183</v>
@@ -2481,7 +2478,7 @@
         <v>185</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2490,22 +2487,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2514,22 +2511,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2538,22 +2535,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2562,22 +2559,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2586,22 +2583,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,22 +2606,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2632,22 +2629,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,22 +2652,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,19 +2678,19 @@
         <v>192</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>521</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -2722,13 +2719,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>35</v>
@@ -2743,7 +2740,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2781,25 +2778,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,18 +2816,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -2842,15 +2839,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -2865,13 +2862,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2891,13 +2888,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,21 +2914,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>541</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2943,15 +2940,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -2966,18 +2963,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2989,10 +2986,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,10 +3012,10 @@
         <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,10 +3035,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,13 +3058,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,13 +3084,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,18 +3110,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>269</v>
@@ -3136,13 +3133,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,10 +3159,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,10 +3182,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3208,10 +3205,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,13 +3228,13 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3363,7 +3360,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2023</v>
@@ -3372,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -3401,16 +3398,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
@@ -3418,10 +3415,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3432,7 +3429,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -3458,7 +3455,7 @@
         <v>44774</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -3466,7 +3463,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -3483,7 +3480,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -3497,13 +3494,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
@@ -3543,19 +3540,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>140</v>
@@ -3563,7 +3560,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3576,18 +3573,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3600,18 +3597,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3624,16 +3621,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,21 +3648,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3678,15 +3675,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3699,18 +3696,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3723,10 +3720,10 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,18 +3741,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3768,18 +3765,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3792,10 +3789,10 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3813,21 +3810,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3840,13 +3837,13 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,15 +3861,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3885,15 +3882,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3906,18 +3903,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3930,18 +3927,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3954,18 +3951,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3978,18 +3975,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4002,18 +3999,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4026,18 +4023,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4050,18 +4047,18 @@
         <v>2027</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B23" s="18" t="b">
         <v>1</v>
@@ -4073,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>633</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>634</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4111,10 +4108,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,7 +4119,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,7 +4127,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4138,7 +4135,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +4143,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,7 +4151,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,7 +4159,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4167,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,7 +4175,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4183,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4191,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4199,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4207,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4215,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4223,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4231,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4239,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4247,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4255,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -4280,7 +4277,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4290,22 +4287,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,10 +4317,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4338,10 +4335,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,10 +4353,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,7 +4371,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,10 +4386,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -4427,10 +4424,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>140</v>
@@ -4439,13 +4436,13 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4457,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2023</v>
@@ -4466,13 +4463,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4485,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2022</v>
@@ -4494,13 +4491,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4513,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2022</v>
@@ -4522,13 +4519,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4541,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2022</v>
@@ -4550,13 +4547,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4569,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2021</v>
@@ -4578,13 +4575,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4598,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2021</v>
@@ -4607,13 +4604,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4627,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2021</v>
@@ -4639,10 +4636,10 @@
         <v>338</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4656,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2020</v>
@@ -4665,16 +4662,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6086,7 +6083,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6475,7 +6472,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6710,9 +6707,9 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L62" activeCellId="0" sqref="L62"/>
+      <selection pane="bottomLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8404,28 +8401,28 @@
         <v>205</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="F48" s="15" t="s">
         <v>465</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>466</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>270</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>468</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>442</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -8465,34 +8462,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,22 +8497,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8529,25 +8526,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>487</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8561,22 +8558,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8590,25 +8587,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>486</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>487</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8622,22 +8619,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8651,25 +8648,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8683,22 +8680,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8712,22 +8709,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8741,25 +8738,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8773,22 +8770,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8802,25 +8799,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8834,25 +8831,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8866,25 +8863,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8898,25 +8895,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8930,22 +8927,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,25 +8950,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8979,25 +8976,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9005,25 +9002,25 @@
         <v>2024</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>269</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9033,22 +9030,22 @@
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>439</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -239,7 +239,7 @@
     <t xml:space="preserve">Center for Statistics and Applications in Forensic Evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-2024</t>
+    <t xml:space="preserve">2020-24</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor</t>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -221,7 +221,7 @@
     <t xml:space="preserve">Nebraska Public Power District</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr – Oct 2015</t>
+    <t xml:space="preserve">Apr -- Oct 2015</t>
   </si>
   <si>
     <t xml:space="preserve">Postdoc</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">Office of the Vice President for Research</t>
   </si>
   <si>
-    <t xml:space="preserve">2018-19</t>
+    <t xml:space="preserve">2018 –19</t>
   </si>
   <si>
     <t xml:space="preserve">Research Assistant Professor</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">Center for Statistics and Applications in Forensic Evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-24</t>
+    <t xml:space="preserve">2020 – 24</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor</t>
@@ -2276,7 +2276,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K:K D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="K:K D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2765,7 +2765,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="1" sqref="K:K E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3391,7 +3391,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="K:K A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3527,7 +3527,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="1" sqref="K:K E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4101,7 +4101,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4277,7 +4277,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="K:K D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4411,7 +4411,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4809,7 +4809,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5476,7 +5476,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="K:K J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6013,7 +6013,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6083,7 +6083,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="K:K F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6472,7 +6472,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="K:K A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6709,7 +6709,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
+      <selection pane="bottomLeft" activeCell="L48" activeCellId="1" sqref="K:K L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8450,7 +8450,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="1" sqref="K:K G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Created a mathematical model describing electrical impulse transmission and decay along neurons with varying states of myelination.</t>
   </si>
   <si>
-    <t xml:space="preserve">2015-18</t>
+    <t xml:space="preserve">2015///18</t>
   </si>
   <si>
     <t xml:space="preserve">Statistical Analyst</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">Nebraska Public Power District</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr -- Oct 2015</t>
+    <t xml:space="preserve">Apr///Oct 2015</t>
   </si>
   <si>
     <t xml:space="preserve">Postdoc</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">Office of the Vice President for Research</t>
   </si>
   <si>
-    <t xml:space="preserve">2018 –19</t>
+    <t xml:space="preserve">2018///19</t>
   </si>
   <si>
     <t xml:space="preserve">Research Assistant Professor</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">Center for Statistics and Applications in Forensic Evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 – 24</t>
+    <t xml:space="preserve">2020///24</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Professor</t>
@@ -2276,7 +2276,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="K:K D3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2453,7 +2453,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="K:K D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2712,7 +2712,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2765,7 +2765,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="1" sqref="K:K E20"/>
+      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3391,7 +3391,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="K:K A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3527,7 +3527,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="1" sqref="K:K E28"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4101,7 +4101,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4277,7 +4277,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="1" sqref="K:K D6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4411,7 +4411,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4809,7 +4809,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K:K"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5476,7 +5476,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="1" sqref="K:K J14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6013,7 +6013,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K:K A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6083,7 +6083,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="K:K F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6472,7 +6472,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="1" sqref="K:K A13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6709,7 +6709,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L48" activeCellId="1" sqref="K:K L48"/>
+      <selection pane="bottomLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8450,7 +8450,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G29" activeCellId="1" sqref="K:K G29"/>
+      <selection pane="bottomLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -2275,8 +2275,8 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4897,7 +4897,7 @@
   </sheetPr>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="692">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">end</t>
   </si>
   <si>
+    <t xml:space="preserve">datelabel</t>
+  </si>
+  <si>
     <t xml:space="preserve">major</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t xml:space="preserve">BS</t>
   </si>
   <si>
+    <t xml:space="preserve">2005///09</t>
+  </si>
+  <si>
     <t xml:space="preserve">Psychology &amp; Applied Mathematical Sciences</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t xml:space="preserve">MS</t>
   </si>
   <si>
+    <t xml:space="preserve">2009///11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Statistics</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t xml:space="preserve">Ph.D.</t>
   </si>
   <si>
+    <t xml:space="preserve">2009///15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Degree</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
-    <t xml:space="preserve">datelabel</t>
-  </si>
-  <si>
     <t xml:space="preserve">position</t>
   </si>
   <si>
@@ -221,7 +230,7 @@
     <t xml:space="preserve">Nebraska Public Power District</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr///Oct 2015</t>
+    <t xml:space="preserve">Apr 2015///Oct</t>
   </si>
   <si>
     <t xml:space="preserve">Postdoc</t>
@@ -248,7 +257,7 @@
     <t xml:space="preserve">University of Nebraska-Lincoln</t>
   </si>
   <si>
-    <t xml:space="preserve">Since 2024</t>
+    <t xml:space="preserve">///Since 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Associate Professor</t>
@@ -476,6 +485,9 @@
     <t xml:space="preserve">Tools to create visually appealing courtroom studies</t>
   </si>
   <si>
+    <t xml:space="preserve">2024///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/rachelesrogers/courtr</t>
   </si>
   <si>
@@ -485,6 +497,9 @@
     <t xml:space="preserve">Analysis of edited text data</t>
   </si>
   <si>
+    <t xml:space="preserve">2023///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/rachelesrogers/highlightr</t>
   </si>
   <si>
@@ -494,6 +509,9 @@
     <t xml:space="preserve">Generalized parallel coordinate plots</t>
   </si>
   <si>
+    <t xml:space="preserve">2021///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/heike/ggpcp</t>
   </si>
   <si>
@@ -503,6 +521,9 @@
     <t xml:space="preserve">Analysis of visual inference experiments</t>
   </si>
   <si>
+    <t xml:space="preserve">2020///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/heike/vinference</t>
   </si>
   <si>
@@ -512,6 +533,9 @@
     <t xml:space="preserve">Identification of grooves in scans of bullet land engraved areas</t>
   </si>
   <si>
+    <t xml:space="preserve">2019///21</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/heike/groovefinder</t>
   </si>
   <si>
@@ -521,6 +545,9 @@
     <t xml:space="preserve">Automated matching of 3d cartridge case scans using the congruent matching cells algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">2019///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/CSAFE-ISU/cmcR</t>
   </si>
   <si>
@@ -530,6 +557,9 @@
     <t xml:space="preserve">Automated matching of 3d bullet scans</t>
   </si>
   <si>
+    <t xml:space="preserve">2018///</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/heike/bulletxtrctr</t>
   </si>
   <si>
@@ -557,6 +587,9 @@
     <t xml:space="preserve">Acquisition of shoe images and metadata from online retailers</t>
   </si>
   <si>
+    <t xml:space="preserve">2018///20</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/srvanderplas/shoescraper</t>
   </si>
   <si>
@@ -566,6 +599,9 @@
     <t xml:space="preserve">Image registration algorithms for forensics</t>
   </si>
   <si>
+    <t xml:space="preserve">2018///21</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/srvanderplas/imagealignr</t>
   </si>
   <si>
@@ -573,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">Animated, interactive web graphics for R using ggplot2 and d3.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013///15</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/tdhock/animint</t>
@@ -2273,15 +2312,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,11 +2342,14 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2319,18 +2361,21 @@
       <c r="D2" s="3" t="n">
         <v>39948</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2342,18 +2387,21 @@
       <c r="D3" s="3" t="n">
         <v>40892</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -2365,46 +2413,52 @@
       <c r="D4" s="3" t="n">
         <v>42139</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="4"/>
@@ -2413,8 +2467,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="4"/>
@@ -2423,8 +2478,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="4"/>
@@ -2433,6 +2489,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2460,25 +2517,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2487,22 +2544,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2511,22 +2568,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2535,22 +2592,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2559,22 +2616,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2583,22 +2640,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,22 +2663,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2629,22 +2686,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2652,22 +2709,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2675,22 +2732,22 @@
         <v>20240604</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2719,16 +2776,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2740,7 +2797,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2778,36 +2835,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2018</v>
@@ -2816,21 +2873,21 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2018</v>
@@ -2839,21 +2896,21 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2018</v>
@@ -2862,24 +2919,24 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>2019</v>
@@ -2888,24 +2945,24 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2019</v>
@@ -2914,24 +2971,24 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2019</v>
@@ -2940,21 +2997,21 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>2019</v>
@@ -2963,21 +3020,21 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2019</v>
@@ -2986,21 +3043,21 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2020</v>
@@ -3009,24 +3066,24 @@
         <v>2022</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2020</v>
@@ -3035,21 +3092,21 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2020</v>
@@ -3058,24 +3115,24 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>2020</v>
@@ -3084,24 +3141,24 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2021</v>
@@ -3110,21 +3167,21 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2021</v>
@@ -3133,24 +3190,24 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2021</v>
@@ -3159,21 +3216,21 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2022</v>
@@ -3182,21 +3239,21 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2022</v>
@@ -3205,21 +3262,21 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2022</v>
@@ -3228,24 +3285,24 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2021</v>
@@ -3254,21 +3311,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2023</v>
@@ -3277,21 +3334,21 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2023</v>
@@ -3300,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2023</v>
@@ -3323,21 +3380,21 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D24" s="10" t="n">
         <v>2023</v>
@@ -3346,21 +3403,21 @@
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2023</v>
@@ -3369,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3398,41 +3455,41 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="16" t="n">
         <v>44774</v>
@@ -3441,32 +3498,32 @@
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>44774</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="17" t="n">
         <v>44835</v>
@@ -3475,35 +3532,35 @@
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3534,33 +3591,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3573,18 +3630,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3597,18 +3654,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3621,21 +3678,21 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3648,21 +3705,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3675,15 +3732,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3696,18 +3753,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3720,15 +3777,15 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B9" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3741,18 +3798,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3765,18 +3822,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3789,15 +3846,15 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B12" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3810,21 +3867,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3837,18 +3894,18 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B14" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3861,15 +3918,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3882,15 +3939,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3903,18 +3960,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3927,18 +3984,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3951,18 +4008,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3975,18 +4032,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3999,18 +4056,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4023,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4047,18 +4104,18 @@
         <v>2027</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B23" s="18" t="b">
         <v>1</v>
@@ -4070,16 +4127,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4108,10 +4165,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4119,7 +4176,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4184,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4192,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,7 +4200,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,7 +4208,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4159,7 +4216,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,7 +4224,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,7 +4232,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4240,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,7 +4248,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,7 +4256,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4207,7 +4264,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,7 +4272,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,7 +4280,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4231,7 +4288,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4239,7 +4296,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4304,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,7 +4312,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4287,22 +4344,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,10 +4374,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4335,10 +4392,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,10 +4410,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,7 +4428,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4386,10 +4443,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -4421,28 +4478,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4454,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2023</v>
@@ -4463,13 +4520,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4482,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2022</v>
@@ -4491,13 +4548,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4510,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2022</v>
@@ -4519,13 +4576,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4538,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2022</v>
@@ -4547,13 +4604,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4566,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2021</v>
@@ -4575,13 +4632,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4595,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2021</v>
@@ -4604,13 +4661,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4624,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2021</v>
@@ -4633,13 +4690,13 @@
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4653,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2020</v>
@@ -4662,16 +4719,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4816,67 +4873,67 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4955,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4908,10 +4965,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4923,19 +4980,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -4965,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -4978,19 +5035,19 @@
         <v>41789</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -5020,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5033,15 +5090,15 @@
         <v>42369</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -5071,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5084,19 +5141,19 @@
         <v>41973</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5126,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5139,19 +5196,19 @@
         <v>41136</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5181,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5194,19 +5251,19 @@
         <v>40040</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5236,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -5249,19 +5306,19 @@
         <v>39675</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5291,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5304,14 +5361,14 @@
         <v>43159</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -5342,7 +5399,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5355,16 +5412,16 @@
         <v>42278</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5373,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5386,16 +5443,16 @@
         <v>43830</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5404,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5417,16 +5474,16 @@
         <v>45519</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="9" t="n">
         <f aca="false">TRUE()</f>
@@ -5445,16 +5502,16 @@
         <v>45519</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5486,37 +5543,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -5527,7 +5584,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5537,16 +5594,16 @@
         <v>2022</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>299859</v>
@@ -5568,7 +5625,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5578,16 +5635,16 @@
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>380650</v>
@@ -5606,7 +5663,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5616,16 +5673,16 @@
         <v>2020</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>20000000</v>
@@ -5647,7 +5704,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5657,16 +5714,16 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>4000000</v>
@@ -5679,7 +5736,7 @@
         <v>400000</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>2021</v>
@@ -5690,7 +5747,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5700,16 +5757,16 @@
         <v>2021</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>300000</v>
@@ -5727,7 +5784,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5737,16 +5794,16 @@
         <v>2019</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>1500000</v>
@@ -5767,7 +5824,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -5777,16 +5834,16 @@
         <v>2018</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>197699</v>
@@ -5807,7 +5864,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5817,16 +5874,16 @@
         <v>2020</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>300000</v>
@@ -5838,7 +5895,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5848,16 +5905,16 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>20000000</v>
@@ -5872,7 +5929,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5882,16 +5939,16 @@
         <v>2019</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>3000000</v>
@@ -5903,7 +5960,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5913,16 +5970,16 @@
         <v>2018</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>281755</v>
@@ -5934,7 +5991,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5944,16 +6001,16 @@
         <v>2023</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>666485</v>
@@ -5965,7 +6022,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -5975,16 +6032,16 @@
         <v>2024</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>666485</v>
@@ -6020,25 +6077,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6090,10 +6147,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6105,13 +6162,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6120,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6133,13 +6190,13 @@
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6161,10 +6218,10 @@
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6186,10 +6243,10 @@
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -6199,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6212,10 +6269,10 @@
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -6225,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6238,10 +6295,10 @@
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -6251,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C7" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6264,10 +6321,10 @@
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -6277,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6290,10 +6347,10 @@
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -6303,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="7" t="b">
         <f aca="false">TRUE()</f>
@@ -6316,10 +6373,10 @@
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -6329,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C10" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6342,10 +6399,10 @@
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -6355,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C11" s="7" t="b">
         <f aca="false">FALSE()</f>
@@ -6368,7 +6425,7 @@
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6469,95 +6526,110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2024</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2023</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>2019</v>
@@ -6565,72 +6637,87 @@
       <c r="D6" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>2018</v>
@@ -6638,16 +6725,19 @@
       <c r="D11" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>2018</v>
@@ -6655,16 +6745,19 @@
       <c r="D12" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>2013</v>
@@ -6672,22 +6765,25 @@
       <c r="D13" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>179</v>
+      <c r="E13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="https://github.com/heike/ggpcp"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://github.com/heike/vinference"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://github.com/heike/groovefinder"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://github.com/CSAFE-ISU/cmcR"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://github.com/heike/bulletxtrctr"/>
-    <hyperlink ref="E9" r:id="rId6" display="https://github.com/heike/x3ptools"/>
-    <hyperlink ref="E10" r:id="rId7" display="https://github.com/srvanderplas/bulletsamplr"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://github.com/srvanderplas/shoescraper"/>
-    <hyperlink ref="E12" r:id="rId9" display="https://github.com/srvanderplas/imagealignr"/>
-    <hyperlink ref="E13" r:id="rId10" display="https://github.com/tdhock/animint"/>
+    <hyperlink ref="F4" r:id="rId1" display="https://github.com/heike/ggpcp"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://github.com/heike/vinference"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://github.com/heike/groovefinder"/>
+    <hyperlink ref="F7" r:id="rId4" display="https://github.com/CSAFE-ISU/cmcR"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://github.com/heike/bulletxtrctr"/>
+    <hyperlink ref="F9" r:id="rId6" display="https://github.com/heike/x3ptools"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://github.com/srvanderplas/bulletsamplr"/>
+    <hyperlink ref="F11" r:id="rId8" display="https://github.com/srvanderplas/shoescraper"/>
+    <hyperlink ref="F12" r:id="rId9" display="https://github.com/srvanderplas/imagealignr"/>
+    <hyperlink ref="F13" r:id="rId10" display="https://github.com/tdhock/animint"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6723,40 +6819,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,28 +6860,28 @@
         <v>41493</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,31 +6889,31 @@
         <v>41789</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6825,34 +6921,34 @@
         <v>41855</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6860,37 +6956,37 @@
         <v>41855</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6898,37 +6994,37 @@
         <v>42226</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6936,28 +7032,28 @@
         <v>42226</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6965,37 +7061,37 @@
         <v>42583</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7003,31 +7099,31 @@
         <v>42949</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7035,34 +7131,34 @@
         <v>43237</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7070,37 +7166,37 @@
         <v>43313</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,37 +7204,37 @@
         <v>43677</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7146,34 +7242,34 @@
         <v>43842</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F13" s="10" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,34 +7277,34 @@
         <v>43872</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7216,34 +7312,34 @@
         <v>43901</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,37 +7347,37 @@
         <v>44041</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F16" s="10" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,34 +7385,34 @@
         <v>44223</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="J17" s="10" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7324,31 +7420,31 @@
         <v>44232</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F18" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>277</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7356,34 +7452,34 @@
         <v>44271</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,37 +7487,37 @@
         <v>44285</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7429,37 +7525,37 @@
         <v>44295</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7467,37 +7563,37 @@
         <v>44363</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7505,31 +7601,31 @@
         <v>44399</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7537,37 +7633,37 @@
         <v>44417</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7575,37 +7671,37 @@
         <v>44600</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,31 +7709,31 @@
         <v>44644</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,37 +7741,37 @@
         <v>44659</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7683,28 +7779,28 @@
         <v>44775</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,34 +7808,34 @@
         <v>44776</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7747,37 +7843,37 @@
         <v>44826</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,37 +7881,37 @@
         <v>44839</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,37 +7919,37 @@
         <v>44972</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,34 +7957,34 @@
         <v>45012</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7896,34 +7992,34 @@
         <v>45146</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="D34" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F34" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7931,37 +8027,37 @@
         <v>45211</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,34 +8065,34 @@
         <v>45239</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,37 +8100,37 @@
         <v>45266</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8042,31 +8138,31 @@
         <v>45274</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8074,31 +8170,31 @@
         <v>45300</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D39" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F39" s="10" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,37 +8202,37 @@
         <v>45330</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8144,37 +8240,37 @@
         <v>45337</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8182,37 +8278,37 @@
         <v>45358</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8220,28 +8316,28 @@
         <v>45380</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,37 +8345,37 @@
         <v>45469</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,34 +8383,34 @@
         <v>45474</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>192</v>
-      </c>
       <c r="F45" s="10" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8322,37 +8418,37 @@
         <v>45511</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8360,34 +8456,34 @@
         <v>45598</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8395,34 +8491,34 @@
         <v>45609</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -8462,34 +8558,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8497,22 +8593,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8526,25 +8622,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8558,22 +8654,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8587,25 +8683,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8619,22 +8715,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8648,25 +8744,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8680,22 +8776,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8709,22 +8805,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8738,25 +8834,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8770,22 +8866,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8799,25 +8895,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8831,25 +8927,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8863,25 +8959,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8895,25 +8991,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -8927,22 +9023,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8950,25 +9046,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8976,25 +9072,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9002,25 +9098,25 @@
         <v>2024</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9030,22 +9126,22 @@
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
       <c r="E20" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -2314,7 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -3581,10 +3581,10 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4077,7 +4077,7 @@
         <v>2023</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>607</v>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="691">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1469,9 +1469,6 @@
   </si>
   <si>
     <t xml:space="preserve">computing, programming, web scraping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png</t>
   </si>
   <si>
     <t xml:space="preserve">t Seminar</t>
@@ -2526,7 +2523,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>196</v>
@@ -2535,7 +2532,7 @@
         <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2544,22 +2541,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2568,22 +2565,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2592,22 +2589,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2616,22 +2613,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2640,22 +2637,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,22 +2660,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,22 +2683,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2709,22 +2706,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,19 +2732,19 @@
         <v>205</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>533</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2776,13 +2773,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -2797,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2835,25 +2832,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,18 +2870,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2896,15 +2893,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -2919,13 +2916,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,13 +2942,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,21 +2968,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2997,15 +2994,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -3020,18 +3017,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -3043,10 +3040,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,10 +3066,10 @@
         <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3092,10 +3089,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,13 +3112,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,13 +3138,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,18 +3164,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>282</v>
@@ -3190,13 +3187,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3216,10 +3213,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3239,10 +3236,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,10 +3259,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,13 +3282,13 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3403,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>587</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,7 +3414,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2023</v>
@@ -3426,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -3455,16 +3452,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -3472,10 +3469,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3486,7 +3483,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -3503,7 +3500,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -3512,7 +3509,7 @@
         <v>44774</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -3537,7 +3534,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -3551,13 +3548,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -3581,7 +3578,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
@@ -3597,19 +3594,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>143</v>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3630,18 +3627,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3654,18 +3651,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3678,16 +3675,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3705,21 +3702,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3732,15 +3729,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3753,18 +3750,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3777,10 +3774,10 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3798,18 +3795,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3822,18 +3819,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3846,10 +3843,10 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,21 +3864,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3894,13 +3891,13 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3918,15 +3915,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3939,15 +3936,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3960,18 +3957,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3984,18 +3981,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4008,18 +4005,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4032,18 +4029,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4056,18 +4053,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4080,18 +4077,18 @@
         <v>2024</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4104,18 +4101,18 @@
         <v>2027</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" s="18" t="b">
         <v>1</v>
@@ -4127,16 +4124,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F23" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="G23" s="0" t="s">
         <v>645</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="H23" s="0" t="s">
         <v>646</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4165,10 +4162,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4173,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4181,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4189,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4197,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4205,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4213,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4221,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4229,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4237,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4245,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4253,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,7 +4261,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,7 +4269,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4277,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4285,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4293,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +4301,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +4309,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -4344,22 +4341,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,10 +4371,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,10 +4389,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,10 +4407,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4425,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,10 +4440,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -4481,10 +4478,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -4493,13 +4490,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4511,7 +4508,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2023</v>
@@ -4520,13 +4517,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4539,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2022</v>
@@ -4548,13 +4545,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4567,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2022</v>
@@ -4576,13 +4573,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4595,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2022</v>
@@ -4604,13 +4601,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4623,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2021</v>
@@ -4632,13 +4629,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4652,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2021</v>
@@ -4661,13 +4658,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4681,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2021</v>
@@ -4693,10 +4690,10 @@
         <v>351</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4710,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2020</v>
@@ -4719,16 +4716,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6802,10 +6799,10 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L48" activeCellId="0" sqref="L48"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8482,9 +8479,7 @@
       <c r="K47" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>476</v>
-      </c>
+      <c r="L47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
@@ -8500,31 +8495,30 @@
         <v>321</v>
       </c>
       <c r="E48" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>477</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>478</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>283</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>455</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L46" r:id="rId1" display="https://srvanderplas.github.io/2024-Presentations/08-JSM/index_files/figure-revealjs/unnamed-chunk-15-1.png"/>
-    <hyperlink ref="L47" r:id="rId2" location="/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png" display="https://srvanderplas.github.io/2024-Presentations/11-asa-computing/#/title-slidehttps://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8558,34 +8552,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8593,22 +8587,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8622,25 +8616,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>499</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8654,22 +8648,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8683,25 +8677,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>498</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>499</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8715,22 +8709,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8744,25 +8738,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8776,22 +8770,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8805,22 +8799,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8834,25 +8828,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8866,22 +8860,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8895,25 +8889,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8927,25 +8921,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8959,25 +8953,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8991,25 +8985,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -9023,22 +9017,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,25 +9040,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9072,25 +9066,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9098,25 +9092,25 @@
         <v>2024</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9126,22 +9120,22 @@
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>452</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="692">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t xml:space="preserve">computing, programming, web scraping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png</t>
   </si>
   <si>
     <t xml:space="preserve">t Seminar</t>
@@ -2128,7 +2131,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2165,6 +2168,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2215,7 +2224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2280,6 +2289,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2523,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>196</v>
@@ -2532,7 +2545,7 @@
         <v>198</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -2541,22 +2554,22 @@
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -2565,22 +2578,22 @@
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -2589,22 +2602,22 @@
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -2613,22 +2626,22 @@
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -2637,22 +2650,22 @@
         <v>20220117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2660,22 +2673,22 @@
         <v>20220516</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2683,22 +2696,22 @@
         <v>20230116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,22 +2719,22 @@
         <v>20240117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,19 +2745,19 @@
         <v>205</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -2773,13 +2786,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>38</v>
@@ -2794,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -2832,25 +2845,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,18 +2883,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2893,15 +2906,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -2916,13 +2929,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2942,13 +2955,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2968,21 +2981,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -2994,15 +3007,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -3017,18 +3030,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -3040,10 +3053,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,10 +3079,10 @@
         <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,10 +3102,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,13 +3125,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,13 +3151,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,18 +3177,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>282</v>
@@ -3187,13 +3200,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3226,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,10 +3249,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,10 +3272,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,13 +3295,13 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,10 +3321,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,10 +3367,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3377,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D25" s="10" t="n">
         <v>2023</v>
@@ -3423,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -3452,16 +3465,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -3469,10 +3482,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
@@ -3483,15 +3496,15 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3500,16 +3513,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="17" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>596</v>
+      <c r="D4" s="17" t="s">
+        <v>597</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -3517,15 +3530,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="18" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3534,12 +3547,12 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="17" t="n">
         <v>44409</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3548,13 +3561,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -3594,19 +3607,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>143</v>
@@ -3614,7 +3627,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3627,18 +3640,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3651,18 +3664,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3675,16 +3688,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,21 +3715,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3729,15 +3742,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3750,18 +3763,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3774,10 +3787,10 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,18 +3808,18 @@
         <v>2021</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3819,18 +3832,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3843,10 +3856,10 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,21 +3877,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3891,13 +3904,13 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,15 +3928,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3936,15 +3949,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3957,18 +3970,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3981,18 +3994,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4005,18 +4018,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4029,18 +4042,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4053,18 +4066,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4077,18 +4090,18 @@
         <v>2024</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4101,20 +4114,20 @@
         <v>2027</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="B23" s="18" t="b">
+        <v>604</v>
+      </c>
+      <c r="B23" s="19" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -4124,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4162,10 +4175,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4173,7 +4186,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4181,7 +4194,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,7 +4202,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,7 +4210,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,7 +4218,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4213,7 +4226,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4234,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,7 +4242,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +4250,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +4258,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4253,7 +4266,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4261,7 +4274,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4269,7 +4282,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,7 +4290,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4285,7 +4298,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,7 +4306,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,7 +4314,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,7 +4322,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4341,22 +4354,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,10 +4384,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,10 +4402,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,10 +4420,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,7 +4438,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,10 +4453,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -4478,10 +4491,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -4490,13 +4503,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4508,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C2" s="12" t="n">
         <v>2023</v>
@@ -4517,13 +4530,13 @@
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4536,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C3" s="12" t="n">
         <v>2022</v>
@@ -4545,13 +4558,13 @@
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4564,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C4" s="12" t="n">
         <v>2022</v>
@@ -4573,13 +4586,13 @@
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4592,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C5" s="12" t="n">
         <v>2022</v>
@@ -4601,13 +4614,13 @@
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4620,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>2021</v>
@@ -4629,13 +4642,13 @@
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4649,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>2021</v>
@@ -4658,13 +4671,13 @@
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4678,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C8" s="12" t="n">
         <v>2021</v>
@@ -4690,10 +4703,10 @@
         <v>351</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4707,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C9" s="12" t="n">
         <v>2020</v>
@@ -4716,16 +4729,16 @@
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -8479,7 +8492,9 @@
       <c r="K47" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="16" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
@@ -8495,30 +8510,31 @@
         <v>321</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>283</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>455</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L46" r:id="rId1" display="https://srvanderplas.github.io/2024-Presentations/08-JSM/index_files/figure-revealjs/unnamed-chunk-15-1.png"/>
+    <hyperlink ref="L47" r:id="rId2" display="https://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -8552,34 +8568,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8587,22 +8603,22 @@
         <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>4.92</v>
@@ -8616,25 +8632,25 @@
         <v>2020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>4.76</v>
@@ -8648,22 +8664,22 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>4.2</v>
@@ -8677,25 +8693,25 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>4.79</v>
@@ -8709,22 +8725,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>4.01</v>
@@ -8738,25 +8754,25 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>4.33</v>
@@ -8770,22 +8786,22 @@
         <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I8" s="1" t="n">
         <v>4.29</v>
@@ -8799,22 +8815,22 @@
         <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>982</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I9" s="1" t="n">
         <v>4.34</v>
@@ -8828,25 +8844,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>4.95</v>
@@ -8860,22 +8876,22 @@
         <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>3.72</v>
@@ -8889,25 +8905,25 @@
         <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>4.55</v>
@@ -8921,25 +8937,25 @@
         <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I13" s="1" t="n">
         <v>4.3</v>
@@ -8953,25 +8969,25 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>850</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>4.31</v>
@@ -8985,25 +9001,25 @@
         <v>2023</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I15" s="1" t="n">
         <v>4.13</v>
@@ -9017,22 +9033,22 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>892</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9040,25 +9056,25 @@
         <v>2024</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9066,25 +9082,25 @@
         <v>2024</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>251</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9092,25 +9108,25 @@
         <v>2024</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D19" s="10" t="n">
         <v>892</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>282</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9120,22 +9136,22 @@
         <v>2024</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>992</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>452</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -1474,7 +1474,7 @@
     <t xml:space="preserve">https://srvanderplas.github.io/2024-Presentations/11-asa-computing/cover.png</t>
   </si>
   <si>
-    <t xml:space="preserve">t Seminar</t>
+    <t xml:space="preserve">Creating Effective Graphics</t>
   </si>
   <si>
     <t xml:space="preserve">Undergraduate Creative Activities and Research Experience</t>
@@ -6812,10 +6812,10 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="L47" activeCellId="0" sqref="L47"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8504,13 +8504,13 @@
         <v>279</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>321</v>
-      </c>
       <c r="E48" s="10" t="s">
-        <v>477</v>
+        <v>281</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>478</v>

--- a/CV.xlsx
+++ b/CV.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="702">
   <si>
     <t xml:space="preserve">degree</t>
   </si>
@@ -1540,7 +1540,7 @@
     <t xml:space="preserve">Hybrid, flipped, synchronous</t>
   </si>
   <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/unl-stat850/</t>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat850/</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to Statistics</t>
@@ -1570,36 +1570,36 @@
     <t xml:space="preserve">Introduction to Statistical Computing</t>
   </si>
   <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/Stat151/</t>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat151/</t>
   </si>
   <si>
     <t xml:space="preserve">Online asynchronous</t>
   </si>
   <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/unl-stat151/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Wrangling</t>
   </si>
   <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/unl-stat251/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://srvanderplas.github.io/unl-stat892/</t>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat251/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat892-TA-prep/</t>
   </si>
   <si>
     <t xml:space="preserve">Co-taught with ISU Stat 585, Hybrid synchronous</t>
   </si>
   <si>
-    <t xml:space="preserve">https://unl-statistics.github.io/stat892-TA-prep/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stat</t>
   </si>
   <si>
     <t xml:space="preserve">Special Topics in Data Visualization</t>
   </si>
   <si>
+    <t xml:space="preserve">Technical Skills for Statisticians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://unl-statistics.github.io/stat349/</t>
+  </si>
+  <si>
     <t xml:space="preserve">length</t>
   </si>
   <si>
@@ -1651,6 +1651,21 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
+    <t xml:space="preserve">Low-stress introduction to programming for statistics students. Concepts such as conditional statements, loops, variable assignment, data types, data structures, and the beginning components of data wrangling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techniques for processing, cleaning, and visualizing messy data. Topics include data reduction strategies, data transformations, combining multiple data sources, and special types of data (text, spatial, dates and times, hierarchical).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computing Tools for Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistical computing and dynamic document creation. Modernized the course to use R and Python (preivously SAS and R) and to teach programming concepts in both languages simultaneously. Changed course to use quarto/markdown instead of LaTeX. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical communication and statistical writing course for undergraduates. Project-based learning focused primarily on writing for industry. </t>
+  </si>
+  <si>
     <t xml:space="preserve">field</t>
   </si>
   <si>
@@ -1798,12 +1813,6 @@
     <t xml:space="preserve">Dashboards for Exploratory Multivariate Data Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Carson Trego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Statistical Approach to Learning Computer Vision</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maksuda Aktar Toma</t>
   </si>
   <si>
@@ -1813,6 +1822,21 @@
     <t xml:space="preserve">Dinuwanthi Lianage</t>
   </si>
   <si>
+    <t xml:space="preserve">Harriet Mason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Economics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mason Chandler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olivia Walker</t>
+  </si>
+  <si>
     <t xml:space="preserve">Student Name</t>
   </si>
   <si>
@@ -1828,6 +1852,9 @@
     <t xml:space="preserve">Biological Systems Engineering</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jessica Hauschild</t>
   </si>
   <si>
@@ -1976,6 +2003,9 @@
   </si>
   <si>
     <t xml:space="preserve">Executive Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5 hour meetings weekly during the school year and biweekly during the summer.</t>
   </si>
   <si>
     <t xml:space="preserve">Nebraska R User Group (NEBRUG)</t>
@@ -2131,7 +2161,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="169" formatCode="yyyy\-m"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2168,12 +2198,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2224,7 +2248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2245,7 +2269,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2255,10 +2279,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2289,7 +2309,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2298,10 +2318,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2502,6 +2518,7 @@
       <c r="I10" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2550,7 +2567,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="11" t="n">
         <v>20140901</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2574,7 +2591,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="11" t="n">
         <v>20140501</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2598,7 +2615,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>20130801</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2622,7 +2639,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="11" t="n">
         <v>20130501</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2738,25 +2755,25 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="9" t="n">
         <v>20240604</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>534</v>
       </c>
     </row>
@@ -2776,10 +2793,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2810,6 +2827,110 @@
         <v>535</v>
       </c>
       <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>540</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2827,17 +2948,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="20.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="20.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,19 +2966,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>143</v>
@@ -2883,18 +3004,18 @@
         <v>2019</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -2906,15 +3027,15 @@
         <v>2019</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -2929,13 +3050,13 @@
         <v>2018</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,13 +3076,13 @@
         <v>2020</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,21 +3102,21 @@
         <v>2020</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -3007,15 +3128,15 @@
         <v>2019</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -3030,18 +3151,18 @@
         <v>2019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
@@ -3053,10 +3174,10 @@
         <v>2019</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3079,10 +3200,10 @@
         <v>129</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,10 +3223,10 @@
         <v>2020</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,13 +3246,13 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3151,13 +3272,13 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,18 +3298,18 @@
         <v>2022</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>282</v>
@@ -3200,13 +3321,13 @@
         <v>2021</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,10 +3347,10 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,10 +3370,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,10 +3393,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,13 +3416,13 @@
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,78 +3488,128 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="10" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="D25" s="10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
+      <c r="D27" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3465,16 +3636,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -3482,29 +3653,32 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>45007</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>603</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3513,16 +3687,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>44774</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>597</v>
+      <c r="D4" s="16" t="s">
+        <v>606</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -3530,15 +3704,15 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="17" t="n">
         <v>44835</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="16" t="n">
         <v>45047</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3547,29 +3721,32 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>44409</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>603</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3591,10 +3768,10 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3607,19 +3784,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>143</v>
@@ -3627,7 +3804,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B2" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3640,18 +3817,18 @@
         <v>2019</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B3" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3664,18 +3841,18 @@
         <v>2021</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B4" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3688,16 +3865,16 @@
         <v>2019</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,21 +3892,21 @@
         <v>2020</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B6" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3742,15 +3919,15 @@
         <v>2026</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B7" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3763,18 +3940,18 @@
         <v>2022</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B8" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3787,10 +3964,10 @@
         <v>2020</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,15 +3988,15 @@
         <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B10" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3832,18 +4009,18 @@
         <v>2020</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B11" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3856,10 +4033,10 @@
         <v>2024</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,21 +4054,21 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B13" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3904,13 +4081,13 @@
         <v>2022</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,15 +4105,15 @@
         <v>2022</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B15" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3949,15 +4126,15 @@
         <v>2021</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B16" s="6" t="b">
         <f aca="false">FALSE()</f>
@@ -3970,18 +4147,18 @@
         <v>2021</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B17" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -3994,18 +4171,18 @@
         <v>2023</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B18" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4018,18 +4195,18 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B19" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4042,18 +4219,18 @@
         <v>2025</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B20" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4066,18 +4243,18 @@
         <v>2024</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B21" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4090,18 +4267,18 @@
         <v>2024</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="B22" s="6" t="b">
         <f aca="false">TRUE()</f>
@@ -4113,40 +4290,44 @@
       <c r="D22" s="1" t="n">
         <v>2027</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>607</v>
+      <c r="E22" s="9" t="s">
+        <v>616</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>644</v>
+        <v>653</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="B23" s="19" t="b">
+      <c r="A23" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B23" s="8" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="9" t="n">
         <v>2024</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>645</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>647</v>
+      <c r="F23" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4359,7 @@
         <v>482</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4367,7 @@
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4375,7 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4202,7 +4383,7 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4210,7 +4391,7 @@
         <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,7 +4399,7 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,7 +4407,7 @@
         <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4415,7 @@
         <v>2021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4242,7 +4423,7 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,7 +4431,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4439,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,7 +4447,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4274,7 +4455,7 @@
         <v>2022</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4463,7 @@
         <v>2023</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4290,7 +4471,7 @@
         <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,7 +4479,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4306,7 +4487,7 @@
         <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4314,7 +4495,7 @@
         <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4503,7 @@
         <v>2023</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -4354,22 +4535,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,10 +4565,10 @@
         <v>2023</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,10 +4583,10 @@
         <v>2023</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,10 +4601,10 @@
         <v>2022</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,7 +4619,7 @@
         <v>2020</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,10 +4634,10 @@
         <v>2020</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4672,10 @@
         <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>143</v>
@@ -4503,13 +4684,13 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4521,22 +4702,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2" s="12" t="n">
+        <v>682</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>2023</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>2023</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -4549,22 +4730,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C3" s="12" t="n">
+        <v>682</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -4577,22 +4758,22 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C4" s="12" t="n">
+        <v>682</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -4605,22 +4786,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C5" s="12" t="n">
+        <v>682</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>2022</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>2022</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -4633,22 +4814,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C6" s="12" t="n">
+        <v>682</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -4662,22 +4843,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C7" s="12" t="n">
+        <v>694</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -4691,22 +4872,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C8" s="12" t="n">
+        <v>694</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -4720,25 +4901,25 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C9" s="12" t="n">
+        <v>694</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <v>2020</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>2020</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -4947,6 +5128,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5480,10 +5662,10 @@
       <c r="D11" s="4" t="n">
         <v>43831</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="5" t="n">
         <v>45519</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5497,30 +5679,30 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="8" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="5" t="n">
         <v>45519</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5548,7 +5730,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="31.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="31.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6198,7 @@
       <c r="E13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -6047,7 +6229,7 @@
       <c r="E14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -6193,10 +6375,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="11" t="n">
         <v>2021</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="11" t="n">
         <v>2021</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6205,7 +6387,7 @@
       <c r="G2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6221,10 +6403,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="11" t="n">
         <v>2012</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="11" t="n">
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6246,10 +6428,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="11" t="n">
         <v>2011</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -6272,10 +6454,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -6298,10 +6480,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -6324,10 +6506,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <v>2009</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -6350,10 +6532,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>2006</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -6376,10 +6558,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="11" t="n">
         <v>2009</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -6402,10 +6584,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -6428,10 +6610,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="11" t="n">
         <v>2005</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="11" t="n">
         <v>2005</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -6467,7 +6649,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6506,7 +6688,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -6516,7 +6698,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -6610,10 +6792,10 @@
       <c r="C4" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6627,10 +6809,10 @@
       <c r="C5" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6650,7 +6832,7 @@
       <c r="E6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -6664,10 +6846,10 @@
       <c r="C7" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6681,10 +6863,10 @@
       <c r="C8" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6698,10 +6880,10 @@
       <c r="C9" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6715,10 +6897,10 @@
       <c r="C10" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6738,7 +6920,7 @@
       <c r="E11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6758,7 +6940,7 @@
       <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6778,7 +6960,7 @@
       <c r="E13" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6812,1722 +6994,1722 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="15.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="10" width="15.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="19.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="15.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="5" t="n">
         <v>41493</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="5" t="n">
         <v>41789</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="5" t="n">
         <v>41855</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="5" t="n">
         <v>41855</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="5" t="n">
         <v>42226</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="5" t="n">
         <v>42226</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="5" t="n">
         <v>42583</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="5" t="n">
         <v>42949</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="5" t="n">
         <v>43237</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="5" t="n">
         <v>43313</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="5" t="n">
         <v>43677</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="5" t="n">
         <v>43842</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="5" t="n">
         <v>43872</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="5" t="n">
         <v>43901</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>281</v>
       </c>
-      <